--- a/project/uploads/93/split_output/1-机台设备.xlsx
+++ b/project/uploads/93/split_output/1-机台设备.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33EE5D5A-5D0C-4FAE-B985-B943321F87A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A59A61C1-C465-4FAC-8CE0-C941FB900177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{1DBD3FF2-8F60-415F-BE1E-50012A3EC1A7}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="8170" xr2:uid="{0C7E4772-A3FC-46A5-867B-D73E694ACB89}"/>
   </bookViews>
   <sheets>
     <sheet name="1-机台设备" sheetId="1" r:id="rId1"/>
@@ -3685,9 +3685,9 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 17 3" xfId="3" xr:uid="{1C69BC35-953D-44EE-B064-3F7171D61446}"/>
-    <cellStyle name="常规 3 2 4" xfId="4" xr:uid="{30A97562-4433-4650-807E-E9D3834238F5}"/>
-    <cellStyle name="常规 3 8" xfId="2" xr:uid="{F79AAD36-2AFA-4FC7-AEAE-EDDCEAEDEEFB}"/>
+    <cellStyle name="常规 17 3" xfId="3" xr:uid="{D74F7FD7-E07A-4F03-AEF4-F686DFC06284}"/>
+    <cellStyle name="常规 3 2 4" xfId="4" xr:uid="{B82514AC-9AD2-461D-A048-46B829357CBF}"/>
+    <cellStyle name="常规 3 8" xfId="2" xr:uid="{C25C4276-3647-4366-BFB6-BD5951B379DC}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3723,7 +3723,7 @@
         <xdr:cNvPr id="2" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D403D8-314C-4C14-818E-DFC6B5278772}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB818A3-2F4A-4E0E-ABF4-012E7D7F86C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3733,7 +3733,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="22539960" y="13592175"/>
+          <a:off x="22517100" y="13642975"/>
           <a:ext cx="0" cy="95250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3768,7 +3768,7 @@
         <xdr:cNvPr id="3" name="Line 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{173945AD-350A-4E2F-BEDF-7C6EB626ACE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A133B588-3929-4552-81D8-DD0CC134570D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3778,7 +3778,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22539960" y="13592175"/>
+          <a:off x="22517100" y="13642975"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3813,7 +3813,7 @@
         <xdr:cNvPr id="4" name="Line 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{440A66FF-B89F-42F7-89B6-389C9E20D046}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5920E108-4DB8-4F42-877B-D873CD8B590E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3823,7 +3823,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22539960" y="13592175"/>
+          <a:off x="22517100" y="13642975"/>
           <a:ext cx="0" cy="95250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3858,7 +3858,7 @@
         <xdr:cNvPr id="5" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B01697-7B23-439C-99A1-57B67D58FB15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F9A8FF-E4FD-4331-BD15-D18392A809BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3868,7 +3868,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22539960" y="13677900"/>
+          <a:off x="22517100" y="13728700"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3895,15 +3895,15 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>414655</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>253365</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E1E899-22CB-47CA-B881-F29EA9F5EACE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05BC405E-8C82-41E3-A55C-304B905C30EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3919,8 +3919,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="17214215"/>
-          <a:ext cx="5862320" cy="3239770"/>
+          <a:off x="635" y="17265015"/>
+          <a:ext cx="5862320" cy="3270250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3951,7 +3951,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD353B56-419A-4570-8B40-D32837C6B3A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACBB5B0-DD56-4A84-8AE9-8D57010EA219}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3967,8 +3967,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9686290" y="11407140"/>
-          <a:ext cx="6294120" cy="4418965"/>
+          <a:off x="9682480" y="11457940"/>
+          <a:ext cx="6291580" cy="4418965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3999,7 +3999,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2982B6D-275A-43AC-9C82-7918237ABF38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B52E148-B1EC-49F3-BB7F-C0050E6BBFF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4015,8 +4015,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9347200" y="15993110"/>
-          <a:ext cx="6365875" cy="4020185"/>
+          <a:off x="9343390" y="16043910"/>
+          <a:ext cx="6363335" cy="4048125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4047,7 +4047,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4731726-B62E-494D-9D36-1E9B85C227C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D630E25A-A109-41FD-9781-58D946D52440}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4063,8 +4063,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="20577810"/>
-          <a:ext cx="5402580" cy="3634105"/>
+          <a:off x="635" y="20661630"/>
+          <a:ext cx="5403850" cy="3669665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4095,7 +4095,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6563A72-04E3-4300-AD25-DB8E950C44B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F68CEE3-9391-42C3-95F7-88AC683F8413}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4111,8 +4111,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15977235" y="10485120"/>
-          <a:ext cx="13576935" cy="3759200"/>
+          <a:off x="15970885" y="10533380"/>
+          <a:ext cx="13551535" cy="3761740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4143,7 +4143,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61FEAE5A-6DC1-41B2-AE71-665409047321}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9908F2C-32BF-4CB1-B594-3F9DD8A82DAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4159,8 +4159,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5414010" y="19945985"/>
-          <a:ext cx="7734300" cy="4658360"/>
+          <a:off x="5415280" y="20022185"/>
+          <a:ext cx="7726680" cy="4706620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4191,7 +4191,7 @@
         <xdr:cNvPr id="12" name="图片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46247FD-7BDA-4EBE-9021-6BA7AD82809E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42537083-3B9B-4495-BA6A-1959BBC6389B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4207,8 +4207,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13867765" y="19871055"/>
-          <a:ext cx="9167495" cy="4745355"/>
+          <a:off x="13861415" y="19947255"/>
+          <a:ext cx="9150985" cy="4793615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4239,7 +4239,7 @@
         <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64616B3-271E-4CCE-A416-009A77470671}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D1C2B2-F252-4B03-9EE4-E2586B3A93B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4255,8 +4255,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5325745" y="24667845"/>
-          <a:ext cx="7766050" cy="4903470"/>
+          <a:off x="5327015" y="24792305"/>
+          <a:ext cx="7758430" cy="4954270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4287,7 +4287,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{706717CA-FED2-4749-8F4F-5B7B429A9203}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DB7A3E-0E3B-47A7-B746-63E8D804E44B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4303,8 +4303,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13897610" y="24682450"/>
-          <a:ext cx="3708400" cy="4987925"/>
+          <a:off x="13891260" y="24806910"/>
+          <a:ext cx="3704590" cy="5038725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4335,7 +4335,7 @@
         <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF913A29-CA30-4671-9D4C-1D08F2CCA963}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147F5C24-83E9-48E9-8B28-A0D63EE05C0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4351,8 +4351,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5344160" y="29679265"/>
-          <a:ext cx="7769225" cy="5288915"/>
+          <a:off x="5345430" y="29854525"/>
+          <a:ext cx="7761605" cy="5342255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4383,7 +4383,7 @@
         <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3E6F54-88E8-433B-8547-4D48A751874A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B42F8D-233C-479F-8B86-D42603F8CCF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4399,8 +4399,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13858875" y="29743400"/>
-          <a:ext cx="7732395" cy="5222875"/>
+          <a:off x="13852525" y="29918660"/>
+          <a:ext cx="7718425" cy="5276215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4424,14 +4424,14 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>2540</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="17" name="图片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77592915-2F1F-4A3E-81E3-B0A6B9E93CF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9433EC2D-BF8E-4FB1-B2CF-75DFA6C0D86B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4447,8 +4447,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253990" y="35088195"/>
-          <a:ext cx="7905750" cy="5483225"/>
+          <a:off x="5255260" y="35319335"/>
+          <a:ext cx="7898130" cy="5536565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4479,7 +4479,7 @@
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFBDA40-DD40-4308-ABA6-6A3220A7565B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA3FC97-2D5A-44F8-9D22-D14FBA530250}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4495,8 +4495,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5154930" y="40713660"/>
-          <a:ext cx="8138795" cy="5508625"/>
+          <a:off x="5156200" y="41000680"/>
+          <a:ext cx="8131175" cy="5564505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4527,7 +4527,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3ABE78-BA1F-4100-BAD2-DE51D101435F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F74EC93A-7EFB-4BC2-B835-B9E6FD31B789}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4543,8 +4543,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14042390" y="40882570"/>
-          <a:ext cx="7579995" cy="5156200"/>
+          <a:off x="14036040" y="41172130"/>
+          <a:ext cx="7566025" cy="5207000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4575,7 +4575,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89F10A2-DBAB-4156-BCF7-01A6CAC55881}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{789830DA-C091-4322-A1B7-84A99A4D85AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4591,8 +4591,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13933170" y="35496500"/>
-          <a:ext cx="8378190" cy="4766310"/>
+          <a:off x="13926820" y="35730180"/>
+          <a:ext cx="8362950" cy="4814570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4623,7 +4623,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8E4D62-B81B-4BF7-ADC5-108DE692AC5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3A7355-F7AC-4420-894D-AC862D9B984F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4639,8 +4639,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15912465" y="14420215"/>
-          <a:ext cx="6732905" cy="5423535"/>
+          <a:off x="15906115" y="14471015"/>
+          <a:ext cx="6716395" cy="5448935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4671,7 +4671,7 @@
         <xdr:cNvPr id="22" name="组合 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B0EE3A-6345-431E-917D-2E0F3DCA424D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F886F02D-A95C-42C4-B83B-A0A41D0C0BC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4680,7 +4680,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="635" y="11279588"/>
-          <a:ext cx="9601200" cy="5893076"/>
+          <a:ext cx="9571383" cy="5755032"/>
           <a:chOff x="600075" y="38059179"/>
           <a:chExt cx="8805433" cy="5931956"/>
         </a:xfrm>
@@ -4690,7 +4690,7 @@
           <xdr:cNvPr id="23" name="图片 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA5A4009-62BF-F998-D4D2-522D529D269A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082AA164-BBD8-B128-F63A-D514E1DC0E1B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4723,7 +4723,7 @@
           <xdr:cNvPr id="24" name="矩形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A29A84-1DD7-1396-2A84-94BC5318A402}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25A8EFE-6C7F-1679-7751-C2151B44A3DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4754,7 +4754,7 @@
           <xdr:cNvPr id="25" name="矩形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161FEAC8-081F-15DA-562B-8898E630897E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55403B65-99C1-D65A-5BCB-1AAA7F712053}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4785,7 +4785,7 @@
           <xdr:cNvPr id="26" name="直接连接符 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1940FEB6-9228-B7AF-9C4F-ECB6B55EB759}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F595D31-D3C8-25A3-A14F-2C4B1009B013}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4814,7 +4814,7 @@
           <xdr:cNvPr id="27" name="直接连接符 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB0F808-1173-B179-4C95-405C3AEF7634}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACDEBFE5-6E36-3013-B67B-00129EE595CC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4843,7 +4843,7 @@
           <xdr:cNvPr id="28" name="直接箭头连接符 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1CAF02-2FB5-1680-4B19-3F05622C0A73}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1B3E77-9B4D-46D3-4E14-5E460779A18E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4872,7 +4872,7 @@
           <xdr:cNvPr id="29" name="直接箭头连接符 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18EAA0BA-835A-5CA2-F782-CD67B5CDBE51}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D5E12A-F7E9-A08E-F831-B17DBC98B46C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4901,7 +4901,7 @@
           <xdr:cNvPr id="30" name="文本框 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA84EA16-1108-1D78-91C6-69743F610667}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA42BBC2-9583-9F02-CC4B-FC5BE4B6D439}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5049,7 +5049,7 @@
           <xdr:cNvPr id="31" name="矩形 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC3FDAB6-4406-3F02-3FA3-BE8B406D8657}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B523D5-FDBA-0CB9-4536-0B17643925EC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5080,7 +5080,7 @@
           <xdr:cNvPr id="32" name="直接箭头连接符 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA041AF-1F5A-A3CC-7C61-910ADA073128}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D91C4A9-72FD-B2C6-FD03-1EAA6753A88E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5109,7 +5109,7 @@
           <xdr:cNvPr id="33" name="直接连接符 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9363338A-B52E-329A-43D6-03834E9E91BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC07E7D-031A-5B32-DA93-240B3C73D968}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5138,7 +5138,7 @@
           <xdr:cNvPr id="34" name="直接连接符 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3525D16D-35FD-4722-3AB3-E072B9BF932B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959ED137-AECA-0DF0-C2A8-4E74571C9945}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5167,7 +5167,7 @@
           <xdr:cNvPr id="35" name="文本框 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76121117-A7D9-6B61-CC91-739DA5B3698A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11FCCA4E-9952-49A2-96A6-3A19F0F51C8F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5332,7 +5332,7 @@
         <xdr:cNvPr id="36" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8454716B-1086-44B5-929B-5EF64AB10887}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52ED4292-9146-4228-851D-68B2B168CEE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5349,8 +5349,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22888575" y="14229080"/>
-          <a:ext cx="7538720" cy="5779135"/>
+          <a:off x="22865715" y="14279880"/>
+          <a:ext cx="7528560" cy="5807075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5381,7 +5381,7 @@
         <xdr:cNvPr id="37" name="图片 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A56A09-4A10-4EAE-913D-3E88372D1E81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565FD349-0055-4607-A0EC-9911882186A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5397,8 +5397,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15770225" y="5616575"/>
-          <a:ext cx="9171305" cy="4691380"/>
+          <a:off x="15763875" y="5634355"/>
+          <a:ext cx="9152255" cy="4721860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5429,7 +5429,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72EF3FE-4F7E-4F9A-BDEC-9F550585ABA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F904036-1CD3-4FDD-A095-B62B144486B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5445,8 +5445,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15907385" y="2127885"/>
-          <a:ext cx="7628890" cy="3303905"/>
+          <a:off x="15901035" y="2130425"/>
+          <a:ext cx="7611110" cy="3319145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11072,7 +11072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD1BAC4-9B4E-4A08-8A2E-CED487DF7ABA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FD39D2-C831-45BE-96AA-9F7943203020}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -11082,1421 +11082,1421 @@
       <selection activeCell="T17" sqref="T17:X21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.7265625" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="4" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="12" customWidth="1"/>
-    <col min="7" max="8" width="5.6640625" style="12" customWidth="1"/>
-    <col min="9" max="10" width="7.33203125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="12" customWidth="1"/>
-    <col min="12" max="13" width="5.6640625" style="12" customWidth="1"/>
-    <col min="14" max="15" width="9.5546875" style="12" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" style="12" customWidth="1"/>
-    <col min="17" max="17" width="10" style="12" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" style="12" customWidth="1"/>
-    <col min="20" max="23" width="5.6640625" style="12" customWidth="1"/>
-    <col min="24" max="24" width="41.109375" style="12" customWidth="1"/>
-    <col min="25" max="26" width="9.5546875" style="12" customWidth="1"/>
-    <col min="27" max="27" width="7.33203125" style="12" customWidth="1"/>
-    <col min="28" max="28" width="12.21875" style="12" customWidth="1"/>
-    <col min="29" max="29" width="8.44140625" style="12" customWidth="1"/>
-    <col min="30" max="30" width="11.77734375" style="12" customWidth="1"/>
-    <col min="31" max="31" width="6.21875" style="12" customWidth="1"/>
-    <col min="32" max="32" width="6.21875" style="202" customWidth="1"/>
-    <col min="33" max="33" width="13.21875" style="12" customWidth="1"/>
-    <col min="34" max="35" width="7.33203125" style="12" customWidth="1"/>
-    <col min="36" max="259" width="14" style="12"/>
-    <col min="260" max="260" width="5.109375" style="12" customWidth="1"/>
-    <col min="261" max="261" width="4" style="12" customWidth="1"/>
-    <col min="262" max="262" width="6.21875" style="12" customWidth="1"/>
-    <col min="263" max="263" width="17.88671875" style="12" customWidth="1"/>
-    <col min="264" max="264" width="21.109375" style="12" customWidth="1"/>
-    <col min="265" max="265" width="8.44140625" style="12" customWidth="1"/>
-    <col min="266" max="267" width="5.6640625" style="12" customWidth="1"/>
-    <col min="268" max="269" width="7.33203125" style="12" customWidth="1"/>
-    <col min="270" max="270" width="8.5546875" style="12" customWidth="1"/>
-    <col min="271" max="272" width="5.6640625" style="12" customWidth="1"/>
-    <col min="273" max="274" width="5.109375" style="12" customWidth="1"/>
-    <col min="275" max="279" width="5.6640625" style="12" customWidth="1"/>
-    <col min="280" max="280" width="6.21875" style="12" customWidth="1"/>
-    <col min="281" max="282" width="9.5546875" style="12" customWidth="1"/>
-    <col min="283" max="283" width="7.33203125" style="12" customWidth="1"/>
-    <col min="284" max="284" width="12.21875" style="12" customWidth="1"/>
-    <col min="285" max="285" width="8.44140625" style="12" customWidth="1"/>
-    <col min="286" max="286" width="11.77734375" style="12" customWidth="1"/>
-    <col min="287" max="288" width="6.21875" style="12" customWidth="1"/>
-    <col min="289" max="289" width="13.21875" style="12" customWidth="1"/>
-    <col min="290" max="291" width="7.33203125" style="12" customWidth="1"/>
-    <col min="292" max="515" width="14" style="12"/>
-    <col min="516" max="516" width="5.109375" style="12" customWidth="1"/>
-    <col min="517" max="517" width="4" style="12" customWidth="1"/>
-    <col min="518" max="518" width="6.21875" style="12" customWidth="1"/>
-    <col min="519" max="519" width="17.88671875" style="12" customWidth="1"/>
-    <col min="520" max="520" width="21.109375" style="12" customWidth="1"/>
-    <col min="521" max="521" width="8.44140625" style="12" customWidth="1"/>
-    <col min="522" max="523" width="5.6640625" style="12" customWidth="1"/>
-    <col min="524" max="525" width="7.33203125" style="12" customWidth="1"/>
-    <col min="526" max="526" width="8.5546875" style="12" customWidth="1"/>
-    <col min="527" max="528" width="5.6640625" style="12" customWidth="1"/>
-    <col min="529" max="530" width="5.109375" style="12" customWidth="1"/>
-    <col min="531" max="535" width="5.6640625" style="12" customWidth="1"/>
-    <col min="536" max="536" width="6.21875" style="12" customWidth="1"/>
-    <col min="537" max="538" width="9.5546875" style="12" customWidth="1"/>
-    <col min="539" max="539" width="7.33203125" style="12" customWidth="1"/>
-    <col min="540" max="540" width="12.21875" style="12" customWidth="1"/>
-    <col min="541" max="541" width="8.44140625" style="12" customWidth="1"/>
-    <col min="542" max="542" width="11.77734375" style="12" customWidth="1"/>
-    <col min="543" max="544" width="6.21875" style="12" customWidth="1"/>
-    <col min="545" max="545" width="13.21875" style="12" customWidth="1"/>
-    <col min="546" max="547" width="7.33203125" style="12" customWidth="1"/>
-    <col min="548" max="771" width="14" style="12"/>
-    <col min="772" max="772" width="5.109375" style="12" customWidth="1"/>
-    <col min="773" max="773" width="4" style="12" customWidth="1"/>
-    <col min="774" max="774" width="6.21875" style="12" customWidth="1"/>
-    <col min="775" max="775" width="17.88671875" style="12" customWidth="1"/>
-    <col min="776" max="776" width="21.109375" style="12" customWidth="1"/>
-    <col min="777" max="777" width="8.44140625" style="12" customWidth="1"/>
-    <col min="778" max="779" width="5.6640625" style="12" customWidth="1"/>
-    <col min="780" max="781" width="7.33203125" style="12" customWidth="1"/>
-    <col min="782" max="782" width="8.5546875" style="12" customWidth="1"/>
-    <col min="783" max="784" width="5.6640625" style="12" customWidth="1"/>
-    <col min="785" max="786" width="5.109375" style="12" customWidth="1"/>
-    <col min="787" max="791" width="5.6640625" style="12" customWidth="1"/>
-    <col min="792" max="792" width="6.21875" style="12" customWidth="1"/>
-    <col min="793" max="794" width="9.5546875" style="12" customWidth="1"/>
-    <col min="795" max="795" width="7.33203125" style="12" customWidth="1"/>
-    <col min="796" max="796" width="12.21875" style="12" customWidth="1"/>
-    <col min="797" max="797" width="8.44140625" style="12" customWidth="1"/>
-    <col min="798" max="798" width="11.77734375" style="12" customWidth="1"/>
-    <col min="799" max="800" width="6.21875" style="12" customWidth="1"/>
-    <col min="801" max="801" width="13.21875" style="12" customWidth="1"/>
-    <col min="802" max="803" width="7.33203125" style="12" customWidth="1"/>
-    <col min="804" max="1027" width="14" style="12"/>
-    <col min="1028" max="1028" width="5.109375" style="12" customWidth="1"/>
-    <col min="1029" max="1029" width="4" style="12" customWidth="1"/>
-    <col min="1030" max="1030" width="6.21875" style="12" customWidth="1"/>
-    <col min="1031" max="1031" width="17.88671875" style="12" customWidth="1"/>
-    <col min="1032" max="1032" width="21.109375" style="12" customWidth="1"/>
-    <col min="1033" max="1033" width="8.44140625" style="12" customWidth="1"/>
-    <col min="1034" max="1035" width="5.6640625" style="12" customWidth="1"/>
-    <col min="1036" max="1037" width="7.33203125" style="12" customWidth="1"/>
-    <col min="1038" max="1038" width="8.5546875" style="12" customWidth="1"/>
-    <col min="1039" max="1040" width="5.6640625" style="12" customWidth="1"/>
-    <col min="1041" max="1042" width="5.109375" style="12" customWidth="1"/>
-    <col min="1043" max="1047" width="5.6640625" style="12" customWidth="1"/>
-    <col min="1048" max="1048" width="6.21875" style="12" customWidth="1"/>
-    <col min="1049" max="1050" width="9.5546875" style="12" customWidth="1"/>
-    <col min="1051" max="1051" width="7.33203125" style="12" customWidth="1"/>
-    <col min="1052" max="1052" width="12.21875" style="12" customWidth="1"/>
-    <col min="1053" max="1053" width="8.44140625" style="12" customWidth="1"/>
-    <col min="1054" max="1054" width="11.77734375" style="12" customWidth="1"/>
-    <col min="1055" max="1056" width="6.21875" style="12" customWidth="1"/>
-    <col min="1057" max="1057" width="13.21875" style="12" customWidth="1"/>
-    <col min="1058" max="1059" width="7.33203125" style="12" customWidth="1"/>
-    <col min="1060" max="1283" width="14" style="12"/>
-    <col min="1284" max="1284" width="5.109375" style="12" customWidth="1"/>
-    <col min="1285" max="1285" width="4" style="12" customWidth="1"/>
-    <col min="1286" max="1286" width="6.21875" style="12" customWidth="1"/>
-    <col min="1287" max="1287" width="17.88671875" style="12" customWidth="1"/>
-    <col min="1288" max="1288" width="21.109375" style="12" customWidth="1"/>
-    <col min="1289" max="1289" width="8.44140625" style="12" customWidth="1"/>
-    <col min="1290" max="1291" width="5.6640625" style="12" customWidth="1"/>
-    <col min="1292" max="1293" width="7.33203125" style="12" customWidth="1"/>
-    <col min="1294" max="1294" width="8.5546875" style="12" customWidth="1"/>
-    <col min="1295" max="1296" width="5.6640625" style="12" customWidth="1"/>
-    <col min="1297" max="1298" width="5.109375" style="12" customWidth="1"/>
-    <col min="1299" max="1303" width="5.6640625" style="12" customWidth="1"/>
-    <col min="1304" max="1304" width="6.21875" style="12" customWidth="1"/>
-    <col min="1305" max="1306" width="9.5546875" style="12" customWidth="1"/>
-    <col min="1307" max="1307" width="7.33203125" style="12" customWidth="1"/>
-    <col min="1308" max="1308" width="12.21875" style="12" customWidth="1"/>
-    <col min="1309" max="1309" width="8.44140625" style="12" customWidth="1"/>
-    <col min="1310" max="1310" width="11.77734375" style="12" customWidth="1"/>
-    <col min="1311" max="1312" width="6.21875" style="12" customWidth="1"/>
-    <col min="1313" max="1313" width="13.21875" style="12" customWidth="1"/>
-    <col min="1314" max="1315" width="7.33203125" style="12" customWidth="1"/>
-    <col min="1316" max="1539" width="14" style="12"/>
-    <col min="1540" max="1540" width="5.109375" style="12" customWidth="1"/>
-    <col min="1541" max="1541" width="4" style="12" customWidth="1"/>
-    <col min="1542" max="1542" width="6.21875" style="12" customWidth="1"/>
-    <col min="1543" max="1543" width="17.88671875" style="12" customWidth="1"/>
-    <col min="1544" max="1544" width="21.109375" style="12" customWidth="1"/>
-    <col min="1545" max="1545" width="8.44140625" style="12" customWidth="1"/>
-    <col min="1546" max="1547" width="5.6640625" style="12" customWidth="1"/>
-    <col min="1548" max="1549" width="7.33203125" style="12" customWidth="1"/>
-    <col min="1550" max="1550" width="8.5546875" style="12" customWidth="1"/>
-    <col min="1551" max="1552" width="5.6640625" style="12" customWidth="1"/>
-    <col min="1553" max="1554" width="5.109375" style="12" customWidth="1"/>
-    <col min="1555" max="1559" width="5.6640625" style="12" customWidth="1"/>
-    <col min="1560" max="1560" width="6.21875" style="12" customWidth="1"/>
-    <col min="1561" max="1562" width="9.5546875" style="12" customWidth="1"/>
-    <col min="1563" max="1563" width="7.33203125" style="12" customWidth="1"/>
-    <col min="1564" max="1564" width="12.21875" style="12" customWidth="1"/>
-    <col min="1565" max="1565" width="8.44140625" style="12" customWidth="1"/>
-    <col min="1566" max="1566" width="11.77734375" style="12" customWidth="1"/>
-    <col min="1567" max="1568" width="6.21875" style="12" customWidth="1"/>
-    <col min="1569" max="1569" width="13.21875" style="12" customWidth="1"/>
-    <col min="1570" max="1571" width="7.33203125" style="12" customWidth="1"/>
-    <col min="1572" max="1795" width="14" style="12"/>
-    <col min="1796" max="1796" width="5.109375" style="12" customWidth="1"/>
-    <col min="1797" max="1797" width="4" style="12" customWidth="1"/>
-    <col min="1798" max="1798" width="6.21875" style="12" customWidth="1"/>
-    <col min="1799" max="1799" width="17.88671875" style="12" customWidth="1"/>
-    <col min="1800" max="1800" width="21.109375" style="12" customWidth="1"/>
-    <col min="1801" max="1801" width="8.44140625" style="12" customWidth="1"/>
-    <col min="1802" max="1803" width="5.6640625" style="12" customWidth="1"/>
-    <col min="1804" max="1805" width="7.33203125" style="12" customWidth="1"/>
-    <col min="1806" max="1806" width="8.5546875" style="12" customWidth="1"/>
-    <col min="1807" max="1808" width="5.6640625" style="12" customWidth="1"/>
-    <col min="1809" max="1810" width="5.109375" style="12" customWidth="1"/>
-    <col min="1811" max="1815" width="5.6640625" style="12" customWidth="1"/>
-    <col min="1816" max="1816" width="6.21875" style="12" customWidth="1"/>
-    <col min="1817" max="1818" width="9.5546875" style="12" customWidth="1"/>
-    <col min="1819" max="1819" width="7.33203125" style="12" customWidth="1"/>
-    <col min="1820" max="1820" width="12.21875" style="12" customWidth="1"/>
-    <col min="1821" max="1821" width="8.44140625" style="12" customWidth="1"/>
-    <col min="1822" max="1822" width="11.77734375" style="12" customWidth="1"/>
-    <col min="1823" max="1824" width="6.21875" style="12" customWidth="1"/>
-    <col min="1825" max="1825" width="13.21875" style="12" customWidth="1"/>
-    <col min="1826" max="1827" width="7.33203125" style="12" customWidth="1"/>
-    <col min="1828" max="2051" width="14" style="12"/>
-    <col min="2052" max="2052" width="5.109375" style="12" customWidth="1"/>
-    <col min="2053" max="2053" width="4" style="12" customWidth="1"/>
-    <col min="2054" max="2054" width="6.21875" style="12" customWidth="1"/>
-    <col min="2055" max="2055" width="17.88671875" style="12" customWidth="1"/>
-    <col min="2056" max="2056" width="21.109375" style="12" customWidth="1"/>
-    <col min="2057" max="2057" width="8.44140625" style="12" customWidth="1"/>
-    <col min="2058" max="2059" width="5.6640625" style="12" customWidth="1"/>
-    <col min="2060" max="2061" width="7.33203125" style="12" customWidth="1"/>
-    <col min="2062" max="2062" width="8.5546875" style="12" customWidth="1"/>
-    <col min="2063" max="2064" width="5.6640625" style="12" customWidth="1"/>
-    <col min="2065" max="2066" width="5.109375" style="12" customWidth="1"/>
-    <col min="2067" max="2071" width="5.6640625" style="12" customWidth="1"/>
-    <col min="2072" max="2072" width="6.21875" style="12" customWidth="1"/>
-    <col min="2073" max="2074" width="9.5546875" style="12" customWidth="1"/>
-    <col min="2075" max="2075" width="7.33203125" style="12" customWidth="1"/>
-    <col min="2076" max="2076" width="12.21875" style="12" customWidth="1"/>
-    <col min="2077" max="2077" width="8.44140625" style="12" customWidth="1"/>
-    <col min="2078" max="2078" width="11.77734375" style="12" customWidth="1"/>
-    <col min="2079" max="2080" width="6.21875" style="12" customWidth="1"/>
-    <col min="2081" max="2081" width="13.21875" style="12" customWidth="1"/>
-    <col min="2082" max="2083" width="7.33203125" style="12" customWidth="1"/>
-    <col min="2084" max="2307" width="14" style="12"/>
-    <col min="2308" max="2308" width="5.109375" style="12" customWidth="1"/>
-    <col min="2309" max="2309" width="4" style="12" customWidth="1"/>
-    <col min="2310" max="2310" width="6.21875" style="12" customWidth="1"/>
-    <col min="2311" max="2311" width="17.88671875" style="12" customWidth="1"/>
-    <col min="2312" max="2312" width="21.109375" style="12" customWidth="1"/>
-    <col min="2313" max="2313" width="8.44140625" style="12" customWidth="1"/>
-    <col min="2314" max="2315" width="5.6640625" style="12" customWidth="1"/>
-    <col min="2316" max="2317" width="7.33203125" style="12" customWidth="1"/>
-    <col min="2318" max="2318" width="8.5546875" style="12" customWidth="1"/>
-    <col min="2319" max="2320" width="5.6640625" style="12" customWidth="1"/>
-    <col min="2321" max="2322" width="5.109375" style="12" customWidth="1"/>
-    <col min="2323" max="2327" width="5.6640625" style="12" customWidth="1"/>
-    <col min="2328" max="2328" width="6.21875" style="12" customWidth="1"/>
-    <col min="2329" max="2330" width="9.5546875" style="12" customWidth="1"/>
-    <col min="2331" max="2331" width="7.33203125" style="12" customWidth="1"/>
-    <col min="2332" max="2332" width="12.21875" style="12" customWidth="1"/>
-    <col min="2333" max="2333" width="8.44140625" style="12" customWidth="1"/>
-    <col min="2334" max="2334" width="11.77734375" style="12" customWidth="1"/>
-    <col min="2335" max="2336" width="6.21875" style="12" customWidth="1"/>
-    <col min="2337" max="2337" width="13.21875" style="12" customWidth="1"/>
-    <col min="2338" max="2339" width="7.33203125" style="12" customWidth="1"/>
-    <col min="2340" max="2563" width="14" style="12"/>
-    <col min="2564" max="2564" width="5.109375" style="12" customWidth="1"/>
-    <col min="2565" max="2565" width="4" style="12" customWidth="1"/>
-    <col min="2566" max="2566" width="6.21875" style="12" customWidth="1"/>
-    <col min="2567" max="2567" width="17.88671875" style="12" customWidth="1"/>
-    <col min="2568" max="2568" width="21.109375" style="12" customWidth="1"/>
-    <col min="2569" max="2569" width="8.44140625" style="12" customWidth="1"/>
-    <col min="2570" max="2571" width="5.6640625" style="12" customWidth="1"/>
-    <col min="2572" max="2573" width="7.33203125" style="12" customWidth="1"/>
-    <col min="2574" max="2574" width="8.5546875" style="12" customWidth="1"/>
-    <col min="2575" max="2576" width="5.6640625" style="12" customWidth="1"/>
-    <col min="2577" max="2578" width="5.109375" style="12" customWidth="1"/>
-    <col min="2579" max="2583" width="5.6640625" style="12" customWidth="1"/>
-    <col min="2584" max="2584" width="6.21875" style="12" customWidth="1"/>
-    <col min="2585" max="2586" width="9.5546875" style="12" customWidth="1"/>
-    <col min="2587" max="2587" width="7.33203125" style="12" customWidth="1"/>
-    <col min="2588" max="2588" width="12.21875" style="12" customWidth="1"/>
-    <col min="2589" max="2589" width="8.44140625" style="12" customWidth="1"/>
-    <col min="2590" max="2590" width="11.77734375" style="12" customWidth="1"/>
-    <col min="2591" max="2592" width="6.21875" style="12" customWidth="1"/>
-    <col min="2593" max="2593" width="13.21875" style="12" customWidth="1"/>
-    <col min="2594" max="2595" width="7.33203125" style="12" customWidth="1"/>
-    <col min="2596" max="2819" width="14" style="12"/>
-    <col min="2820" max="2820" width="5.109375" style="12" customWidth="1"/>
-    <col min="2821" max="2821" width="4" style="12" customWidth="1"/>
-    <col min="2822" max="2822" width="6.21875" style="12" customWidth="1"/>
-    <col min="2823" max="2823" width="17.88671875" style="12" customWidth="1"/>
-    <col min="2824" max="2824" width="21.109375" style="12" customWidth="1"/>
-    <col min="2825" max="2825" width="8.44140625" style="12" customWidth="1"/>
-    <col min="2826" max="2827" width="5.6640625" style="12" customWidth="1"/>
-    <col min="2828" max="2829" width="7.33203125" style="12" customWidth="1"/>
-    <col min="2830" max="2830" width="8.5546875" style="12" customWidth="1"/>
-    <col min="2831" max="2832" width="5.6640625" style="12" customWidth="1"/>
-    <col min="2833" max="2834" width="5.109375" style="12" customWidth="1"/>
-    <col min="2835" max="2839" width="5.6640625" style="12" customWidth="1"/>
-    <col min="2840" max="2840" width="6.21875" style="12" customWidth="1"/>
-    <col min="2841" max="2842" width="9.5546875" style="12" customWidth="1"/>
-    <col min="2843" max="2843" width="7.33203125" style="12" customWidth="1"/>
-    <col min="2844" max="2844" width="12.21875" style="12" customWidth="1"/>
-    <col min="2845" max="2845" width="8.44140625" style="12" customWidth="1"/>
-    <col min="2846" max="2846" width="11.77734375" style="12" customWidth="1"/>
-    <col min="2847" max="2848" width="6.21875" style="12" customWidth="1"/>
-    <col min="2849" max="2849" width="13.21875" style="12" customWidth="1"/>
-    <col min="2850" max="2851" width="7.33203125" style="12" customWidth="1"/>
-    <col min="2852" max="3075" width="14" style="12"/>
-    <col min="3076" max="3076" width="5.109375" style="12" customWidth="1"/>
-    <col min="3077" max="3077" width="4" style="12" customWidth="1"/>
-    <col min="3078" max="3078" width="6.21875" style="12" customWidth="1"/>
-    <col min="3079" max="3079" width="17.88671875" style="12" customWidth="1"/>
-    <col min="3080" max="3080" width="21.109375" style="12" customWidth="1"/>
-    <col min="3081" max="3081" width="8.44140625" style="12" customWidth="1"/>
-    <col min="3082" max="3083" width="5.6640625" style="12" customWidth="1"/>
-    <col min="3084" max="3085" width="7.33203125" style="12" customWidth="1"/>
-    <col min="3086" max="3086" width="8.5546875" style="12" customWidth="1"/>
-    <col min="3087" max="3088" width="5.6640625" style="12" customWidth="1"/>
-    <col min="3089" max="3090" width="5.109375" style="12" customWidth="1"/>
-    <col min="3091" max="3095" width="5.6640625" style="12" customWidth="1"/>
-    <col min="3096" max="3096" width="6.21875" style="12" customWidth="1"/>
-    <col min="3097" max="3098" width="9.5546875" style="12" customWidth="1"/>
-    <col min="3099" max="3099" width="7.33203125" style="12" customWidth="1"/>
-    <col min="3100" max="3100" width="12.21875" style="12" customWidth="1"/>
-    <col min="3101" max="3101" width="8.44140625" style="12" customWidth="1"/>
-    <col min="3102" max="3102" width="11.77734375" style="12" customWidth="1"/>
-    <col min="3103" max="3104" width="6.21875" style="12" customWidth="1"/>
-    <col min="3105" max="3105" width="13.21875" style="12" customWidth="1"/>
-    <col min="3106" max="3107" width="7.33203125" style="12" customWidth="1"/>
-    <col min="3108" max="3331" width="14" style="12"/>
-    <col min="3332" max="3332" width="5.109375" style="12" customWidth="1"/>
-    <col min="3333" max="3333" width="4" style="12" customWidth="1"/>
-    <col min="3334" max="3334" width="6.21875" style="12" customWidth="1"/>
-    <col min="3335" max="3335" width="17.88671875" style="12" customWidth="1"/>
-    <col min="3336" max="3336" width="21.109375" style="12" customWidth="1"/>
-    <col min="3337" max="3337" width="8.44140625" style="12" customWidth="1"/>
-    <col min="3338" max="3339" width="5.6640625" style="12" customWidth="1"/>
-    <col min="3340" max="3341" width="7.33203125" style="12" customWidth="1"/>
-    <col min="3342" max="3342" width="8.5546875" style="12" customWidth="1"/>
-    <col min="3343" max="3344" width="5.6640625" style="12" customWidth="1"/>
-    <col min="3345" max="3346" width="5.109375" style="12" customWidth="1"/>
-    <col min="3347" max="3351" width="5.6640625" style="12" customWidth="1"/>
-    <col min="3352" max="3352" width="6.21875" style="12" customWidth="1"/>
-    <col min="3353" max="3354" width="9.5546875" style="12" customWidth="1"/>
-    <col min="3355" max="3355" width="7.33203125" style="12" customWidth="1"/>
-    <col min="3356" max="3356" width="12.21875" style="12" customWidth="1"/>
-    <col min="3357" max="3357" width="8.44140625" style="12" customWidth="1"/>
-    <col min="3358" max="3358" width="11.77734375" style="12" customWidth="1"/>
-    <col min="3359" max="3360" width="6.21875" style="12" customWidth="1"/>
-    <col min="3361" max="3361" width="13.21875" style="12" customWidth="1"/>
-    <col min="3362" max="3363" width="7.33203125" style="12" customWidth="1"/>
-    <col min="3364" max="3587" width="14" style="12"/>
-    <col min="3588" max="3588" width="5.109375" style="12" customWidth="1"/>
-    <col min="3589" max="3589" width="4" style="12" customWidth="1"/>
-    <col min="3590" max="3590" width="6.21875" style="12" customWidth="1"/>
-    <col min="3591" max="3591" width="17.88671875" style="12" customWidth="1"/>
-    <col min="3592" max="3592" width="21.109375" style="12" customWidth="1"/>
-    <col min="3593" max="3593" width="8.44140625" style="12" customWidth="1"/>
-    <col min="3594" max="3595" width="5.6640625" style="12" customWidth="1"/>
-    <col min="3596" max="3597" width="7.33203125" style="12" customWidth="1"/>
-    <col min="3598" max="3598" width="8.5546875" style="12" customWidth="1"/>
-    <col min="3599" max="3600" width="5.6640625" style="12" customWidth="1"/>
-    <col min="3601" max="3602" width="5.109375" style="12" customWidth="1"/>
-    <col min="3603" max="3607" width="5.6640625" style="12" customWidth="1"/>
-    <col min="3608" max="3608" width="6.21875" style="12" customWidth="1"/>
-    <col min="3609" max="3610" width="9.5546875" style="12" customWidth="1"/>
-    <col min="3611" max="3611" width="7.33203125" style="12" customWidth="1"/>
-    <col min="3612" max="3612" width="12.21875" style="12" customWidth="1"/>
-    <col min="3613" max="3613" width="8.44140625" style="12" customWidth="1"/>
-    <col min="3614" max="3614" width="11.77734375" style="12" customWidth="1"/>
-    <col min="3615" max="3616" width="6.21875" style="12" customWidth="1"/>
-    <col min="3617" max="3617" width="13.21875" style="12" customWidth="1"/>
-    <col min="3618" max="3619" width="7.33203125" style="12" customWidth="1"/>
-    <col min="3620" max="3843" width="14" style="12"/>
-    <col min="3844" max="3844" width="5.109375" style="12" customWidth="1"/>
-    <col min="3845" max="3845" width="4" style="12" customWidth="1"/>
-    <col min="3846" max="3846" width="6.21875" style="12" customWidth="1"/>
-    <col min="3847" max="3847" width="17.88671875" style="12" customWidth="1"/>
-    <col min="3848" max="3848" width="21.109375" style="12" customWidth="1"/>
-    <col min="3849" max="3849" width="8.44140625" style="12" customWidth="1"/>
-    <col min="3850" max="3851" width="5.6640625" style="12" customWidth="1"/>
-    <col min="3852" max="3853" width="7.33203125" style="12" customWidth="1"/>
-    <col min="3854" max="3854" width="8.5546875" style="12" customWidth="1"/>
-    <col min="3855" max="3856" width="5.6640625" style="12" customWidth="1"/>
-    <col min="3857" max="3858" width="5.109375" style="12" customWidth="1"/>
-    <col min="3859" max="3863" width="5.6640625" style="12" customWidth="1"/>
-    <col min="3864" max="3864" width="6.21875" style="12" customWidth="1"/>
-    <col min="3865" max="3866" width="9.5546875" style="12" customWidth="1"/>
-    <col min="3867" max="3867" width="7.33203125" style="12" customWidth="1"/>
-    <col min="3868" max="3868" width="12.21875" style="12" customWidth="1"/>
-    <col min="3869" max="3869" width="8.44140625" style="12" customWidth="1"/>
-    <col min="3870" max="3870" width="11.77734375" style="12" customWidth="1"/>
-    <col min="3871" max="3872" width="6.21875" style="12" customWidth="1"/>
-    <col min="3873" max="3873" width="13.21875" style="12" customWidth="1"/>
-    <col min="3874" max="3875" width="7.33203125" style="12" customWidth="1"/>
-    <col min="3876" max="4099" width="14" style="12"/>
-    <col min="4100" max="4100" width="5.109375" style="12" customWidth="1"/>
-    <col min="4101" max="4101" width="4" style="12" customWidth="1"/>
-    <col min="4102" max="4102" width="6.21875" style="12" customWidth="1"/>
-    <col min="4103" max="4103" width="17.88671875" style="12" customWidth="1"/>
-    <col min="4104" max="4104" width="21.109375" style="12" customWidth="1"/>
-    <col min="4105" max="4105" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4106" max="4107" width="5.6640625" style="12" customWidth="1"/>
-    <col min="4108" max="4109" width="7.33203125" style="12" customWidth="1"/>
-    <col min="4110" max="4110" width="8.5546875" style="12" customWidth="1"/>
-    <col min="4111" max="4112" width="5.6640625" style="12" customWidth="1"/>
-    <col min="4113" max="4114" width="5.109375" style="12" customWidth="1"/>
-    <col min="4115" max="4119" width="5.6640625" style="12" customWidth="1"/>
-    <col min="4120" max="4120" width="6.21875" style="12" customWidth="1"/>
-    <col min="4121" max="4122" width="9.5546875" style="12" customWidth="1"/>
-    <col min="4123" max="4123" width="7.33203125" style="12" customWidth="1"/>
-    <col min="4124" max="4124" width="12.21875" style="12" customWidth="1"/>
-    <col min="4125" max="4125" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4126" max="4126" width="11.77734375" style="12" customWidth="1"/>
-    <col min="4127" max="4128" width="6.21875" style="12" customWidth="1"/>
-    <col min="4129" max="4129" width="13.21875" style="12" customWidth="1"/>
-    <col min="4130" max="4131" width="7.33203125" style="12" customWidth="1"/>
-    <col min="4132" max="4355" width="14" style="12"/>
-    <col min="4356" max="4356" width="5.109375" style="12" customWidth="1"/>
-    <col min="4357" max="4357" width="4" style="12" customWidth="1"/>
-    <col min="4358" max="4358" width="6.21875" style="12" customWidth="1"/>
-    <col min="4359" max="4359" width="17.88671875" style="12" customWidth="1"/>
-    <col min="4360" max="4360" width="21.109375" style="12" customWidth="1"/>
-    <col min="4361" max="4361" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4362" max="4363" width="5.6640625" style="12" customWidth="1"/>
-    <col min="4364" max="4365" width="7.33203125" style="12" customWidth="1"/>
-    <col min="4366" max="4366" width="8.5546875" style="12" customWidth="1"/>
-    <col min="4367" max="4368" width="5.6640625" style="12" customWidth="1"/>
-    <col min="4369" max="4370" width="5.109375" style="12" customWidth="1"/>
-    <col min="4371" max="4375" width="5.6640625" style="12" customWidth="1"/>
-    <col min="4376" max="4376" width="6.21875" style="12" customWidth="1"/>
-    <col min="4377" max="4378" width="9.5546875" style="12" customWidth="1"/>
-    <col min="4379" max="4379" width="7.33203125" style="12" customWidth="1"/>
-    <col min="4380" max="4380" width="12.21875" style="12" customWidth="1"/>
-    <col min="4381" max="4381" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4382" max="4382" width="11.77734375" style="12" customWidth="1"/>
-    <col min="4383" max="4384" width="6.21875" style="12" customWidth="1"/>
-    <col min="4385" max="4385" width="13.21875" style="12" customWidth="1"/>
-    <col min="4386" max="4387" width="7.33203125" style="12" customWidth="1"/>
-    <col min="4388" max="4611" width="14" style="12"/>
-    <col min="4612" max="4612" width="5.109375" style="12" customWidth="1"/>
-    <col min="4613" max="4613" width="4" style="12" customWidth="1"/>
-    <col min="4614" max="4614" width="6.21875" style="12" customWidth="1"/>
-    <col min="4615" max="4615" width="17.88671875" style="12" customWidth="1"/>
-    <col min="4616" max="4616" width="21.109375" style="12" customWidth="1"/>
-    <col min="4617" max="4617" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4618" max="4619" width="5.6640625" style="12" customWidth="1"/>
-    <col min="4620" max="4621" width="7.33203125" style="12" customWidth="1"/>
-    <col min="4622" max="4622" width="8.5546875" style="12" customWidth="1"/>
-    <col min="4623" max="4624" width="5.6640625" style="12" customWidth="1"/>
-    <col min="4625" max="4626" width="5.109375" style="12" customWidth="1"/>
-    <col min="4627" max="4631" width="5.6640625" style="12" customWidth="1"/>
-    <col min="4632" max="4632" width="6.21875" style="12" customWidth="1"/>
-    <col min="4633" max="4634" width="9.5546875" style="12" customWidth="1"/>
-    <col min="4635" max="4635" width="7.33203125" style="12" customWidth="1"/>
-    <col min="4636" max="4636" width="12.21875" style="12" customWidth="1"/>
-    <col min="4637" max="4637" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4638" max="4638" width="11.77734375" style="12" customWidth="1"/>
-    <col min="4639" max="4640" width="6.21875" style="12" customWidth="1"/>
-    <col min="4641" max="4641" width="13.21875" style="12" customWidth="1"/>
-    <col min="4642" max="4643" width="7.33203125" style="12" customWidth="1"/>
-    <col min="4644" max="4867" width="14" style="12"/>
-    <col min="4868" max="4868" width="5.109375" style="12" customWidth="1"/>
-    <col min="4869" max="4869" width="4" style="12" customWidth="1"/>
-    <col min="4870" max="4870" width="6.21875" style="12" customWidth="1"/>
-    <col min="4871" max="4871" width="17.88671875" style="12" customWidth="1"/>
-    <col min="4872" max="4872" width="21.109375" style="12" customWidth="1"/>
-    <col min="4873" max="4873" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4874" max="4875" width="5.6640625" style="12" customWidth="1"/>
-    <col min="4876" max="4877" width="7.33203125" style="12" customWidth="1"/>
-    <col min="4878" max="4878" width="8.5546875" style="12" customWidth="1"/>
-    <col min="4879" max="4880" width="5.6640625" style="12" customWidth="1"/>
-    <col min="4881" max="4882" width="5.109375" style="12" customWidth="1"/>
-    <col min="4883" max="4887" width="5.6640625" style="12" customWidth="1"/>
-    <col min="4888" max="4888" width="6.21875" style="12" customWidth="1"/>
-    <col min="4889" max="4890" width="9.5546875" style="12" customWidth="1"/>
-    <col min="4891" max="4891" width="7.33203125" style="12" customWidth="1"/>
-    <col min="4892" max="4892" width="12.21875" style="12" customWidth="1"/>
-    <col min="4893" max="4893" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4894" max="4894" width="11.77734375" style="12" customWidth="1"/>
-    <col min="4895" max="4896" width="6.21875" style="12" customWidth="1"/>
-    <col min="4897" max="4897" width="13.21875" style="12" customWidth="1"/>
-    <col min="4898" max="4899" width="7.33203125" style="12" customWidth="1"/>
-    <col min="4900" max="5123" width="14" style="12"/>
-    <col min="5124" max="5124" width="5.109375" style="12" customWidth="1"/>
-    <col min="5125" max="5125" width="4" style="12" customWidth="1"/>
-    <col min="5126" max="5126" width="6.21875" style="12" customWidth="1"/>
-    <col min="5127" max="5127" width="17.88671875" style="12" customWidth="1"/>
-    <col min="5128" max="5128" width="21.109375" style="12" customWidth="1"/>
-    <col min="5129" max="5129" width="8.44140625" style="12" customWidth="1"/>
-    <col min="5130" max="5131" width="5.6640625" style="12" customWidth="1"/>
-    <col min="5132" max="5133" width="7.33203125" style="12" customWidth="1"/>
-    <col min="5134" max="5134" width="8.5546875" style="12" customWidth="1"/>
-    <col min="5135" max="5136" width="5.6640625" style="12" customWidth="1"/>
-    <col min="5137" max="5138" width="5.109375" style="12" customWidth="1"/>
-    <col min="5139" max="5143" width="5.6640625" style="12" customWidth="1"/>
-    <col min="5144" max="5144" width="6.21875" style="12" customWidth="1"/>
-    <col min="5145" max="5146" width="9.5546875" style="12" customWidth="1"/>
-    <col min="5147" max="5147" width="7.33203125" style="12" customWidth="1"/>
-    <col min="5148" max="5148" width="12.21875" style="12" customWidth="1"/>
-    <col min="5149" max="5149" width="8.44140625" style="12" customWidth="1"/>
-    <col min="5150" max="5150" width="11.77734375" style="12" customWidth="1"/>
-    <col min="5151" max="5152" width="6.21875" style="12" customWidth="1"/>
-    <col min="5153" max="5153" width="13.21875" style="12" customWidth="1"/>
-    <col min="5154" max="5155" width="7.33203125" style="12" customWidth="1"/>
-    <col min="5156" max="5379" width="14" style="12"/>
-    <col min="5380" max="5380" width="5.109375" style="12" customWidth="1"/>
-    <col min="5381" max="5381" width="4" style="12" customWidth="1"/>
-    <col min="5382" max="5382" width="6.21875" style="12" customWidth="1"/>
-    <col min="5383" max="5383" width="17.88671875" style="12" customWidth="1"/>
-    <col min="5384" max="5384" width="21.109375" style="12" customWidth="1"/>
-    <col min="5385" max="5385" width="8.44140625" style="12" customWidth="1"/>
-    <col min="5386" max="5387" width="5.6640625" style="12" customWidth="1"/>
-    <col min="5388" max="5389" width="7.33203125" style="12" customWidth="1"/>
-    <col min="5390" max="5390" width="8.5546875" style="12" customWidth="1"/>
-    <col min="5391" max="5392" width="5.6640625" style="12" customWidth="1"/>
-    <col min="5393" max="5394" width="5.109375" style="12" customWidth="1"/>
-    <col min="5395" max="5399" width="5.6640625" style="12" customWidth="1"/>
-    <col min="5400" max="5400" width="6.21875" style="12" customWidth="1"/>
-    <col min="5401" max="5402" width="9.5546875" style="12" customWidth="1"/>
-    <col min="5403" max="5403" width="7.33203125" style="12" customWidth="1"/>
-    <col min="5404" max="5404" width="12.21875" style="12" customWidth="1"/>
-    <col min="5405" max="5405" width="8.44140625" style="12" customWidth="1"/>
-    <col min="5406" max="5406" width="11.77734375" style="12" customWidth="1"/>
-    <col min="5407" max="5408" width="6.21875" style="12" customWidth="1"/>
-    <col min="5409" max="5409" width="13.21875" style="12" customWidth="1"/>
-    <col min="5410" max="5411" width="7.33203125" style="12" customWidth="1"/>
-    <col min="5412" max="5635" width="14" style="12"/>
-    <col min="5636" max="5636" width="5.109375" style="12" customWidth="1"/>
-    <col min="5637" max="5637" width="4" style="12" customWidth="1"/>
-    <col min="5638" max="5638" width="6.21875" style="12" customWidth="1"/>
-    <col min="5639" max="5639" width="17.88671875" style="12" customWidth="1"/>
-    <col min="5640" max="5640" width="21.109375" style="12" customWidth="1"/>
-    <col min="5641" max="5641" width="8.44140625" style="12" customWidth="1"/>
-    <col min="5642" max="5643" width="5.6640625" style="12" customWidth="1"/>
-    <col min="5644" max="5645" width="7.33203125" style="12" customWidth="1"/>
-    <col min="5646" max="5646" width="8.5546875" style="12" customWidth="1"/>
-    <col min="5647" max="5648" width="5.6640625" style="12" customWidth="1"/>
-    <col min="5649" max="5650" width="5.109375" style="12" customWidth="1"/>
-    <col min="5651" max="5655" width="5.6640625" style="12" customWidth="1"/>
-    <col min="5656" max="5656" width="6.21875" style="12" customWidth="1"/>
-    <col min="5657" max="5658" width="9.5546875" style="12" customWidth="1"/>
-    <col min="5659" max="5659" width="7.33203125" style="12" customWidth="1"/>
-    <col min="5660" max="5660" width="12.21875" style="12" customWidth="1"/>
-    <col min="5661" max="5661" width="8.44140625" style="12" customWidth="1"/>
-    <col min="5662" max="5662" width="11.77734375" style="12" customWidth="1"/>
-    <col min="5663" max="5664" width="6.21875" style="12" customWidth="1"/>
-    <col min="5665" max="5665" width="13.21875" style="12" customWidth="1"/>
-    <col min="5666" max="5667" width="7.33203125" style="12" customWidth="1"/>
-    <col min="5668" max="5891" width="14" style="12"/>
-    <col min="5892" max="5892" width="5.109375" style="12" customWidth="1"/>
-    <col min="5893" max="5893" width="4" style="12" customWidth="1"/>
-    <col min="5894" max="5894" width="6.21875" style="12" customWidth="1"/>
-    <col min="5895" max="5895" width="17.88671875" style="12" customWidth="1"/>
-    <col min="5896" max="5896" width="21.109375" style="12" customWidth="1"/>
-    <col min="5897" max="5897" width="8.44140625" style="12" customWidth="1"/>
-    <col min="5898" max="5899" width="5.6640625" style="12" customWidth="1"/>
-    <col min="5900" max="5901" width="7.33203125" style="12" customWidth="1"/>
-    <col min="5902" max="5902" width="8.5546875" style="12" customWidth="1"/>
-    <col min="5903" max="5904" width="5.6640625" style="12" customWidth="1"/>
-    <col min="5905" max="5906" width="5.109375" style="12" customWidth="1"/>
-    <col min="5907" max="5911" width="5.6640625" style="12" customWidth="1"/>
-    <col min="5912" max="5912" width="6.21875" style="12" customWidth="1"/>
-    <col min="5913" max="5914" width="9.5546875" style="12" customWidth="1"/>
-    <col min="5915" max="5915" width="7.33203125" style="12" customWidth="1"/>
-    <col min="5916" max="5916" width="12.21875" style="12" customWidth="1"/>
-    <col min="5917" max="5917" width="8.44140625" style="12" customWidth="1"/>
-    <col min="5918" max="5918" width="11.77734375" style="12" customWidth="1"/>
-    <col min="5919" max="5920" width="6.21875" style="12" customWidth="1"/>
-    <col min="5921" max="5921" width="13.21875" style="12" customWidth="1"/>
-    <col min="5922" max="5923" width="7.33203125" style="12" customWidth="1"/>
-    <col min="5924" max="6147" width="14" style="12"/>
-    <col min="6148" max="6148" width="5.109375" style="12" customWidth="1"/>
-    <col min="6149" max="6149" width="4" style="12" customWidth="1"/>
-    <col min="6150" max="6150" width="6.21875" style="12" customWidth="1"/>
-    <col min="6151" max="6151" width="17.88671875" style="12" customWidth="1"/>
-    <col min="6152" max="6152" width="21.109375" style="12" customWidth="1"/>
-    <col min="6153" max="6153" width="8.44140625" style="12" customWidth="1"/>
-    <col min="6154" max="6155" width="5.6640625" style="12" customWidth="1"/>
-    <col min="6156" max="6157" width="7.33203125" style="12" customWidth="1"/>
-    <col min="6158" max="6158" width="8.5546875" style="12" customWidth="1"/>
-    <col min="6159" max="6160" width="5.6640625" style="12" customWidth="1"/>
-    <col min="6161" max="6162" width="5.109375" style="12" customWidth="1"/>
-    <col min="6163" max="6167" width="5.6640625" style="12" customWidth="1"/>
-    <col min="6168" max="6168" width="6.21875" style="12" customWidth="1"/>
-    <col min="6169" max="6170" width="9.5546875" style="12" customWidth="1"/>
-    <col min="6171" max="6171" width="7.33203125" style="12" customWidth="1"/>
-    <col min="6172" max="6172" width="12.21875" style="12" customWidth="1"/>
-    <col min="6173" max="6173" width="8.44140625" style="12" customWidth="1"/>
-    <col min="6174" max="6174" width="11.77734375" style="12" customWidth="1"/>
-    <col min="6175" max="6176" width="6.21875" style="12" customWidth="1"/>
-    <col min="6177" max="6177" width="13.21875" style="12" customWidth="1"/>
-    <col min="6178" max="6179" width="7.33203125" style="12" customWidth="1"/>
-    <col min="6180" max="6403" width="14" style="12"/>
-    <col min="6404" max="6404" width="5.109375" style="12" customWidth="1"/>
-    <col min="6405" max="6405" width="4" style="12" customWidth="1"/>
-    <col min="6406" max="6406" width="6.21875" style="12" customWidth="1"/>
-    <col min="6407" max="6407" width="17.88671875" style="12" customWidth="1"/>
-    <col min="6408" max="6408" width="21.109375" style="12" customWidth="1"/>
-    <col min="6409" max="6409" width="8.44140625" style="12" customWidth="1"/>
-    <col min="6410" max="6411" width="5.6640625" style="12" customWidth="1"/>
-    <col min="6412" max="6413" width="7.33203125" style="12" customWidth="1"/>
-    <col min="6414" max="6414" width="8.5546875" style="12" customWidth="1"/>
-    <col min="6415" max="6416" width="5.6640625" style="12" customWidth="1"/>
-    <col min="6417" max="6418" width="5.109375" style="12" customWidth="1"/>
-    <col min="6419" max="6423" width="5.6640625" style="12" customWidth="1"/>
-    <col min="6424" max="6424" width="6.21875" style="12" customWidth="1"/>
-    <col min="6425" max="6426" width="9.5546875" style="12" customWidth="1"/>
-    <col min="6427" max="6427" width="7.33203125" style="12" customWidth="1"/>
-    <col min="6428" max="6428" width="12.21875" style="12" customWidth="1"/>
-    <col min="6429" max="6429" width="8.44140625" style="12" customWidth="1"/>
-    <col min="6430" max="6430" width="11.77734375" style="12" customWidth="1"/>
-    <col min="6431" max="6432" width="6.21875" style="12" customWidth="1"/>
-    <col min="6433" max="6433" width="13.21875" style="12" customWidth="1"/>
-    <col min="6434" max="6435" width="7.33203125" style="12" customWidth="1"/>
-    <col min="6436" max="6659" width="14" style="12"/>
-    <col min="6660" max="6660" width="5.109375" style="12" customWidth="1"/>
-    <col min="6661" max="6661" width="4" style="12" customWidth="1"/>
-    <col min="6662" max="6662" width="6.21875" style="12" customWidth="1"/>
-    <col min="6663" max="6663" width="17.88671875" style="12" customWidth="1"/>
-    <col min="6664" max="6664" width="21.109375" style="12" customWidth="1"/>
-    <col min="6665" max="6665" width="8.44140625" style="12" customWidth="1"/>
-    <col min="6666" max="6667" width="5.6640625" style="12" customWidth="1"/>
-    <col min="6668" max="6669" width="7.33203125" style="12" customWidth="1"/>
-    <col min="6670" max="6670" width="8.5546875" style="12" customWidth="1"/>
-    <col min="6671" max="6672" width="5.6640625" style="12" customWidth="1"/>
-    <col min="6673" max="6674" width="5.109375" style="12" customWidth="1"/>
-    <col min="6675" max="6679" width="5.6640625" style="12" customWidth="1"/>
-    <col min="6680" max="6680" width="6.21875" style="12" customWidth="1"/>
-    <col min="6681" max="6682" width="9.5546875" style="12" customWidth="1"/>
-    <col min="6683" max="6683" width="7.33203125" style="12" customWidth="1"/>
-    <col min="6684" max="6684" width="12.21875" style="12" customWidth="1"/>
-    <col min="6685" max="6685" width="8.44140625" style="12" customWidth="1"/>
-    <col min="6686" max="6686" width="11.77734375" style="12" customWidth="1"/>
-    <col min="6687" max="6688" width="6.21875" style="12" customWidth="1"/>
-    <col min="6689" max="6689" width="13.21875" style="12" customWidth="1"/>
-    <col min="6690" max="6691" width="7.33203125" style="12" customWidth="1"/>
-    <col min="6692" max="6915" width="14" style="12"/>
-    <col min="6916" max="6916" width="5.109375" style="12" customWidth="1"/>
-    <col min="6917" max="6917" width="4" style="12" customWidth="1"/>
-    <col min="6918" max="6918" width="6.21875" style="12" customWidth="1"/>
-    <col min="6919" max="6919" width="17.88671875" style="12" customWidth="1"/>
-    <col min="6920" max="6920" width="21.109375" style="12" customWidth="1"/>
-    <col min="6921" max="6921" width="8.44140625" style="12" customWidth="1"/>
-    <col min="6922" max="6923" width="5.6640625" style="12" customWidth="1"/>
-    <col min="6924" max="6925" width="7.33203125" style="12" customWidth="1"/>
-    <col min="6926" max="6926" width="8.5546875" style="12" customWidth="1"/>
-    <col min="6927" max="6928" width="5.6640625" style="12" customWidth="1"/>
-    <col min="6929" max="6930" width="5.109375" style="12" customWidth="1"/>
-    <col min="6931" max="6935" width="5.6640625" style="12" customWidth="1"/>
-    <col min="6936" max="6936" width="6.21875" style="12" customWidth="1"/>
-    <col min="6937" max="6938" width="9.5546875" style="12" customWidth="1"/>
-    <col min="6939" max="6939" width="7.33203125" style="12" customWidth="1"/>
-    <col min="6940" max="6940" width="12.21875" style="12" customWidth="1"/>
-    <col min="6941" max="6941" width="8.44140625" style="12" customWidth="1"/>
-    <col min="6942" max="6942" width="11.77734375" style="12" customWidth="1"/>
-    <col min="6943" max="6944" width="6.21875" style="12" customWidth="1"/>
-    <col min="6945" max="6945" width="13.21875" style="12" customWidth="1"/>
-    <col min="6946" max="6947" width="7.33203125" style="12" customWidth="1"/>
-    <col min="6948" max="7171" width="14" style="12"/>
-    <col min="7172" max="7172" width="5.109375" style="12" customWidth="1"/>
-    <col min="7173" max="7173" width="4" style="12" customWidth="1"/>
-    <col min="7174" max="7174" width="6.21875" style="12" customWidth="1"/>
-    <col min="7175" max="7175" width="17.88671875" style="12" customWidth="1"/>
-    <col min="7176" max="7176" width="21.109375" style="12" customWidth="1"/>
-    <col min="7177" max="7177" width="8.44140625" style="12" customWidth="1"/>
-    <col min="7178" max="7179" width="5.6640625" style="12" customWidth="1"/>
-    <col min="7180" max="7181" width="7.33203125" style="12" customWidth="1"/>
-    <col min="7182" max="7182" width="8.5546875" style="12" customWidth="1"/>
-    <col min="7183" max="7184" width="5.6640625" style="12" customWidth="1"/>
-    <col min="7185" max="7186" width="5.109375" style="12" customWidth="1"/>
-    <col min="7187" max="7191" width="5.6640625" style="12" customWidth="1"/>
-    <col min="7192" max="7192" width="6.21875" style="12" customWidth="1"/>
-    <col min="7193" max="7194" width="9.5546875" style="12" customWidth="1"/>
-    <col min="7195" max="7195" width="7.33203125" style="12" customWidth="1"/>
-    <col min="7196" max="7196" width="12.21875" style="12" customWidth="1"/>
-    <col min="7197" max="7197" width="8.44140625" style="12" customWidth="1"/>
-    <col min="7198" max="7198" width="11.77734375" style="12" customWidth="1"/>
-    <col min="7199" max="7200" width="6.21875" style="12" customWidth="1"/>
-    <col min="7201" max="7201" width="13.21875" style="12" customWidth="1"/>
-    <col min="7202" max="7203" width="7.33203125" style="12" customWidth="1"/>
-    <col min="7204" max="7427" width="14" style="12"/>
-    <col min="7428" max="7428" width="5.109375" style="12" customWidth="1"/>
-    <col min="7429" max="7429" width="4" style="12" customWidth="1"/>
-    <col min="7430" max="7430" width="6.21875" style="12" customWidth="1"/>
-    <col min="7431" max="7431" width="17.88671875" style="12" customWidth="1"/>
-    <col min="7432" max="7432" width="21.109375" style="12" customWidth="1"/>
-    <col min="7433" max="7433" width="8.44140625" style="12" customWidth="1"/>
-    <col min="7434" max="7435" width="5.6640625" style="12" customWidth="1"/>
-    <col min="7436" max="7437" width="7.33203125" style="12" customWidth="1"/>
-    <col min="7438" max="7438" width="8.5546875" style="12" customWidth="1"/>
-    <col min="7439" max="7440" width="5.6640625" style="12" customWidth="1"/>
-    <col min="7441" max="7442" width="5.109375" style="12" customWidth="1"/>
-    <col min="7443" max="7447" width="5.6640625" style="12" customWidth="1"/>
-    <col min="7448" max="7448" width="6.21875" style="12" customWidth="1"/>
-    <col min="7449" max="7450" width="9.5546875" style="12" customWidth="1"/>
-    <col min="7451" max="7451" width="7.33203125" style="12" customWidth="1"/>
-    <col min="7452" max="7452" width="12.21875" style="12" customWidth="1"/>
-    <col min="7453" max="7453" width="8.44140625" style="12" customWidth="1"/>
-    <col min="7454" max="7454" width="11.77734375" style="12" customWidth="1"/>
-    <col min="7455" max="7456" width="6.21875" style="12" customWidth="1"/>
-    <col min="7457" max="7457" width="13.21875" style="12" customWidth="1"/>
-    <col min="7458" max="7459" width="7.33203125" style="12" customWidth="1"/>
-    <col min="7460" max="7683" width="14" style="12"/>
-    <col min="7684" max="7684" width="5.109375" style="12" customWidth="1"/>
-    <col min="7685" max="7685" width="4" style="12" customWidth="1"/>
-    <col min="7686" max="7686" width="6.21875" style="12" customWidth="1"/>
-    <col min="7687" max="7687" width="17.88671875" style="12" customWidth="1"/>
-    <col min="7688" max="7688" width="21.109375" style="12" customWidth="1"/>
-    <col min="7689" max="7689" width="8.44140625" style="12" customWidth="1"/>
-    <col min="7690" max="7691" width="5.6640625" style="12" customWidth="1"/>
-    <col min="7692" max="7693" width="7.33203125" style="12" customWidth="1"/>
-    <col min="7694" max="7694" width="8.5546875" style="12" customWidth="1"/>
-    <col min="7695" max="7696" width="5.6640625" style="12" customWidth="1"/>
-    <col min="7697" max="7698" width="5.109375" style="12" customWidth="1"/>
-    <col min="7699" max="7703" width="5.6640625" style="12" customWidth="1"/>
-    <col min="7704" max="7704" width="6.21875" style="12" customWidth="1"/>
-    <col min="7705" max="7706" width="9.5546875" style="12" customWidth="1"/>
-    <col min="7707" max="7707" width="7.33203125" style="12" customWidth="1"/>
-    <col min="7708" max="7708" width="12.21875" style="12" customWidth="1"/>
-    <col min="7709" max="7709" width="8.44140625" style="12" customWidth="1"/>
-    <col min="7710" max="7710" width="11.77734375" style="12" customWidth="1"/>
-    <col min="7711" max="7712" width="6.21875" style="12" customWidth="1"/>
-    <col min="7713" max="7713" width="13.21875" style="12" customWidth="1"/>
-    <col min="7714" max="7715" width="7.33203125" style="12" customWidth="1"/>
-    <col min="7716" max="7939" width="14" style="12"/>
-    <col min="7940" max="7940" width="5.109375" style="12" customWidth="1"/>
-    <col min="7941" max="7941" width="4" style="12" customWidth="1"/>
-    <col min="7942" max="7942" width="6.21875" style="12" customWidth="1"/>
-    <col min="7943" max="7943" width="17.88671875" style="12" customWidth="1"/>
-    <col min="7944" max="7944" width="21.109375" style="12" customWidth="1"/>
-    <col min="7945" max="7945" width="8.44140625" style="12" customWidth="1"/>
-    <col min="7946" max="7947" width="5.6640625" style="12" customWidth="1"/>
-    <col min="7948" max="7949" width="7.33203125" style="12" customWidth="1"/>
-    <col min="7950" max="7950" width="8.5546875" style="12" customWidth="1"/>
-    <col min="7951" max="7952" width="5.6640625" style="12" customWidth="1"/>
-    <col min="7953" max="7954" width="5.109375" style="12" customWidth="1"/>
-    <col min="7955" max="7959" width="5.6640625" style="12" customWidth="1"/>
-    <col min="7960" max="7960" width="6.21875" style="12" customWidth="1"/>
-    <col min="7961" max="7962" width="9.5546875" style="12" customWidth="1"/>
-    <col min="7963" max="7963" width="7.33203125" style="12" customWidth="1"/>
-    <col min="7964" max="7964" width="12.21875" style="12" customWidth="1"/>
-    <col min="7965" max="7965" width="8.44140625" style="12" customWidth="1"/>
-    <col min="7966" max="7966" width="11.77734375" style="12" customWidth="1"/>
-    <col min="7967" max="7968" width="6.21875" style="12" customWidth="1"/>
-    <col min="7969" max="7969" width="13.21875" style="12" customWidth="1"/>
-    <col min="7970" max="7971" width="7.33203125" style="12" customWidth="1"/>
-    <col min="7972" max="8195" width="14" style="12"/>
-    <col min="8196" max="8196" width="5.109375" style="12" customWidth="1"/>
-    <col min="8197" max="8197" width="4" style="12" customWidth="1"/>
-    <col min="8198" max="8198" width="6.21875" style="12" customWidth="1"/>
-    <col min="8199" max="8199" width="17.88671875" style="12" customWidth="1"/>
-    <col min="8200" max="8200" width="21.109375" style="12" customWidth="1"/>
-    <col min="8201" max="8201" width="8.44140625" style="12" customWidth="1"/>
-    <col min="8202" max="8203" width="5.6640625" style="12" customWidth="1"/>
-    <col min="8204" max="8205" width="7.33203125" style="12" customWidth="1"/>
-    <col min="8206" max="8206" width="8.5546875" style="12" customWidth="1"/>
-    <col min="8207" max="8208" width="5.6640625" style="12" customWidth="1"/>
-    <col min="8209" max="8210" width="5.109375" style="12" customWidth="1"/>
-    <col min="8211" max="8215" width="5.6640625" style="12" customWidth="1"/>
-    <col min="8216" max="8216" width="6.21875" style="12" customWidth="1"/>
-    <col min="8217" max="8218" width="9.5546875" style="12" customWidth="1"/>
-    <col min="8219" max="8219" width="7.33203125" style="12" customWidth="1"/>
-    <col min="8220" max="8220" width="12.21875" style="12" customWidth="1"/>
-    <col min="8221" max="8221" width="8.44140625" style="12" customWidth="1"/>
-    <col min="8222" max="8222" width="11.77734375" style="12" customWidth="1"/>
-    <col min="8223" max="8224" width="6.21875" style="12" customWidth="1"/>
-    <col min="8225" max="8225" width="13.21875" style="12" customWidth="1"/>
-    <col min="8226" max="8227" width="7.33203125" style="12" customWidth="1"/>
-    <col min="8228" max="8451" width="14" style="12"/>
-    <col min="8452" max="8452" width="5.109375" style="12" customWidth="1"/>
-    <col min="8453" max="8453" width="4" style="12" customWidth="1"/>
-    <col min="8454" max="8454" width="6.21875" style="12" customWidth="1"/>
-    <col min="8455" max="8455" width="17.88671875" style="12" customWidth="1"/>
-    <col min="8456" max="8456" width="21.109375" style="12" customWidth="1"/>
-    <col min="8457" max="8457" width="8.44140625" style="12" customWidth="1"/>
-    <col min="8458" max="8459" width="5.6640625" style="12" customWidth="1"/>
-    <col min="8460" max="8461" width="7.33203125" style="12" customWidth="1"/>
-    <col min="8462" max="8462" width="8.5546875" style="12" customWidth="1"/>
-    <col min="8463" max="8464" width="5.6640625" style="12" customWidth="1"/>
-    <col min="8465" max="8466" width="5.109375" style="12" customWidth="1"/>
-    <col min="8467" max="8471" width="5.6640625" style="12" customWidth="1"/>
-    <col min="8472" max="8472" width="6.21875" style="12" customWidth="1"/>
-    <col min="8473" max="8474" width="9.5546875" style="12" customWidth="1"/>
-    <col min="8475" max="8475" width="7.33203125" style="12" customWidth="1"/>
-    <col min="8476" max="8476" width="12.21875" style="12" customWidth="1"/>
-    <col min="8477" max="8477" width="8.44140625" style="12" customWidth="1"/>
-    <col min="8478" max="8478" width="11.77734375" style="12" customWidth="1"/>
-    <col min="8479" max="8480" width="6.21875" style="12" customWidth="1"/>
-    <col min="8481" max="8481" width="13.21875" style="12" customWidth="1"/>
-    <col min="8482" max="8483" width="7.33203125" style="12" customWidth="1"/>
-    <col min="8484" max="8707" width="14" style="12"/>
-    <col min="8708" max="8708" width="5.109375" style="12" customWidth="1"/>
-    <col min="8709" max="8709" width="4" style="12" customWidth="1"/>
-    <col min="8710" max="8710" width="6.21875" style="12" customWidth="1"/>
-    <col min="8711" max="8711" width="17.88671875" style="12" customWidth="1"/>
-    <col min="8712" max="8712" width="21.109375" style="12" customWidth="1"/>
-    <col min="8713" max="8713" width="8.44140625" style="12" customWidth="1"/>
-    <col min="8714" max="8715" width="5.6640625" style="12" customWidth="1"/>
-    <col min="8716" max="8717" width="7.33203125" style="12" customWidth="1"/>
-    <col min="8718" max="8718" width="8.5546875" style="12" customWidth="1"/>
-    <col min="8719" max="8720" width="5.6640625" style="12" customWidth="1"/>
-    <col min="8721" max="8722" width="5.109375" style="12" customWidth="1"/>
-    <col min="8723" max="8727" width="5.6640625" style="12" customWidth="1"/>
-    <col min="8728" max="8728" width="6.21875" style="12" customWidth="1"/>
-    <col min="8729" max="8730" width="9.5546875" style="12" customWidth="1"/>
-    <col min="8731" max="8731" width="7.33203125" style="12" customWidth="1"/>
-    <col min="8732" max="8732" width="12.21875" style="12" customWidth="1"/>
-    <col min="8733" max="8733" width="8.44140625" style="12" customWidth="1"/>
-    <col min="8734" max="8734" width="11.77734375" style="12" customWidth="1"/>
-    <col min="8735" max="8736" width="6.21875" style="12" customWidth="1"/>
-    <col min="8737" max="8737" width="13.21875" style="12" customWidth="1"/>
-    <col min="8738" max="8739" width="7.33203125" style="12" customWidth="1"/>
-    <col min="8740" max="8963" width="14" style="12"/>
-    <col min="8964" max="8964" width="5.109375" style="12" customWidth="1"/>
-    <col min="8965" max="8965" width="4" style="12" customWidth="1"/>
-    <col min="8966" max="8966" width="6.21875" style="12" customWidth="1"/>
-    <col min="8967" max="8967" width="17.88671875" style="12" customWidth="1"/>
-    <col min="8968" max="8968" width="21.109375" style="12" customWidth="1"/>
-    <col min="8969" max="8969" width="8.44140625" style="12" customWidth="1"/>
-    <col min="8970" max="8971" width="5.6640625" style="12" customWidth="1"/>
-    <col min="8972" max="8973" width="7.33203125" style="12" customWidth="1"/>
-    <col min="8974" max="8974" width="8.5546875" style="12" customWidth="1"/>
-    <col min="8975" max="8976" width="5.6640625" style="12" customWidth="1"/>
-    <col min="8977" max="8978" width="5.109375" style="12" customWidth="1"/>
-    <col min="8979" max="8983" width="5.6640625" style="12" customWidth="1"/>
-    <col min="8984" max="8984" width="6.21875" style="12" customWidth="1"/>
-    <col min="8985" max="8986" width="9.5546875" style="12" customWidth="1"/>
-    <col min="8987" max="8987" width="7.33203125" style="12" customWidth="1"/>
-    <col min="8988" max="8988" width="12.21875" style="12" customWidth="1"/>
-    <col min="8989" max="8989" width="8.44140625" style="12" customWidth="1"/>
-    <col min="8990" max="8990" width="11.77734375" style="12" customWidth="1"/>
-    <col min="8991" max="8992" width="6.21875" style="12" customWidth="1"/>
-    <col min="8993" max="8993" width="13.21875" style="12" customWidth="1"/>
-    <col min="8994" max="8995" width="7.33203125" style="12" customWidth="1"/>
-    <col min="8996" max="9219" width="14" style="12"/>
-    <col min="9220" max="9220" width="5.109375" style="12" customWidth="1"/>
-    <col min="9221" max="9221" width="4" style="12" customWidth="1"/>
-    <col min="9222" max="9222" width="6.21875" style="12" customWidth="1"/>
-    <col min="9223" max="9223" width="17.88671875" style="12" customWidth="1"/>
-    <col min="9224" max="9224" width="21.109375" style="12" customWidth="1"/>
-    <col min="9225" max="9225" width="8.44140625" style="12" customWidth="1"/>
-    <col min="9226" max="9227" width="5.6640625" style="12" customWidth="1"/>
-    <col min="9228" max="9229" width="7.33203125" style="12" customWidth="1"/>
-    <col min="9230" max="9230" width="8.5546875" style="12" customWidth="1"/>
-    <col min="9231" max="9232" width="5.6640625" style="12" customWidth="1"/>
-    <col min="9233" max="9234" width="5.109375" style="12" customWidth="1"/>
-    <col min="9235" max="9239" width="5.6640625" style="12" customWidth="1"/>
-    <col min="9240" max="9240" width="6.21875" style="12" customWidth="1"/>
-    <col min="9241" max="9242" width="9.5546875" style="12" customWidth="1"/>
-    <col min="9243" max="9243" width="7.33203125" style="12" customWidth="1"/>
-    <col min="9244" max="9244" width="12.21875" style="12" customWidth="1"/>
-    <col min="9245" max="9245" width="8.44140625" style="12" customWidth="1"/>
-    <col min="9246" max="9246" width="11.77734375" style="12" customWidth="1"/>
-    <col min="9247" max="9248" width="6.21875" style="12" customWidth="1"/>
-    <col min="9249" max="9249" width="13.21875" style="12" customWidth="1"/>
-    <col min="9250" max="9251" width="7.33203125" style="12" customWidth="1"/>
-    <col min="9252" max="9475" width="14" style="12"/>
-    <col min="9476" max="9476" width="5.109375" style="12" customWidth="1"/>
-    <col min="9477" max="9477" width="4" style="12" customWidth="1"/>
-    <col min="9478" max="9478" width="6.21875" style="12" customWidth="1"/>
-    <col min="9479" max="9479" width="17.88671875" style="12" customWidth="1"/>
-    <col min="9480" max="9480" width="21.109375" style="12" customWidth="1"/>
-    <col min="9481" max="9481" width="8.44140625" style="12" customWidth="1"/>
-    <col min="9482" max="9483" width="5.6640625" style="12" customWidth="1"/>
-    <col min="9484" max="9485" width="7.33203125" style="12" customWidth="1"/>
-    <col min="9486" max="9486" width="8.5546875" style="12" customWidth="1"/>
-    <col min="9487" max="9488" width="5.6640625" style="12" customWidth="1"/>
-    <col min="9489" max="9490" width="5.109375" style="12" customWidth="1"/>
-    <col min="9491" max="9495" width="5.6640625" style="12" customWidth="1"/>
-    <col min="9496" max="9496" width="6.21875" style="12" customWidth="1"/>
-    <col min="9497" max="9498" width="9.5546875" style="12" customWidth="1"/>
-    <col min="9499" max="9499" width="7.33203125" style="12" customWidth="1"/>
-    <col min="9500" max="9500" width="12.21875" style="12" customWidth="1"/>
-    <col min="9501" max="9501" width="8.44140625" style="12" customWidth="1"/>
-    <col min="9502" max="9502" width="11.77734375" style="12" customWidth="1"/>
-    <col min="9503" max="9504" width="6.21875" style="12" customWidth="1"/>
-    <col min="9505" max="9505" width="13.21875" style="12" customWidth="1"/>
-    <col min="9506" max="9507" width="7.33203125" style="12" customWidth="1"/>
-    <col min="9508" max="9731" width="14" style="12"/>
-    <col min="9732" max="9732" width="5.109375" style="12" customWidth="1"/>
-    <col min="9733" max="9733" width="4" style="12" customWidth="1"/>
-    <col min="9734" max="9734" width="6.21875" style="12" customWidth="1"/>
-    <col min="9735" max="9735" width="17.88671875" style="12" customWidth="1"/>
-    <col min="9736" max="9736" width="21.109375" style="12" customWidth="1"/>
-    <col min="9737" max="9737" width="8.44140625" style="12" customWidth="1"/>
-    <col min="9738" max="9739" width="5.6640625" style="12" customWidth="1"/>
-    <col min="9740" max="9741" width="7.33203125" style="12" customWidth="1"/>
-    <col min="9742" max="9742" width="8.5546875" style="12" customWidth="1"/>
-    <col min="9743" max="9744" width="5.6640625" style="12" customWidth="1"/>
-    <col min="9745" max="9746" width="5.109375" style="12" customWidth="1"/>
-    <col min="9747" max="9751" width="5.6640625" style="12" customWidth="1"/>
-    <col min="9752" max="9752" width="6.21875" style="12" customWidth="1"/>
-    <col min="9753" max="9754" width="9.5546875" style="12" customWidth="1"/>
-    <col min="9755" max="9755" width="7.33203125" style="12" customWidth="1"/>
-    <col min="9756" max="9756" width="12.21875" style="12" customWidth="1"/>
-    <col min="9757" max="9757" width="8.44140625" style="12" customWidth="1"/>
-    <col min="9758" max="9758" width="11.77734375" style="12" customWidth="1"/>
-    <col min="9759" max="9760" width="6.21875" style="12" customWidth="1"/>
-    <col min="9761" max="9761" width="13.21875" style="12" customWidth="1"/>
-    <col min="9762" max="9763" width="7.33203125" style="12" customWidth="1"/>
-    <col min="9764" max="9987" width="14" style="12"/>
-    <col min="9988" max="9988" width="5.109375" style="12" customWidth="1"/>
-    <col min="9989" max="9989" width="4" style="12" customWidth="1"/>
-    <col min="9990" max="9990" width="6.21875" style="12" customWidth="1"/>
-    <col min="9991" max="9991" width="17.88671875" style="12" customWidth="1"/>
-    <col min="9992" max="9992" width="21.109375" style="12" customWidth="1"/>
-    <col min="9993" max="9993" width="8.44140625" style="12" customWidth="1"/>
-    <col min="9994" max="9995" width="5.6640625" style="12" customWidth="1"/>
-    <col min="9996" max="9997" width="7.33203125" style="12" customWidth="1"/>
-    <col min="9998" max="9998" width="8.5546875" style="12" customWidth="1"/>
-    <col min="9999" max="10000" width="5.6640625" style="12" customWidth="1"/>
-    <col min="10001" max="10002" width="5.109375" style="12" customWidth="1"/>
-    <col min="10003" max="10007" width="5.6640625" style="12" customWidth="1"/>
-    <col min="10008" max="10008" width="6.21875" style="12" customWidth="1"/>
-    <col min="10009" max="10010" width="9.5546875" style="12" customWidth="1"/>
-    <col min="10011" max="10011" width="7.33203125" style="12" customWidth="1"/>
-    <col min="10012" max="10012" width="12.21875" style="12" customWidth="1"/>
-    <col min="10013" max="10013" width="8.44140625" style="12" customWidth="1"/>
-    <col min="10014" max="10014" width="11.77734375" style="12" customWidth="1"/>
-    <col min="10015" max="10016" width="6.21875" style="12" customWidth="1"/>
-    <col min="10017" max="10017" width="13.21875" style="12" customWidth="1"/>
-    <col min="10018" max="10019" width="7.33203125" style="12" customWidth="1"/>
-    <col min="10020" max="10243" width="14" style="12"/>
-    <col min="10244" max="10244" width="5.109375" style="12" customWidth="1"/>
-    <col min="10245" max="10245" width="4" style="12" customWidth="1"/>
-    <col min="10246" max="10246" width="6.21875" style="12" customWidth="1"/>
-    <col min="10247" max="10247" width="17.88671875" style="12" customWidth="1"/>
-    <col min="10248" max="10248" width="21.109375" style="12" customWidth="1"/>
-    <col min="10249" max="10249" width="8.44140625" style="12" customWidth="1"/>
-    <col min="10250" max="10251" width="5.6640625" style="12" customWidth="1"/>
-    <col min="10252" max="10253" width="7.33203125" style="12" customWidth="1"/>
-    <col min="10254" max="10254" width="8.5546875" style="12" customWidth="1"/>
-    <col min="10255" max="10256" width="5.6640625" style="12" customWidth="1"/>
-    <col min="10257" max="10258" width="5.109375" style="12" customWidth="1"/>
-    <col min="10259" max="10263" width="5.6640625" style="12" customWidth="1"/>
-    <col min="10264" max="10264" width="6.21875" style="12" customWidth="1"/>
-    <col min="10265" max="10266" width="9.5546875" style="12" customWidth="1"/>
-    <col min="10267" max="10267" width="7.33203125" style="12" customWidth="1"/>
-    <col min="10268" max="10268" width="12.21875" style="12" customWidth="1"/>
-    <col min="10269" max="10269" width="8.44140625" style="12" customWidth="1"/>
-    <col min="10270" max="10270" width="11.77734375" style="12" customWidth="1"/>
-    <col min="10271" max="10272" width="6.21875" style="12" customWidth="1"/>
-    <col min="10273" max="10273" width="13.21875" style="12" customWidth="1"/>
-    <col min="10274" max="10275" width="7.33203125" style="12" customWidth="1"/>
-    <col min="10276" max="10499" width="14" style="12"/>
-    <col min="10500" max="10500" width="5.109375" style="12" customWidth="1"/>
-    <col min="10501" max="10501" width="4" style="12" customWidth="1"/>
-    <col min="10502" max="10502" width="6.21875" style="12" customWidth="1"/>
-    <col min="10503" max="10503" width="17.88671875" style="12" customWidth="1"/>
-    <col min="10504" max="10504" width="21.109375" style="12" customWidth="1"/>
-    <col min="10505" max="10505" width="8.44140625" style="12" customWidth="1"/>
-    <col min="10506" max="10507" width="5.6640625" style="12" customWidth="1"/>
-    <col min="10508" max="10509" width="7.33203125" style="12" customWidth="1"/>
-    <col min="10510" max="10510" width="8.5546875" style="12" customWidth="1"/>
-    <col min="10511" max="10512" width="5.6640625" style="12" customWidth="1"/>
-    <col min="10513" max="10514" width="5.109375" style="12" customWidth="1"/>
-    <col min="10515" max="10519" width="5.6640625" style="12" customWidth="1"/>
-    <col min="10520" max="10520" width="6.21875" style="12" customWidth="1"/>
-    <col min="10521" max="10522" width="9.5546875" style="12" customWidth="1"/>
-    <col min="10523" max="10523" width="7.33203125" style="12" customWidth="1"/>
-    <col min="10524" max="10524" width="12.21875" style="12" customWidth="1"/>
-    <col min="10525" max="10525" width="8.44140625" style="12" customWidth="1"/>
-    <col min="10526" max="10526" width="11.77734375" style="12" customWidth="1"/>
-    <col min="10527" max="10528" width="6.21875" style="12" customWidth="1"/>
-    <col min="10529" max="10529" width="13.21875" style="12" customWidth="1"/>
-    <col min="10530" max="10531" width="7.33203125" style="12" customWidth="1"/>
-    <col min="10532" max="10755" width="14" style="12"/>
-    <col min="10756" max="10756" width="5.109375" style="12" customWidth="1"/>
-    <col min="10757" max="10757" width="4" style="12" customWidth="1"/>
-    <col min="10758" max="10758" width="6.21875" style="12" customWidth="1"/>
-    <col min="10759" max="10759" width="17.88671875" style="12" customWidth="1"/>
-    <col min="10760" max="10760" width="21.109375" style="12" customWidth="1"/>
-    <col min="10761" max="10761" width="8.44140625" style="12" customWidth="1"/>
-    <col min="10762" max="10763" width="5.6640625" style="12" customWidth="1"/>
-    <col min="10764" max="10765" width="7.33203125" style="12" customWidth="1"/>
-    <col min="10766" max="10766" width="8.5546875" style="12" customWidth="1"/>
-    <col min="10767" max="10768" width="5.6640625" style="12" customWidth="1"/>
-    <col min="10769" max="10770" width="5.109375" style="12" customWidth="1"/>
-    <col min="10771" max="10775" width="5.6640625" style="12" customWidth="1"/>
-    <col min="10776" max="10776" width="6.21875" style="12" customWidth="1"/>
-    <col min="10777" max="10778" width="9.5546875" style="12" customWidth="1"/>
-    <col min="10779" max="10779" width="7.33203125" style="12" customWidth="1"/>
-    <col min="10780" max="10780" width="12.21875" style="12" customWidth="1"/>
-    <col min="10781" max="10781" width="8.44140625" style="12" customWidth="1"/>
-    <col min="10782" max="10782" width="11.77734375" style="12" customWidth="1"/>
-    <col min="10783" max="10784" width="6.21875" style="12" customWidth="1"/>
-    <col min="10785" max="10785" width="13.21875" style="12" customWidth="1"/>
-    <col min="10786" max="10787" width="7.33203125" style="12" customWidth="1"/>
-    <col min="10788" max="11011" width="14" style="12"/>
-    <col min="11012" max="11012" width="5.109375" style="12" customWidth="1"/>
-    <col min="11013" max="11013" width="4" style="12" customWidth="1"/>
-    <col min="11014" max="11014" width="6.21875" style="12" customWidth="1"/>
-    <col min="11015" max="11015" width="17.88671875" style="12" customWidth="1"/>
-    <col min="11016" max="11016" width="21.109375" style="12" customWidth="1"/>
-    <col min="11017" max="11017" width="8.44140625" style="12" customWidth="1"/>
-    <col min="11018" max="11019" width="5.6640625" style="12" customWidth="1"/>
-    <col min="11020" max="11021" width="7.33203125" style="12" customWidth="1"/>
-    <col min="11022" max="11022" width="8.5546875" style="12" customWidth="1"/>
-    <col min="11023" max="11024" width="5.6640625" style="12" customWidth="1"/>
-    <col min="11025" max="11026" width="5.109375" style="12" customWidth="1"/>
-    <col min="11027" max="11031" width="5.6640625" style="12" customWidth="1"/>
-    <col min="11032" max="11032" width="6.21875" style="12" customWidth="1"/>
-    <col min="11033" max="11034" width="9.5546875" style="12" customWidth="1"/>
-    <col min="11035" max="11035" width="7.33203125" style="12" customWidth="1"/>
-    <col min="11036" max="11036" width="12.21875" style="12" customWidth="1"/>
-    <col min="11037" max="11037" width="8.44140625" style="12" customWidth="1"/>
-    <col min="11038" max="11038" width="11.77734375" style="12" customWidth="1"/>
-    <col min="11039" max="11040" width="6.21875" style="12" customWidth="1"/>
-    <col min="11041" max="11041" width="13.21875" style="12" customWidth="1"/>
-    <col min="11042" max="11043" width="7.33203125" style="12" customWidth="1"/>
-    <col min="11044" max="11267" width="14" style="12"/>
-    <col min="11268" max="11268" width="5.109375" style="12" customWidth="1"/>
-    <col min="11269" max="11269" width="4" style="12" customWidth="1"/>
-    <col min="11270" max="11270" width="6.21875" style="12" customWidth="1"/>
-    <col min="11271" max="11271" width="17.88671875" style="12" customWidth="1"/>
-    <col min="11272" max="11272" width="21.109375" style="12" customWidth="1"/>
-    <col min="11273" max="11273" width="8.44140625" style="12" customWidth="1"/>
-    <col min="11274" max="11275" width="5.6640625" style="12" customWidth="1"/>
-    <col min="11276" max="11277" width="7.33203125" style="12" customWidth="1"/>
-    <col min="11278" max="11278" width="8.5546875" style="12" customWidth="1"/>
-    <col min="11279" max="11280" width="5.6640625" style="12" customWidth="1"/>
-    <col min="11281" max="11282" width="5.109375" style="12" customWidth="1"/>
-    <col min="11283" max="11287" width="5.6640625" style="12" customWidth="1"/>
-    <col min="11288" max="11288" width="6.21875" style="12" customWidth="1"/>
-    <col min="11289" max="11290" width="9.5546875" style="12" customWidth="1"/>
-    <col min="11291" max="11291" width="7.33203125" style="12" customWidth="1"/>
-    <col min="11292" max="11292" width="12.21875" style="12" customWidth="1"/>
-    <col min="11293" max="11293" width="8.44140625" style="12" customWidth="1"/>
-    <col min="11294" max="11294" width="11.77734375" style="12" customWidth="1"/>
-    <col min="11295" max="11296" width="6.21875" style="12" customWidth="1"/>
-    <col min="11297" max="11297" width="13.21875" style="12" customWidth="1"/>
-    <col min="11298" max="11299" width="7.33203125" style="12" customWidth="1"/>
-    <col min="11300" max="11523" width="14" style="12"/>
-    <col min="11524" max="11524" width="5.109375" style="12" customWidth="1"/>
-    <col min="11525" max="11525" width="4" style="12" customWidth="1"/>
-    <col min="11526" max="11526" width="6.21875" style="12" customWidth="1"/>
-    <col min="11527" max="11527" width="17.88671875" style="12" customWidth="1"/>
-    <col min="11528" max="11528" width="21.109375" style="12" customWidth="1"/>
-    <col min="11529" max="11529" width="8.44140625" style="12" customWidth="1"/>
-    <col min="11530" max="11531" width="5.6640625" style="12" customWidth="1"/>
-    <col min="11532" max="11533" width="7.33203125" style="12" customWidth="1"/>
-    <col min="11534" max="11534" width="8.5546875" style="12" customWidth="1"/>
-    <col min="11535" max="11536" width="5.6640625" style="12" customWidth="1"/>
-    <col min="11537" max="11538" width="5.109375" style="12" customWidth="1"/>
-    <col min="11539" max="11543" width="5.6640625" style="12" customWidth="1"/>
-    <col min="11544" max="11544" width="6.21875" style="12" customWidth="1"/>
-    <col min="11545" max="11546" width="9.5546875" style="12" customWidth="1"/>
-    <col min="11547" max="11547" width="7.33203125" style="12" customWidth="1"/>
-    <col min="11548" max="11548" width="12.21875" style="12" customWidth="1"/>
-    <col min="11549" max="11549" width="8.44140625" style="12" customWidth="1"/>
-    <col min="11550" max="11550" width="11.77734375" style="12" customWidth="1"/>
-    <col min="11551" max="11552" width="6.21875" style="12" customWidth="1"/>
-    <col min="11553" max="11553" width="13.21875" style="12" customWidth="1"/>
-    <col min="11554" max="11555" width="7.33203125" style="12" customWidth="1"/>
-    <col min="11556" max="11779" width="14" style="12"/>
-    <col min="11780" max="11780" width="5.109375" style="12" customWidth="1"/>
-    <col min="11781" max="11781" width="4" style="12" customWidth="1"/>
-    <col min="11782" max="11782" width="6.21875" style="12" customWidth="1"/>
-    <col min="11783" max="11783" width="17.88671875" style="12" customWidth="1"/>
-    <col min="11784" max="11784" width="21.109375" style="12" customWidth="1"/>
-    <col min="11785" max="11785" width="8.44140625" style="12" customWidth="1"/>
-    <col min="11786" max="11787" width="5.6640625" style="12" customWidth="1"/>
-    <col min="11788" max="11789" width="7.33203125" style="12" customWidth="1"/>
-    <col min="11790" max="11790" width="8.5546875" style="12" customWidth="1"/>
-    <col min="11791" max="11792" width="5.6640625" style="12" customWidth="1"/>
-    <col min="11793" max="11794" width="5.109375" style="12" customWidth="1"/>
-    <col min="11795" max="11799" width="5.6640625" style="12" customWidth="1"/>
-    <col min="11800" max="11800" width="6.21875" style="12" customWidth="1"/>
-    <col min="11801" max="11802" width="9.5546875" style="12" customWidth="1"/>
-    <col min="11803" max="11803" width="7.33203125" style="12" customWidth="1"/>
-    <col min="11804" max="11804" width="12.21875" style="12" customWidth="1"/>
-    <col min="11805" max="11805" width="8.44140625" style="12" customWidth="1"/>
-    <col min="11806" max="11806" width="11.77734375" style="12" customWidth="1"/>
-    <col min="11807" max="11808" width="6.21875" style="12" customWidth="1"/>
-    <col min="11809" max="11809" width="13.21875" style="12" customWidth="1"/>
-    <col min="11810" max="11811" width="7.33203125" style="12" customWidth="1"/>
-    <col min="11812" max="12035" width="14" style="12"/>
-    <col min="12036" max="12036" width="5.109375" style="12" customWidth="1"/>
-    <col min="12037" max="12037" width="4" style="12" customWidth="1"/>
-    <col min="12038" max="12038" width="6.21875" style="12" customWidth="1"/>
-    <col min="12039" max="12039" width="17.88671875" style="12" customWidth="1"/>
-    <col min="12040" max="12040" width="21.109375" style="12" customWidth="1"/>
-    <col min="12041" max="12041" width="8.44140625" style="12" customWidth="1"/>
-    <col min="12042" max="12043" width="5.6640625" style="12" customWidth="1"/>
-    <col min="12044" max="12045" width="7.33203125" style="12" customWidth="1"/>
-    <col min="12046" max="12046" width="8.5546875" style="12" customWidth="1"/>
-    <col min="12047" max="12048" width="5.6640625" style="12" customWidth="1"/>
-    <col min="12049" max="12050" width="5.109375" style="12" customWidth="1"/>
-    <col min="12051" max="12055" width="5.6640625" style="12" customWidth="1"/>
-    <col min="12056" max="12056" width="6.21875" style="12" customWidth="1"/>
-    <col min="12057" max="12058" width="9.5546875" style="12" customWidth="1"/>
-    <col min="12059" max="12059" width="7.33203125" style="12" customWidth="1"/>
-    <col min="12060" max="12060" width="12.21875" style="12" customWidth="1"/>
-    <col min="12061" max="12061" width="8.44140625" style="12" customWidth="1"/>
-    <col min="12062" max="12062" width="11.77734375" style="12" customWidth="1"/>
-    <col min="12063" max="12064" width="6.21875" style="12" customWidth="1"/>
-    <col min="12065" max="12065" width="13.21875" style="12" customWidth="1"/>
-    <col min="12066" max="12067" width="7.33203125" style="12" customWidth="1"/>
-    <col min="12068" max="12291" width="14" style="12"/>
-    <col min="12292" max="12292" width="5.109375" style="12" customWidth="1"/>
-    <col min="12293" max="12293" width="4" style="12" customWidth="1"/>
-    <col min="12294" max="12294" width="6.21875" style="12" customWidth="1"/>
-    <col min="12295" max="12295" width="17.88671875" style="12" customWidth="1"/>
-    <col min="12296" max="12296" width="21.109375" style="12" customWidth="1"/>
-    <col min="12297" max="12297" width="8.44140625" style="12" customWidth="1"/>
-    <col min="12298" max="12299" width="5.6640625" style="12" customWidth="1"/>
-    <col min="12300" max="12301" width="7.33203125" style="12" customWidth="1"/>
-    <col min="12302" max="12302" width="8.5546875" style="12" customWidth="1"/>
-    <col min="12303" max="12304" width="5.6640625" style="12" customWidth="1"/>
-    <col min="12305" max="12306" width="5.109375" style="12" customWidth="1"/>
-    <col min="12307" max="12311" width="5.6640625" style="12" customWidth="1"/>
-    <col min="12312" max="12312" width="6.21875" style="12" customWidth="1"/>
-    <col min="12313" max="12314" width="9.5546875" style="12" customWidth="1"/>
-    <col min="12315" max="12315" width="7.33203125" style="12" customWidth="1"/>
-    <col min="12316" max="12316" width="12.21875" style="12" customWidth="1"/>
-    <col min="12317" max="12317" width="8.44140625" style="12" customWidth="1"/>
-    <col min="12318" max="12318" width="11.77734375" style="12" customWidth="1"/>
-    <col min="12319" max="12320" width="6.21875" style="12" customWidth="1"/>
-    <col min="12321" max="12321" width="13.21875" style="12" customWidth="1"/>
-    <col min="12322" max="12323" width="7.33203125" style="12" customWidth="1"/>
-    <col min="12324" max="12547" width="14" style="12"/>
-    <col min="12548" max="12548" width="5.109375" style="12" customWidth="1"/>
-    <col min="12549" max="12549" width="4" style="12" customWidth="1"/>
-    <col min="12550" max="12550" width="6.21875" style="12" customWidth="1"/>
-    <col min="12551" max="12551" width="17.88671875" style="12" customWidth="1"/>
-    <col min="12552" max="12552" width="21.109375" style="12" customWidth="1"/>
-    <col min="12553" max="12553" width="8.44140625" style="12" customWidth="1"/>
-    <col min="12554" max="12555" width="5.6640625" style="12" customWidth="1"/>
-    <col min="12556" max="12557" width="7.33203125" style="12" customWidth="1"/>
-    <col min="12558" max="12558" width="8.5546875" style="12" customWidth="1"/>
-    <col min="12559" max="12560" width="5.6640625" style="12" customWidth="1"/>
-    <col min="12561" max="12562" width="5.109375" style="12" customWidth="1"/>
-    <col min="12563" max="12567" width="5.6640625" style="12" customWidth="1"/>
-    <col min="12568" max="12568" width="6.21875" style="12" customWidth="1"/>
-    <col min="12569" max="12570" width="9.5546875" style="12" customWidth="1"/>
-    <col min="12571" max="12571" width="7.33203125" style="12" customWidth="1"/>
-    <col min="12572" max="12572" width="12.21875" style="12" customWidth="1"/>
-    <col min="12573" max="12573" width="8.44140625" style="12" customWidth="1"/>
-    <col min="12574" max="12574" width="11.77734375" style="12" customWidth="1"/>
-    <col min="12575" max="12576" width="6.21875" style="12" customWidth="1"/>
-    <col min="12577" max="12577" width="13.21875" style="12" customWidth="1"/>
-    <col min="12578" max="12579" width="7.33203125" style="12" customWidth="1"/>
-    <col min="12580" max="12803" width="14" style="12"/>
-    <col min="12804" max="12804" width="5.109375" style="12" customWidth="1"/>
-    <col min="12805" max="12805" width="4" style="12" customWidth="1"/>
-    <col min="12806" max="12806" width="6.21875" style="12" customWidth="1"/>
-    <col min="12807" max="12807" width="17.88671875" style="12" customWidth="1"/>
-    <col min="12808" max="12808" width="21.109375" style="12" customWidth="1"/>
-    <col min="12809" max="12809" width="8.44140625" style="12" customWidth="1"/>
-    <col min="12810" max="12811" width="5.6640625" style="12" customWidth="1"/>
-    <col min="12812" max="12813" width="7.33203125" style="12" customWidth="1"/>
-    <col min="12814" max="12814" width="8.5546875" style="12" customWidth="1"/>
-    <col min="12815" max="12816" width="5.6640625" style="12" customWidth="1"/>
-    <col min="12817" max="12818" width="5.109375" style="12" customWidth="1"/>
-    <col min="12819" max="12823" width="5.6640625" style="12" customWidth="1"/>
-    <col min="12824" max="12824" width="6.21875" style="12" customWidth="1"/>
-    <col min="12825" max="12826" width="9.5546875" style="12" customWidth="1"/>
-    <col min="12827" max="12827" width="7.33203125" style="12" customWidth="1"/>
-    <col min="12828" max="12828" width="12.21875" style="12" customWidth="1"/>
-    <col min="12829" max="12829" width="8.44140625" style="12" customWidth="1"/>
-    <col min="12830" max="12830" width="11.77734375" style="12" customWidth="1"/>
-    <col min="12831" max="12832" width="6.21875" style="12" customWidth="1"/>
-    <col min="12833" max="12833" width="13.21875" style="12" customWidth="1"/>
-    <col min="12834" max="12835" width="7.33203125" style="12" customWidth="1"/>
-    <col min="12836" max="13059" width="14" style="12"/>
-    <col min="13060" max="13060" width="5.109375" style="12" customWidth="1"/>
-    <col min="13061" max="13061" width="4" style="12" customWidth="1"/>
-    <col min="13062" max="13062" width="6.21875" style="12" customWidth="1"/>
-    <col min="13063" max="13063" width="17.88671875" style="12" customWidth="1"/>
-    <col min="13064" max="13064" width="21.109375" style="12" customWidth="1"/>
-    <col min="13065" max="13065" width="8.44140625" style="12" customWidth="1"/>
-    <col min="13066" max="13067" width="5.6640625" style="12" customWidth="1"/>
-    <col min="13068" max="13069" width="7.33203125" style="12" customWidth="1"/>
-    <col min="13070" max="13070" width="8.5546875" style="12" customWidth="1"/>
-    <col min="13071" max="13072" width="5.6640625" style="12" customWidth="1"/>
-    <col min="13073" max="13074" width="5.109375" style="12" customWidth="1"/>
-    <col min="13075" max="13079" width="5.6640625" style="12" customWidth="1"/>
-    <col min="13080" max="13080" width="6.21875" style="12" customWidth="1"/>
-    <col min="13081" max="13082" width="9.5546875" style="12" customWidth="1"/>
-    <col min="13083" max="13083" width="7.33203125" style="12" customWidth="1"/>
-    <col min="13084" max="13084" width="12.21875" style="12" customWidth="1"/>
-    <col min="13085" max="13085" width="8.44140625" style="12" customWidth="1"/>
-    <col min="13086" max="13086" width="11.77734375" style="12" customWidth="1"/>
-    <col min="13087" max="13088" width="6.21875" style="12" customWidth="1"/>
-    <col min="13089" max="13089" width="13.21875" style="12" customWidth="1"/>
-    <col min="13090" max="13091" width="7.33203125" style="12" customWidth="1"/>
-    <col min="13092" max="13315" width="14" style="12"/>
-    <col min="13316" max="13316" width="5.109375" style="12" customWidth="1"/>
-    <col min="13317" max="13317" width="4" style="12" customWidth="1"/>
-    <col min="13318" max="13318" width="6.21875" style="12" customWidth="1"/>
-    <col min="13319" max="13319" width="17.88671875" style="12" customWidth="1"/>
-    <col min="13320" max="13320" width="21.109375" style="12" customWidth="1"/>
-    <col min="13321" max="13321" width="8.44140625" style="12" customWidth="1"/>
-    <col min="13322" max="13323" width="5.6640625" style="12" customWidth="1"/>
-    <col min="13324" max="13325" width="7.33203125" style="12" customWidth="1"/>
-    <col min="13326" max="13326" width="8.5546875" style="12" customWidth="1"/>
-    <col min="13327" max="13328" width="5.6640625" style="12" customWidth="1"/>
-    <col min="13329" max="13330" width="5.109375" style="12" customWidth="1"/>
-    <col min="13331" max="13335" width="5.6640625" style="12" customWidth="1"/>
-    <col min="13336" max="13336" width="6.21875" style="12" customWidth="1"/>
-    <col min="13337" max="13338" width="9.5546875" style="12" customWidth="1"/>
-    <col min="13339" max="13339" width="7.33203125" style="12" customWidth="1"/>
-    <col min="13340" max="13340" width="12.21875" style="12" customWidth="1"/>
-    <col min="13341" max="13341" width="8.44140625" style="12" customWidth="1"/>
-    <col min="13342" max="13342" width="11.77734375" style="12" customWidth="1"/>
-    <col min="13343" max="13344" width="6.21875" style="12" customWidth="1"/>
-    <col min="13345" max="13345" width="13.21875" style="12" customWidth="1"/>
-    <col min="13346" max="13347" width="7.33203125" style="12" customWidth="1"/>
-    <col min="13348" max="13571" width="14" style="12"/>
-    <col min="13572" max="13572" width="5.109375" style="12" customWidth="1"/>
-    <col min="13573" max="13573" width="4" style="12" customWidth="1"/>
-    <col min="13574" max="13574" width="6.21875" style="12" customWidth="1"/>
-    <col min="13575" max="13575" width="17.88671875" style="12" customWidth="1"/>
-    <col min="13576" max="13576" width="21.109375" style="12" customWidth="1"/>
-    <col min="13577" max="13577" width="8.44140625" style="12" customWidth="1"/>
-    <col min="13578" max="13579" width="5.6640625" style="12" customWidth="1"/>
-    <col min="13580" max="13581" width="7.33203125" style="12" customWidth="1"/>
-    <col min="13582" max="13582" width="8.5546875" style="12" customWidth="1"/>
-    <col min="13583" max="13584" width="5.6640625" style="12" customWidth="1"/>
-    <col min="13585" max="13586" width="5.109375" style="12" customWidth="1"/>
-    <col min="13587" max="13591" width="5.6640625" style="12" customWidth="1"/>
-    <col min="13592" max="13592" width="6.21875" style="12" customWidth="1"/>
-    <col min="13593" max="13594" width="9.5546875" style="12" customWidth="1"/>
-    <col min="13595" max="13595" width="7.33203125" style="12" customWidth="1"/>
-    <col min="13596" max="13596" width="12.21875" style="12" customWidth="1"/>
-    <col min="13597" max="13597" width="8.44140625" style="12" customWidth="1"/>
-    <col min="13598" max="13598" width="11.77734375" style="12" customWidth="1"/>
-    <col min="13599" max="13600" width="6.21875" style="12" customWidth="1"/>
-    <col min="13601" max="13601" width="13.21875" style="12" customWidth="1"/>
-    <col min="13602" max="13603" width="7.33203125" style="12" customWidth="1"/>
-    <col min="13604" max="13827" width="14" style="12"/>
-    <col min="13828" max="13828" width="5.109375" style="12" customWidth="1"/>
-    <col min="13829" max="13829" width="4" style="12" customWidth="1"/>
-    <col min="13830" max="13830" width="6.21875" style="12" customWidth="1"/>
-    <col min="13831" max="13831" width="17.88671875" style="12" customWidth="1"/>
-    <col min="13832" max="13832" width="21.109375" style="12" customWidth="1"/>
-    <col min="13833" max="13833" width="8.44140625" style="12" customWidth="1"/>
-    <col min="13834" max="13835" width="5.6640625" style="12" customWidth="1"/>
-    <col min="13836" max="13837" width="7.33203125" style="12" customWidth="1"/>
-    <col min="13838" max="13838" width="8.5546875" style="12" customWidth="1"/>
-    <col min="13839" max="13840" width="5.6640625" style="12" customWidth="1"/>
-    <col min="13841" max="13842" width="5.109375" style="12" customWidth="1"/>
-    <col min="13843" max="13847" width="5.6640625" style="12" customWidth="1"/>
-    <col min="13848" max="13848" width="6.21875" style="12" customWidth="1"/>
-    <col min="13849" max="13850" width="9.5546875" style="12" customWidth="1"/>
-    <col min="13851" max="13851" width="7.33203125" style="12" customWidth="1"/>
-    <col min="13852" max="13852" width="12.21875" style="12" customWidth="1"/>
-    <col min="13853" max="13853" width="8.44140625" style="12" customWidth="1"/>
-    <col min="13854" max="13854" width="11.77734375" style="12" customWidth="1"/>
-    <col min="13855" max="13856" width="6.21875" style="12" customWidth="1"/>
-    <col min="13857" max="13857" width="13.21875" style="12" customWidth="1"/>
-    <col min="13858" max="13859" width="7.33203125" style="12" customWidth="1"/>
-    <col min="13860" max="14083" width="14" style="12"/>
-    <col min="14084" max="14084" width="5.109375" style="12" customWidth="1"/>
-    <col min="14085" max="14085" width="4" style="12" customWidth="1"/>
-    <col min="14086" max="14086" width="6.21875" style="12" customWidth="1"/>
-    <col min="14087" max="14087" width="17.88671875" style="12" customWidth="1"/>
-    <col min="14088" max="14088" width="21.109375" style="12" customWidth="1"/>
-    <col min="14089" max="14089" width="8.44140625" style="12" customWidth="1"/>
-    <col min="14090" max="14091" width="5.6640625" style="12" customWidth="1"/>
-    <col min="14092" max="14093" width="7.33203125" style="12" customWidth="1"/>
-    <col min="14094" max="14094" width="8.5546875" style="12" customWidth="1"/>
-    <col min="14095" max="14096" width="5.6640625" style="12" customWidth="1"/>
-    <col min="14097" max="14098" width="5.109375" style="12" customWidth="1"/>
-    <col min="14099" max="14103" width="5.6640625" style="12" customWidth="1"/>
-    <col min="14104" max="14104" width="6.21875" style="12" customWidth="1"/>
-    <col min="14105" max="14106" width="9.5546875" style="12" customWidth="1"/>
-    <col min="14107" max="14107" width="7.33203125" style="12" customWidth="1"/>
-    <col min="14108" max="14108" width="12.21875" style="12" customWidth="1"/>
-    <col min="14109" max="14109" width="8.44140625" style="12" customWidth="1"/>
-    <col min="14110" max="14110" width="11.77734375" style="12" customWidth="1"/>
-    <col min="14111" max="14112" width="6.21875" style="12" customWidth="1"/>
-    <col min="14113" max="14113" width="13.21875" style="12" customWidth="1"/>
-    <col min="14114" max="14115" width="7.33203125" style="12" customWidth="1"/>
-    <col min="14116" max="14339" width="14" style="12"/>
-    <col min="14340" max="14340" width="5.109375" style="12" customWidth="1"/>
-    <col min="14341" max="14341" width="4" style="12" customWidth="1"/>
-    <col min="14342" max="14342" width="6.21875" style="12" customWidth="1"/>
-    <col min="14343" max="14343" width="17.88671875" style="12" customWidth="1"/>
-    <col min="14344" max="14344" width="21.109375" style="12" customWidth="1"/>
-    <col min="14345" max="14345" width="8.44140625" style="12" customWidth="1"/>
-    <col min="14346" max="14347" width="5.6640625" style="12" customWidth="1"/>
-    <col min="14348" max="14349" width="7.33203125" style="12" customWidth="1"/>
-    <col min="14350" max="14350" width="8.5546875" style="12" customWidth="1"/>
-    <col min="14351" max="14352" width="5.6640625" style="12" customWidth="1"/>
-    <col min="14353" max="14354" width="5.109375" style="12" customWidth="1"/>
-    <col min="14355" max="14359" width="5.6640625" style="12" customWidth="1"/>
-    <col min="14360" max="14360" width="6.21875" style="12" customWidth="1"/>
-    <col min="14361" max="14362" width="9.5546875" style="12" customWidth="1"/>
-    <col min="14363" max="14363" width="7.33203125" style="12" customWidth="1"/>
-    <col min="14364" max="14364" width="12.21875" style="12" customWidth="1"/>
-    <col min="14365" max="14365" width="8.44140625" style="12" customWidth="1"/>
-    <col min="14366" max="14366" width="11.77734375" style="12" customWidth="1"/>
-    <col min="14367" max="14368" width="6.21875" style="12" customWidth="1"/>
-    <col min="14369" max="14369" width="13.21875" style="12" customWidth="1"/>
-    <col min="14370" max="14371" width="7.33203125" style="12" customWidth="1"/>
-    <col min="14372" max="14595" width="14" style="12"/>
-    <col min="14596" max="14596" width="5.109375" style="12" customWidth="1"/>
-    <col min="14597" max="14597" width="4" style="12" customWidth="1"/>
-    <col min="14598" max="14598" width="6.21875" style="12" customWidth="1"/>
-    <col min="14599" max="14599" width="17.88671875" style="12" customWidth="1"/>
-    <col min="14600" max="14600" width="21.109375" style="12" customWidth="1"/>
-    <col min="14601" max="14601" width="8.44140625" style="12" customWidth="1"/>
-    <col min="14602" max="14603" width="5.6640625" style="12" customWidth="1"/>
-    <col min="14604" max="14605" width="7.33203125" style="12" customWidth="1"/>
-    <col min="14606" max="14606" width="8.5546875" style="12" customWidth="1"/>
-    <col min="14607" max="14608" width="5.6640625" style="12" customWidth="1"/>
-    <col min="14609" max="14610" width="5.109375" style="12" customWidth="1"/>
-    <col min="14611" max="14615" width="5.6640625" style="12" customWidth="1"/>
-    <col min="14616" max="14616" width="6.21875" style="12" customWidth="1"/>
-    <col min="14617" max="14618" width="9.5546875" style="12" customWidth="1"/>
-    <col min="14619" max="14619" width="7.33203125" style="12" customWidth="1"/>
-    <col min="14620" max="14620" width="12.21875" style="12" customWidth="1"/>
-    <col min="14621" max="14621" width="8.44140625" style="12" customWidth="1"/>
-    <col min="14622" max="14622" width="11.77734375" style="12" customWidth="1"/>
-    <col min="14623" max="14624" width="6.21875" style="12" customWidth="1"/>
-    <col min="14625" max="14625" width="13.21875" style="12" customWidth="1"/>
-    <col min="14626" max="14627" width="7.33203125" style="12" customWidth="1"/>
-    <col min="14628" max="14851" width="14" style="12"/>
-    <col min="14852" max="14852" width="5.109375" style="12" customWidth="1"/>
-    <col min="14853" max="14853" width="4" style="12" customWidth="1"/>
-    <col min="14854" max="14854" width="6.21875" style="12" customWidth="1"/>
-    <col min="14855" max="14855" width="17.88671875" style="12" customWidth="1"/>
-    <col min="14856" max="14856" width="21.109375" style="12" customWidth="1"/>
-    <col min="14857" max="14857" width="8.44140625" style="12" customWidth="1"/>
-    <col min="14858" max="14859" width="5.6640625" style="12" customWidth="1"/>
-    <col min="14860" max="14861" width="7.33203125" style="12" customWidth="1"/>
-    <col min="14862" max="14862" width="8.5546875" style="12" customWidth="1"/>
-    <col min="14863" max="14864" width="5.6640625" style="12" customWidth="1"/>
-    <col min="14865" max="14866" width="5.109375" style="12" customWidth="1"/>
-    <col min="14867" max="14871" width="5.6640625" style="12" customWidth="1"/>
-    <col min="14872" max="14872" width="6.21875" style="12" customWidth="1"/>
-    <col min="14873" max="14874" width="9.5546875" style="12" customWidth="1"/>
-    <col min="14875" max="14875" width="7.33203125" style="12" customWidth="1"/>
-    <col min="14876" max="14876" width="12.21875" style="12" customWidth="1"/>
-    <col min="14877" max="14877" width="8.44140625" style="12" customWidth="1"/>
-    <col min="14878" max="14878" width="11.77734375" style="12" customWidth="1"/>
-    <col min="14879" max="14880" width="6.21875" style="12" customWidth="1"/>
-    <col min="14881" max="14881" width="13.21875" style="12" customWidth="1"/>
-    <col min="14882" max="14883" width="7.33203125" style="12" customWidth="1"/>
-    <col min="14884" max="15107" width="14" style="12"/>
-    <col min="15108" max="15108" width="5.109375" style="12" customWidth="1"/>
-    <col min="15109" max="15109" width="4" style="12" customWidth="1"/>
-    <col min="15110" max="15110" width="6.21875" style="12" customWidth="1"/>
-    <col min="15111" max="15111" width="17.88671875" style="12" customWidth="1"/>
-    <col min="15112" max="15112" width="21.109375" style="12" customWidth="1"/>
-    <col min="15113" max="15113" width="8.44140625" style="12" customWidth="1"/>
-    <col min="15114" max="15115" width="5.6640625" style="12" customWidth="1"/>
-    <col min="15116" max="15117" width="7.33203125" style="12" customWidth="1"/>
-    <col min="15118" max="15118" width="8.5546875" style="12" customWidth="1"/>
-    <col min="15119" max="15120" width="5.6640625" style="12" customWidth="1"/>
-    <col min="15121" max="15122" width="5.109375" style="12" customWidth="1"/>
-    <col min="15123" max="15127" width="5.6640625" style="12" customWidth="1"/>
-    <col min="15128" max="15128" width="6.21875" style="12" customWidth="1"/>
-    <col min="15129" max="15130" width="9.5546875" style="12" customWidth="1"/>
-    <col min="15131" max="15131" width="7.33203125" style="12" customWidth="1"/>
-    <col min="15132" max="15132" width="12.21875" style="12" customWidth="1"/>
-    <col min="15133" max="15133" width="8.44140625" style="12" customWidth="1"/>
-    <col min="15134" max="15134" width="11.77734375" style="12" customWidth="1"/>
-    <col min="15135" max="15136" width="6.21875" style="12" customWidth="1"/>
-    <col min="15137" max="15137" width="13.21875" style="12" customWidth="1"/>
-    <col min="15138" max="15139" width="7.33203125" style="12" customWidth="1"/>
-    <col min="15140" max="15363" width="14" style="12"/>
-    <col min="15364" max="15364" width="5.109375" style="12" customWidth="1"/>
-    <col min="15365" max="15365" width="4" style="12" customWidth="1"/>
-    <col min="15366" max="15366" width="6.21875" style="12" customWidth="1"/>
-    <col min="15367" max="15367" width="17.88671875" style="12" customWidth="1"/>
-    <col min="15368" max="15368" width="21.109375" style="12" customWidth="1"/>
-    <col min="15369" max="15369" width="8.44140625" style="12" customWidth="1"/>
-    <col min="15370" max="15371" width="5.6640625" style="12" customWidth="1"/>
-    <col min="15372" max="15373" width="7.33203125" style="12" customWidth="1"/>
-    <col min="15374" max="15374" width="8.5546875" style="12" customWidth="1"/>
-    <col min="15375" max="15376" width="5.6640625" style="12" customWidth="1"/>
-    <col min="15377" max="15378" width="5.109375" style="12" customWidth="1"/>
-    <col min="15379" max="15383" width="5.6640625" style="12" customWidth="1"/>
-    <col min="15384" max="15384" width="6.21875" style="12" customWidth="1"/>
-    <col min="15385" max="15386" width="9.5546875" style="12" customWidth="1"/>
-    <col min="15387" max="15387" width="7.33203125" style="12" customWidth="1"/>
-    <col min="15388" max="15388" width="12.21875" style="12" customWidth="1"/>
-    <col min="15389" max="15389" width="8.44140625" style="12" customWidth="1"/>
-    <col min="15390" max="15390" width="11.77734375" style="12" customWidth="1"/>
-    <col min="15391" max="15392" width="6.21875" style="12" customWidth="1"/>
-    <col min="15393" max="15393" width="13.21875" style="12" customWidth="1"/>
-    <col min="15394" max="15395" width="7.33203125" style="12" customWidth="1"/>
-    <col min="15396" max="15619" width="14" style="12"/>
-    <col min="15620" max="15620" width="5.109375" style="12" customWidth="1"/>
-    <col min="15621" max="15621" width="4" style="12" customWidth="1"/>
-    <col min="15622" max="15622" width="6.21875" style="12" customWidth="1"/>
-    <col min="15623" max="15623" width="17.88671875" style="12" customWidth="1"/>
-    <col min="15624" max="15624" width="21.109375" style="12" customWidth="1"/>
-    <col min="15625" max="15625" width="8.44140625" style="12" customWidth="1"/>
-    <col min="15626" max="15627" width="5.6640625" style="12" customWidth="1"/>
-    <col min="15628" max="15629" width="7.33203125" style="12" customWidth="1"/>
-    <col min="15630" max="15630" width="8.5546875" style="12" customWidth="1"/>
-    <col min="15631" max="15632" width="5.6640625" style="12" customWidth="1"/>
-    <col min="15633" max="15634" width="5.109375" style="12" customWidth="1"/>
-    <col min="15635" max="15639" width="5.6640625" style="12" customWidth="1"/>
-    <col min="15640" max="15640" width="6.21875" style="12" customWidth="1"/>
-    <col min="15641" max="15642" width="9.5546875" style="12" customWidth="1"/>
-    <col min="15643" max="15643" width="7.33203125" style="12" customWidth="1"/>
-    <col min="15644" max="15644" width="12.21875" style="12" customWidth="1"/>
-    <col min="15645" max="15645" width="8.44140625" style="12" customWidth="1"/>
-    <col min="15646" max="15646" width="11.77734375" style="12" customWidth="1"/>
-    <col min="15647" max="15648" width="6.21875" style="12" customWidth="1"/>
-    <col min="15649" max="15649" width="13.21875" style="12" customWidth="1"/>
-    <col min="15650" max="15651" width="7.33203125" style="12" customWidth="1"/>
-    <col min="15652" max="15875" width="14" style="12"/>
-    <col min="15876" max="15876" width="5.109375" style="12" customWidth="1"/>
-    <col min="15877" max="15877" width="4" style="12" customWidth="1"/>
-    <col min="15878" max="15878" width="6.21875" style="12" customWidth="1"/>
-    <col min="15879" max="15879" width="17.88671875" style="12" customWidth="1"/>
-    <col min="15880" max="15880" width="21.109375" style="12" customWidth="1"/>
-    <col min="15881" max="15881" width="8.44140625" style="12" customWidth="1"/>
-    <col min="15882" max="15883" width="5.6640625" style="12" customWidth="1"/>
-    <col min="15884" max="15885" width="7.33203125" style="12" customWidth="1"/>
-    <col min="15886" max="15886" width="8.5546875" style="12" customWidth="1"/>
-    <col min="15887" max="15888" width="5.6640625" style="12" customWidth="1"/>
-    <col min="15889" max="15890" width="5.109375" style="12" customWidth="1"/>
-    <col min="15891" max="15895" width="5.6640625" style="12" customWidth="1"/>
-    <col min="15896" max="15896" width="6.21875" style="12" customWidth="1"/>
-    <col min="15897" max="15898" width="9.5546875" style="12" customWidth="1"/>
-    <col min="15899" max="15899" width="7.33203125" style="12" customWidth="1"/>
-    <col min="15900" max="15900" width="12.21875" style="12" customWidth="1"/>
-    <col min="15901" max="15901" width="8.44140625" style="12" customWidth="1"/>
-    <col min="15902" max="15902" width="11.77734375" style="12" customWidth="1"/>
-    <col min="15903" max="15904" width="6.21875" style="12" customWidth="1"/>
-    <col min="15905" max="15905" width="13.21875" style="12" customWidth="1"/>
-    <col min="15906" max="15907" width="7.33203125" style="12" customWidth="1"/>
-    <col min="15908" max="16131" width="14" style="12"/>
-    <col min="16132" max="16132" width="5.109375" style="12" customWidth="1"/>
-    <col min="16133" max="16133" width="4" style="12" customWidth="1"/>
-    <col min="16134" max="16134" width="6.21875" style="12" customWidth="1"/>
-    <col min="16135" max="16135" width="17.88671875" style="12" customWidth="1"/>
-    <col min="16136" max="16136" width="21.109375" style="12" customWidth="1"/>
-    <col min="16137" max="16137" width="8.44140625" style="12" customWidth="1"/>
-    <col min="16138" max="16139" width="5.6640625" style="12" customWidth="1"/>
-    <col min="16140" max="16141" width="7.33203125" style="12" customWidth="1"/>
-    <col min="16142" max="16142" width="8.5546875" style="12" customWidth="1"/>
-    <col min="16143" max="16144" width="5.6640625" style="12" customWidth="1"/>
-    <col min="16145" max="16146" width="5.109375" style="12" customWidth="1"/>
-    <col min="16147" max="16151" width="5.6640625" style="12" customWidth="1"/>
-    <col min="16152" max="16152" width="6.21875" style="12" customWidth="1"/>
-    <col min="16153" max="16154" width="9.5546875" style="12" customWidth="1"/>
-    <col min="16155" max="16155" width="7.33203125" style="12" customWidth="1"/>
-    <col min="16156" max="16156" width="12.21875" style="12" customWidth="1"/>
-    <col min="16157" max="16157" width="8.44140625" style="12" customWidth="1"/>
-    <col min="16158" max="16158" width="11.77734375" style="12" customWidth="1"/>
-    <col min="16159" max="16160" width="6.21875" style="12" customWidth="1"/>
-    <col min="16161" max="16161" width="13.21875" style="12" customWidth="1"/>
-    <col min="16162" max="16163" width="7.33203125" style="12" customWidth="1"/>
-    <col min="16164" max="16384" width="14" style="12"/>
+    <col min="1" max="1" width="5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="3.90625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" style="12" customWidth="1"/>
+    <col min="7" max="8" width="5.54296875" style="12" customWidth="1"/>
+    <col min="9" max="10" width="7.1796875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="8.453125" style="12" customWidth="1"/>
+    <col min="12" max="13" width="5.54296875" style="12" customWidth="1"/>
+    <col min="14" max="15" width="9.36328125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="5" style="12" customWidth="1"/>
+    <col min="17" max="17" width="9.81640625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="12.26953125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="12.08984375" style="12" customWidth="1"/>
+    <col min="20" max="23" width="5.54296875" style="12" customWidth="1"/>
+    <col min="24" max="24" width="40.36328125" style="12" customWidth="1"/>
+    <col min="25" max="26" width="9.36328125" style="12" customWidth="1"/>
+    <col min="27" max="27" width="7.1796875" style="12" customWidth="1"/>
+    <col min="28" max="28" width="12" style="12" customWidth="1"/>
+    <col min="29" max="29" width="8.26953125" style="12" customWidth="1"/>
+    <col min="30" max="30" width="11.54296875" style="12" customWidth="1"/>
+    <col min="31" max="31" width="6.08984375" style="12" customWidth="1"/>
+    <col min="32" max="32" width="6.08984375" style="202" customWidth="1"/>
+    <col min="33" max="33" width="12.90625" style="12" customWidth="1"/>
+    <col min="34" max="35" width="7.1796875" style="12" customWidth="1"/>
+    <col min="36" max="259" width="13.7265625" style="12"/>
+    <col min="260" max="260" width="5" style="12" customWidth="1"/>
+    <col min="261" max="261" width="3.90625" style="12" customWidth="1"/>
+    <col min="262" max="262" width="6.08984375" style="12" customWidth="1"/>
+    <col min="263" max="263" width="17.54296875" style="12" customWidth="1"/>
+    <col min="264" max="264" width="20.7265625" style="12" customWidth="1"/>
+    <col min="265" max="265" width="8.26953125" style="12" customWidth="1"/>
+    <col min="266" max="267" width="5.54296875" style="12" customWidth="1"/>
+    <col min="268" max="269" width="7.1796875" style="12" customWidth="1"/>
+    <col min="270" max="270" width="8.453125" style="12" customWidth="1"/>
+    <col min="271" max="272" width="5.54296875" style="12" customWidth="1"/>
+    <col min="273" max="274" width="5" style="12" customWidth="1"/>
+    <col min="275" max="279" width="5.54296875" style="12" customWidth="1"/>
+    <col min="280" max="280" width="6.08984375" style="12" customWidth="1"/>
+    <col min="281" max="282" width="9.36328125" style="12" customWidth="1"/>
+    <col min="283" max="283" width="7.1796875" style="12" customWidth="1"/>
+    <col min="284" max="284" width="12" style="12" customWidth="1"/>
+    <col min="285" max="285" width="8.26953125" style="12" customWidth="1"/>
+    <col min="286" max="286" width="11.54296875" style="12" customWidth="1"/>
+    <col min="287" max="288" width="6.08984375" style="12" customWidth="1"/>
+    <col min="289" max="289" width="12.90625" style="12" customWidth="1"/>
+    <col min="290" max="291" width="7.1796875" style="12" customWidth="1"/>
+    <col min="292" max="515" width="13.7265625" style="12"/>
+    <col min="516" max="516" width="5" style="12" customWidth="1"/>
+    <col min="517" max="517" width="3.90625" style="12" customWidth="1"/>
+    <col min="518" max="518" width="6.08984375" style="12" customWidth="1"/>
+    <col min="519" max="519" width="17.54296875" style="12" customWidth="1"/>
+    <col min="520" max="520" width="20.7265625" style="12" customWidth="1"/>
+    <col min="521" max="521" width="8.26953125" style="12" customWidth="1"/>
+    <col min="522" max="523" width="5.54296875" style="12" customWidth="1"/>
+    <col min="524" max="525" width="7.1796875" style="12" customWidth="1"/>
+    <col min="526" max="526" width="8.453125" style="12" customWidth="1"/>
+    <col min="527" max="528" width="5.54296875" style="12" customWidth="1"/>
+    <col min="529" max="530" width="5" style="12" customWidth="1"/>
+    <col min="531" max="535" width="5.54296875" style="12" customWidth="1"/>
+    <col min="536" max="536" width="6.08984375" style="12" customWidth="1"/>
+    <col min="537" max="538" width="9.36328125" style="12" customWidth="1"/>
+    <col min="539" max="539" width="7.1796875" style="12" customWidth="1"/>
+    <col min="540" max="540" width="12" style="12" customWidth="1"/>
+    <col min="541" max="541" width="8.26953125" style="12" customWidth="1"/>
+    <col min="542" max="542" width="11.54296875" style="12" customWidth="1"/>
+    <col min="543" max="544" width="6.08984375" style="12" customWidth="1"/>
+    <col min="545" max="545" width="12.90625" style="12" customWidth="1"/>
+    <col min="546" max="547" width="7.1796875" style="12" customWidth="1"/>
+    <col min="548" max="771" width="13.7265625" style="12"/>
+    <col min="772" max="772" width="5" style="12" customWidth="1"/>
+    <col min="773" max="773" width="3.90625" style="12" customWidth="1"/>
+    <col min="774" max="774" width="6.08984375" style="12" customWidth="1"/>
+    <col min="775" max="775" width="17.54296875" style="12" customWidth="1"/>
+    <col min="776" max="776" width="20.7265625" style="12" customWidth="1"/>
+    <col min="777" max="777" width="8.26953125" style="12" customWidth="1"/>
+    <col min="778" max="779" width="5.54296875" style="12" customWidth="1"/>
+    <col min="780" max="781" width="7.1796875" style="12" customWidth="1"/>
+    <col min="782" max="782" width="8.453125" style="12" customWidth="1"/>
+    <col min="783" max="784" width="5.54296875" style="12" customWidth="1"/>
+    <col min="785" max="786" width="5" style="12" customWidth="1"/>
+    <col min="787" max="791" width="5.54296875" style="12" customWidth="1"/>
+    <col min="792" max="792" width="6.08984375" style="12" customWidth="1"/>
+    <col min="793" max="794" width="9.36328125" style="12" customWidth="1"/>
+    <col min="795" max="795" width="7.1796875" style="12" customWidth="1"/>
+    <col min="796" max="796" width="12" style="12" customWidth="1"/>
+    <col min="797" max="797" width="8.26953125" style="12" customWidth="1"/>
+    <col min="798" max="798" width="11.54296875" style="12" customWidth="1"/>
+    <col min="799" max="800" width="6.08984375" style="12" customWidth="1"/>
+    <col min="801" max="801" width="12.90625" style="12" customWidth="1"/>
+    <col min="802" max="803" width="7.1796875" style="12" customWidth="1"/>
+    <col min="804" max="1027" width="13.7265625" style="12"/>
+    <col min="1028" max="1028" width="5" style="12" customWidth="1"/>
+    <col min="1029" max="1029" width="3.90625" style="12" customWidth="1"/>
+    <col min="1030" max="1030" width="6.08984375" style="12" customWidth="1"/>
+    <col min="1031" max="1031" width="17.54296875" style="12" customWidth="1"/>
+    <col min="1032" max="1032" width="20.7265625" style="12" customWidth="1"/>
+    <col min="1033" max="1033" width="8.26953125" style="12" customWidth="1"/>
+    <col min="1034" max="1035" width="5.54296875" style="12" customWidth="1"/>
+    <col min="1036" max="1037" width="7.1796875" style="12" customWidth="1"/>
+    <col min="1038" max="1038" width="8.453125" style="12" customWidth="1"/>
+    <col min="1039" max="1040" width="5.54296875" style="12" customWidth="1"/>
+    <col min="1041" max="1042" width="5" style="12" customWidth="1"/>
+    <col min="1043" max="1047" width="5.54296875" style="12" customWidth="1"/>
+    <col min="1048" max="1048" width="6.08984375" style="12" customWidth="1"/>
+    <col min="1049" max="1050" width="9.36328125" style="12" customWidth="1"/>
+    <col min="1051" max="1051" width="7.1796875" style="12" customWidth="1"/>
+    <col min="1052" max="1052" width="12" style="12" customWidth="1"/>
+    <col min="1053" max="1053" width="8.26953125" style="12" customWidth="1"/>
+    <col min="1054" max="1054" width="11.54296875" style="12" customWidth="1"/>
+    <col min="1055" max="1056" width="6.08984375" style="12" customWidth="1"/>
+    <col min="1057" max="1057" width="12.90625" style="12" customWidth="1"/>
+    <col min="1058" max="1059" width="7.1796875" style="12" customWidth="1"/>
+    <col min="1060" max="1283" width="13.7265625" style="12"/>
+    <col min="1284" max="1284" width="5" style="12" customWidth="1"/>
+    <col min="1285" max="1285" width="3.90625" style="12" customWidth="1"/>
+    <col min="1286" max="1286" width="6.08984375" style="12" customWidth="1"/>
+    <col min="1287" max="1287" width="17.54296875" style="12" customWidth="1"/>
+    <col min="1288" max="1288" width="20.7265625" style="12" customWidth="1"/>
+    <col min="1289" max="1289" width="8.26953125" style="12" customWidth="1"/>
+    <col min="1290" max="1291" width="5.54296875" style="12" customWidth="1"/>
+    <col min="1292" max="1293" width="7.1796875" style="12" customWidth="1"/>
+    <col min="1294" max="1294" width="8.453125" style="12" customWidth="1"/>
+    <col min="1295" max="1296" width="5.54296875" style="12" customWidth="1"/>
+    <col min="1297" max="1298" width="5" style="12" customWidth="1"/>
+    <col min="1299" max="1303" width="5.54296875" style="12" customWidth="1"/>
+    <col min="1304" max="1304" width="6.08984375" style="12" customWidth="1"/>
+    <col min="1305" max="1306" width="9.36328125" style="12" customWidth="1"/>
+    <col min="1307" max="1307" width="7.1796875" style="12" customWidth="1"/>
+    <col min="1308" max="1308" width="12" style="12" customWidth="1"/>
+    <col min="1309" max="1309" width="8.26953125" style="12" customWidth="1"/>
+    <col min="1310" max="1310" width="11.54296875" style="12" customWidth="1"/>
+    <col min="1311" max="1312" width="6.08984375" style="12" customWidth="1"/>
+    <col min="1313" max="1313" width="12.90625" style="12" customWidth="1"/>
+    <col min="1314" max="1315" width="7.1796875" style="12" customWidth="1"/>
+    <col min="1316" max="1539" width="13.7265625" style="12"/>
+    <col min="1540" max="1540" width="5" style="12" customWidth="1"/>
+    <col min="1541" max="1541" width="3.90625" style="12" customWidth="1"/>
+    <col min="1542" max="1542" width="6.08984375" style="12" customWidth="1"/>
+    <col min="1543" max="1543" width="17.54296875" style="12" customWidth="1"/>
+    <col min="1544" max="1544" width="20.7265625" style="12" customWidth="1"/>
+    <col min="1545" max="1545" width="8.26953125" style="12" customWidth="1"/>
+    <col min="1546" max="1547" width="5.54296875" style="12" customWidth="1"/>
+    <col min="1548" max="1549" width="7.1796875" style="12" customWidth="1"/>
+    <col min="1550" max="1550" width="8.453125" style="12" customWidth="1"/>
+    <col min="1551" max="1552" width="5.54296875" style="12" customWidth="1"/>
+    <col min="1553" max="1554" width="5" style="12" customWidth="1"/>
+    <col min="1555" max="1559" width="5.54296875" style="12" customWidth="1"/>
+    <col min="1560" max="1560" width="6.08984375" style="12" customWidth="1"/>
+    <col min="1561" max="1562" width="9.36328125" style="12" customWidth="1"/>
+    <col min="1563" max="1563" width="7.1796875" style="12" customWidth="1"/>
+    <col min="1564" max="1564" width="12" style="12" customWidth="1"/>
+    <col min="1565" max="1565" width="8.26953125" style="12" customWidth="1"/>
+    <col min="1566" max="1566" width="11.54296875" style="12" customWidth="1"/>
+    <col min="1567" max="1568" width="6.08984375" style="12" customWidth="1"/>
+    <col min="1569" max="1569" width="12.90625" style="12" customWidth="1"/>
+    <col min="1570" max="1571" width="7.1796875" style="12" customWidth="1"/>
+    <col min="1572" max="1795" width="13.7265625" style="12"/>
+    <col min="1796" max="1796" width="5" style="12" customWidth="1"/>
+    <col min="1797" max="1797" width="3.90625" style="12" customWidth="1"/>
+    <col min="1798" max="1798" width="6.08984375" style="12" customWidth="1"/>
+    <col min="1799" max="1799" width="17.54296875" style="12" customWidth="1"/>
+    <col min="1800" max="1800" width="20.7265625" style="12" customWidth="1"/>
+    <col min="1801" max="1801" width="8.26953125" style="12" customWidth="1"/>
+    <col min="1802" max="1803" width="5.54296875" style="12" customWidth="1"/>
+    <col min="1804" max="1805" width="7.1796875" style="12" customWidth="1"/>
+    <col min="1806" max="1806" width="8.453125" style="12" customWidth="1"/>
+    <col min="1807" max="1808" width="5.54296875" style="12" customWidth="1"/>
+    <col min="1809" max="1810" width="5" style="12" customWidth="1"/>
+    <col min="1811" max="1815" width="5.54296875" style="12" customWidth="1"/>
+    <col min="1816" max="1816" width="6.08984375" style="12" customWidth="1"/>
+    <col min="1817" max="1818" width="9.36328125" style="12" customWidth="1"/>
+    <col min="1819" max="1819" width="7.1796875" style="12" customWidth="1"/>
+    <col min="1820" max="1820" width="12" style="12" customWidth="1"/>
+    <col min="1821" max="1821" width="8.26953125" style="12" customWidth="1"/>
+    <col min="1822" max="1822" width="11.54296875" style="12" customWidth="1"/>
+    <col min="1823" max="1824" width="6.08984375" style="12" customWidth="1"/>
+    <col min="1825" max="1825" width="12.90625" style="12" customWidth="1"/>
+    <col min="1826" max="1827" width="7.1796875" style="12" customWidth="1"/>
+    <col min="1828" max="2051" width="13.7265625" style="12"/>
+    <col min="2052" max="2052" width="5" style="12" customWidth="1"/>
+    <col min="2053" max="2053" width="3.90625" style="12" customWidth="1"/>
+    <col min="2054" max="2054" width="6.08984375" style="12" customWidth="1"/>
+    <col min="2055" max="2055" width="17.54296875" style="12" customWidth="1"/>
+    <col min="2056" max="2056" width="20.7265625" style="12" customWidth="1"/>
+    <col min="2057" max="2057" width="8.26953125" style="12" customWidth="1"/>
+    <col min="2058" max="2059" width="5.54296875" style="12" customWidth="1"/>
+    <col min="2060" max="2061" width="7.1796875" style="12" customWidth="1"/>
+    <col min="2062" max="2062" width="8.453125" style="12" customWidth="1"/>
+    <col min="2063" max="2064" width="5.54296875" style="12" customWidth="1"/>
+    <col min="2065" max="2066" width="5" style="12" customWidth="1"/>
+    <col min="2067" max="2071" width="5.54296875" style="12" customWidth="1"/>
+    <col min="2072" max="2072" width="6.08984375" style="12" customWidth="1"/>
+    <col min="2073" max="2074" width="9.36328125" style="12" customWidth="1"/>
+    <col min="2075" max="2075" width="7.1796875" style="12" customWidth="1"/>
+    <col min="2076" max="2076" width="12" style="12" customWidth="1"/>
+    <col min="2077" max="2077" width="8.26953125" style="12" customWidth="1"/>
+    <col min="2078" max="2078" width="11.54296875" style="12" customWidth="1"/>
+    <col min="2079" max="2080" width="6.08984375" style="12" customWidth="1"/>
+    <col min="2081" max="2081" width="12.90625" style="12" customWidth="1"/>
+    <col min="2082" max="2083" width="7.1796875" style="12" customWidth="1"/>
+    <col min="2084" max="2307" width="13.7265625" style="12"/>
+    <col min="2308" max="2308" width="5" style="12" customWidth="1"/>
+    <col min="2309" max="2309" width="3.90625" style="12" customWidth="1"/>
+    <col min="2310" max="2310" width="6.08984375" style="12" customWidth="1"/>
+    <col min="2311" max="2311" width="17.54296875" style="12" customWidth="1"/>
+    <col min="2312" max="2312" width="20.7265625" style="12" customWidth="1"/>
+    <col min="2313" max="2313" width="8.26953125" style="12" customWidth="1"/>
+    <col min="2314" max="2315" width="5.54296875" style="12" customWidth="1"/>
+    <col min="2316" max="2317" width="7.1796875" style="12" customWidth="1"/>
+    <col min="2318" max="2318" width="8.453125" style="12" customWidth="1"/>
+    <col min="2319" max="2320" width="5.54296875" style="12" customWidth="1"/>
+    <col min="2321" max="2322" width="5" style="12" customWidth="1"/>
+    <col min="2323" max="2327" width="5.54296875" style="12" customWidth="1"/>
+    <col min="2328" max="2328" width="6.08984375" style="12" customWidth="1"/>
+    <col min="2329" max="2330" width="9.36328125" style="12" customWidth="1"/>
+    <col min="2331" max="2331" width="7.1796875" style="12" customWidth="1"/>
+    <col min="2332" max="2332" width="12" style="12" customWidth="1"/>
+    <col min="2333" max="2333" width="8.26953125" style="12" customWidth="1"/>
+    <col min="2334" max="2334" width="11.54296875" style="12" customWidth="1"/>
+    <col min="2335" max="2336" width="6.08984375" style="12" customWidth="1"/>
+    <col min="2337" max="2337" width="12.90625" style="12" customWidth="1"/>
+    <col min="2338" max="2339" width="7.1796875" style="12" customWidth="1"/>
+    <col min="2340" max="2563" width="13.7265625" style="12"/>
+    <col min="2564" max="2564" width="5" style="12" customWidth="1"/>
+    <col min="2565" max="2565" width="3.90625" style="12" customWidth="1"/>
+    <col min="2566" max="2566" width="6.08984375" style="12" customWidth="1"/>
+    <col min="2567" max="2567" width="17.54296875" style="12" customWidth="1"/>
+    <col min="2568" max="2568" width="20.7265625" style="12" customWidth="1"/>
+    <col min="2569" max="2569" width="8.26953125" style="12" customWidth="1"/>
+    <col min="2570" max="2571" width="5.54296875" style="12" customWidth="1"/>
+    <col min="2572" max="2573" width="7.1796875" style="12" customWidth="1"/>
+    <col min="2574" max="2574" width="8.453125" style="12" customWidth="1"/>
+    <col min="2575" max="2576" width="5.54296875" style="12" customWidth="1"/>
+    <col min="2577" max="2578" width="5" style="12" customWidth="1"/>
+    <col min="2579" max="2583" width="5.54296875" style="12" customWidth="1"/>
+    <col min="2584" max="2584" width="6.08984375" style="12" customWidth="1"/>
+    <col min="2585" max="2586" width="9.36328125" style="12" customWidth="1"/>
+    <col min="2587" max="2587" width="7.1796875" style="12" customWidth="1"/>
+    <col min="2588" max="2588" width="12" style="12" customWidth="1"/>
+    <col min="2589" max="2589" width="8.26953125" style="12" customWidth="1"/>
+    <col min="2590" max="2590" width="11.54296875" style="12" customWidth="1"/>
+    <col min="2591" max="2592" width="6.08984375" style="12" customWidth="1"/>
+    <col min="2593" max="2593" width="12.90625" style="12" customWidth="1"/>
+    <col min="2594" max="2595" width="7.1796875" style="12" customWidth="1"/>
+    <col min="2596" max="2819" width="13.7265625" style="12"/>
+    <col min="2820" max="2820" width="5" style="12" customWidth="1"/>
+    <col min="2821" max="2821" width="3.90625" style="12" customWidth="1"/>
+    <col min="2822" max="2822" width="6.08984375" style="12" customWidth="1"/>
+    <col min="2823" max="2823" width="17.54296875" style="12" customWidth="1"/>
+    <col min="2824" max="2824" width="20.7265625" style="12" customWidth="1"/>
+    <col min="2825" max="2825" width="8.26953125" style="12" customWidth="1"/>
+    <col min="2826" max="2827" width="5.54296875" style="12" customWidth="1"/>
+    <col min="2828" max="2829" width="7.1796875" style="12" customWidth="1"/>
+    <col min="2830" max="2830" width="8.453125" style="12" customWidth="1"/>
+    <col min="2831" max="2832" width="5.54296875" style="12" customWidth="1"/>
+    <col min="2833" max="2834" width="5" style="12" customWidth="1"/>
+    <col min="2835" max="2839" width="5.54296875" style="12" customWidth="1"/>
+    <col min="2840" max="2840" width="6.08984375" style="12" customWidth="1"/>
+    <col min="2841" max="2842" width="9.36328125" style="12" customWidth="1"/>
+    <col min="2843" max="2843" width="7.1796875" style="12" customWidth="1"/>
+    <col min="2844" max="2844" width="12" style="12" customWidth="1"/>
+    <col min="2845" max="2845" width="8.26953125" style="12" customWidth="1"/>
+    <col min="2846" max="2846" width="11.54296875" style="12" customWidth="1"/>
+    <col min="2847" max="2848" width="6.08984375" style="12" customWidth="1"/>
+    <col min="2849" max="2849" width="12.90625" style="12" customWidth="1"/>
+    <col min="2850" max="2851" width="7.1796875" style="12" customWidth="1"/>
+    <col min="2852" max="3075" width="13.7265625" style="12"/>
+    <col min="3076" max="3076" width="5" style="12" customWidth="1"/>
+    <col min="3077" max="3077" width="3.90625" style="12" customWidth="1"/>
+    <col min="3078" max="3078" width="6.08984375" style="12" customWidth="1"/>
+    <col min="3079" max="3079" width="17.54296875" style="12" customWidth="1"/>
+    <col min="3080" max="3080" width="20.7265625" style="12" customWidth="1"/>
+    <col min="3081" max="3081" width="8.26953125" style="12" customWidth="1"/>
+    <col min="3082" max="3083" width="5.54296875" style="12" customWidth="1"/>
+    <col min="3084" max="3085" width="7.1796875" style="12" customWidth="1"/>
+    <col min="3086" max="3086" width="8.453125" style="12" customWidth="1"/>
+    <col min="3087" max="3088" width="5.54296875" style="12" customWidth="1"/>
+    <col min="3089" max="3090" width="5" style="12" customWidth="1"/>
+    <col min="3091" max="3095" width="5.54296875" style="12" customWidth="1"/>
+    <col min="3096" max="3096" width="6.08984375" style="12" customWidth="1"/>
+    <col min="3097" max="3098" width="9.36328125" style="12" customWidth="1"/>
+    <col min="3099" max="3099" width="7.1796875" style="12" customWidth="1"/>
+    <col min="3100" max="3100" width="12" style="12" customWidth="1"/>
+    <col min="3101" max="3101" width="8.26953125" style="12" customWidth="1"/>
+    <col min="3102" max="3102" width="11.54296875" style="12" customWidth="1"/>
+    <col min="3103" max="3104" width="6.08984375" style="12" customWidth="1"/>
+    <col min="3105" max="3105" width="12.90625" style="12" customWidth="1"/>
+    <col min="3106" max="3107" width="7.1796875" style="12" customWidth="1"/>
+    <col min="3108" max="3331" width="13.7265625" style="12"/>
+    <col min="3332" max="3332" width="5" style="12" customWidth="1"/>
+    <col min="3333" max="3333" width="3.90625" style="12" customWidth="1"/>
+    <col min="3334" max="3334" width="6.08984375" style="12" customWidth="1"/>
+    <col min="3335" max="3335" width="17.54296875" style="12" customWidth="1"/>
+    <col min="3336" max="3336" width="20.7265625" style="12" customWidth="1"/>
+    <col min="3337" max="3337" width="8.26953125" style="12" customWidth="1"/>
+    <col min="3338" max="3339" width="5.54296875" style="12" customWidth="1"/>
+    <col min="3340" max="3341" width="7.1796875" style="12" customWidth="1"/>
+    <col min="3342" max="3342" width="8.453125" style="12" customWidth="1"/>
+    <col min="3343" max="3344" width="5.54296875" style="12" customWidth="1"/>
+    <col min="3345" max="3346" width="5" style="12" customWidth="1"/>
+    <col min="3347" max="3351" width="5.54296875" style="12" customWidth="1"/>
+    <col min="3352" max="3352" width="6.08984375" style="12" customWidth="1"/>
+    <col min="3353" max="3354" width="9.36328125" style="12" customWidth="1"/>
+    <col min="3355" max="3355" width="7.1796875" style="12" customWidth="1"/>
+    <col min="3356" max="3356" width="12" style="12" customWidth="1"/>
+    <col min="3357" max="3357" width="8.26953125" style="12" customWidth="1"/>
+    <col min="3358" max="3358" width="11.54296875" style="12" customWidth="1"/>
+    <col min="3359" max="3360" width="6.08984375" style="12" customWidth="1"/>
+    <col min="3361" max="3361" width="12.90625" style="12" customWidth="1"/>
+    <col min="3362" max="3363" width="7.1796875" style="12" customWidth="1"/>
+    <col min="3364" max="3587" width="13.7265625" style="12"/>
+    <col min="3588" max="3588" width="5" style="12" customWidth="1"/>
+    <col min="3589" max="3589" width="3.90625" style="12" customWidth="1"/>
+    <col min="3590" max="3590" width="6.08984375" style="12" customWidth="1"/>
+    <col min="3591" max="3591" width="17.54296875" style="12" customWidth="1"/>
+    <col min="3592" max="3592" width="20.7265625" style="12" customWidth="1"/>
+    <col min="3593" max="3593" width="8.26953125" style="12" customWidth="1"/>
+    <col min="3594" max="3595" width="5.54296875" style="12" customWidth="1"/>
+    <col min="3596" max="3597" width="7.1796875" style="12" customWidth="1"/>
+    <col min="3598" max="3598" width="8.453125" style="12" customWidth="1"/>
+    <col min="3599" max="3600" width="5.54296875" style="12" customWidth="1"/>
+    <col min="3601" max="3602" width="5" style="12" customWidth="1"/>
+    <col min="3603" max="3607" width="5.54296875" style="12" customWidth="1"/>
+    <col min="3608" max="3608" width="6.08984375" style="12" customWidth="1"/>
+    <col min="3609" max="3610" width="9.36328125" style="12" customWidth="1"/>
+    <col min="3611" max="3611" width="7.1796875" style="12" customWidth="1"/>
+    <col min="3612" max="3612" width="12" style="12" customWidth="1"/>
+    <col min="3613" max="3613" width="8.26953125" style="12" customWidth="1"/>
+    <col min="3614" max="3614" width="11.54296875" style="12" customWidth="1"/>
+    <col min="3615" max="3616" width="6.08984375" style="12" customWidth="1"/>
+    <col min="3617" max="3617" width="12.90625" style="12" customWidth="1"/>
+    <col min="3618" max="3619" width="7.1796875" style="12" customWidth="1"/>
+    <col min="3620" max="3843" width="13.7265625" style="12"/>
+    <col min="3844" max="3844" width="5" style="12" customWidth="1"/>
+    <col min="3845" max="3845" width="3.90625" style="12" customWidth="1"/>
+    <col min="3846" max="3846" width="6.08984375" style="12" customWidth="1"/>
+    <col min="3847" max="3847" width="17.54296875" style="12" customWidth="1"/>
+    <col min="3848" max="3848" width="20.7265625" style="12" customWidth="1"/>
+    <col min="3849" max="3849" width="8.26953125" style="12" customWidth="1"/>
+    <col min="3850" max="3851" width="5.54296875" style="12" customWidth="1"/>
+    <col min="3852" max="3853" width="7.1796875" style="12" customWidth="1"/>
+    <col min="3854" max="3854" width="8.453125" style="12" customWidth="1"/>
+    <col min="3855" max="3856" width="5.54296875" style="12" customWidth="1"/>
+    <col min="3857" max="3858" width="5" style="12" customWidth="1"/>
+    <col min="3859" max="3863" width="5.54296875" style="12" customWidth="1"/>
+    <col min="3864" max="3864" width="6.08984375" style="12" customWidth="1"/>
+    <col min="3865" max="3866" width="9.36328125" style="12" customWidth="1"/>
+    <col min="3867" max="3867" width="7.1796875" style="12" customWidth="1"/>
+    <col min="3868" max="3868" width="12" style="12" customWidth="1"/>
+    <col min="3869" max="3869" width="8.26953125" style="12" customWidth="1"/>
+    <col min="3870" max="3870" width="11.54296875" style="12" customWidth="1"/>
+    <col min="3871" max="3872" width="6.08984375" style="12" customWidth="1"/>
+    <col min="3873" max="3873" width="12.90625" style="12" customWidth="1"/>
+    <col min="3874" max="3875" width="7.1796875" style="12" customWidth="1"/>
+    <col min="3876" max="4099" width="13.7265625" style="12"/>
+    <col min="4100" max="4100" width="5" style="12" customWidth="1"/>
+    <col min="4101" max="4101" width="3.90625" style="12" customWidth="1"/>
+    <col min="4102" max="4102" width="6.08984375" style="12" customWidth="1"/>
+    <col min="4103" max="4103" width="17.54296875" style="12" customWidth="1"/>
+    <col min="4104" max="4104" width="20.7265625" style="12" customWidth="1"/>
+    <col min="4105" max="4105" width="8.26953125" style="12" customWidth="1"/>
+    <col min="4106" max="4107" width="5.54296875" style="12" customWidth="1"/>
+    <col min="4108" max="4109" width="7.1796875" style="12" customWidth="1"/>
+    <col min="4110" max="4110" width="8.453125" style="12" customWidth="1"/>
+    <col min="4111" max="4112" width="5.54296875" style="12" customWidth="1"/>
+    <col min="4113" max="4114" width="5" style="12" customWidth="1"/>
+    <col min="4115" max="4119" width="5.54296875" style="12" customWidth="1"/>
+    <col min="4120" max="4120" width="6.08984375" style="12" customWidth="1"/>
+    <col min="4121" max="4122" width="9.36328125" style="12" customWidth="1"/>
+    <col min="4123" max="4123" width="7.1796875" style="12" customWidth="1"/>
+    <col min="4124" max="4124" width="12" style="12" customWidth="1"/>
+    <col min="4125" max="4125" width="8.26953125" style="12" customWidth="1"/>
+    <col min="4126" max="4126" width="11.54296875" style="12" customWidth="1"/>
+    <col min="4127" max="4128" width="6.08984375" style="12" customWidth="1"/>
+    <col min="4129" max="4129" width="12.90625" style="12" customWidth="1"/>
+    <col min="4130" max="4131" width="7.1796875" style="12" customWidth="1"/>
+    <col min="4132" max="4355" width="13.7265625" style="12"/>
+    <col min="4356" max="4356" width="5" style="12" customWidth="1"/>
+    <col min="4357" max="4357" width="3.90625" style="12" customWidth="1"/>
+    <col min="4358" max="4358" width="6.08984375" style="12" customWidth="1"/>
+    <col min="4359" max="4359" width="17.54296875" style="12" customWidth="1"/>
+    <col min="4360" max="4360" width="20.7265625" style="12" customWidth="1"/>
+    <col min="4361" max="4361" width="8.26953125" style="12" customWidth="1"/>
+    <col min="4362" max="4363" width="5.54296875" style="12" customWidth="1"/>
+    <col min="4364" max="4365" width="7.1796875" style="12" customWidth="1"/>
+    <col min="4366" max="4366" width="8.453125" style="12" customWidth="1"/>
+    <col min="4367" max="4368" width="5.54296875" style="12" customWidth="1"/>
+    <col min="4369" max="4370" width="5" style="12" customWidth="1"/>
+    <col min="4371" max="4375" width="5.54296875" style="12" customWidth="1"/>
+    <col min="4376" max="4376" width="6.08984375" style="12" customWidth="1"/>
+    <col min="4377" max="4378" width="9.36328125" style="12" customWidth="1"/>
+    <col min="4379" max="4379" width="7.1796875" style="12" customWidth="1"/>
+    <col min="4380" max="4380" width="12" style="12" customWidth="1"/>
+    <col min="4381" max="4381" width="8.26953125" style="12" customWidth="1"/>
+    <col min="4382" max="4382" width="11.54296875" style="12" customWidth="1"/>
+    <col min="4383" max="4384" width="6.08984375" style="12" customWidth="1"/>
+    <col min="4385" max="4385" width="12.90625" style="12" customWidth="1"/>
+    <col min="4386" max="4387" width="7.1796875" style="12" customWidth="1"/>
+    <col min="4388" max="4611" width="13.7265625" style="12"/>
+    <col min="4612" max="4612" width="5" style="12" customWidth="1"/>
+    <col min="4613" max="4613" width="3.90625" style="12" customWidth="1"/>
+    <col min="4614" max="4614" width="6.08984375" style="12" customWidth="1"/>
+    <col min="4615" max="4615" width="17.54296875" style="12" customWidth="1"/>
+    <col min="4616" max="4616" width="20.7265625" style="12" customWidth="1"/>
+    <col min="4617" max="4617" width="8.26953125" style="12" customWidth="1"/>
+    <col min="4618" max="4619" width="5.54296875" style="12" customWidth="1"/>
+    <col min="4620" max="4621" width="7.1796875" style="12" customWidth="1"/>
+    <col min="4622" max="4622" width="8.453125" style="12" customWidth="1"/>
+    <col min="4623" max="4624" width="5.54296875" style="12" customWidth="1"/>
+    <col min="4625" max="4626" width="5" style="12" customWidth="1"/>
+    <col min="4627" max="4631" width="5.54296875" style="12" customWidth="1"/>
+    <col min="4632" max="4632" width="6.08984375" style="12" customWidth="1"/>
+    <col min="4633" max="4634" width="9.36328125" style="12" customWidth="1"/>
+    <col min="4635" max="4635" width="7.1796875" style="12" customWidth="1"/>
+    <col min="4636" max="4636" width="12" style="12" customWidth="1"/>
+    <col min="4637" max="4637" width="8.26953125" style="12" customWidth="1"/>
+    <col min="4638" max="4638" width="11.54296875" style="12" customWidth="1"/>
+    <col min="4639" max="4640" width="6.08984375" style="12" customWidth="1"/>
+    <col min="4641" max="4641" width="12.90625" style="12" customWidth="1"/>
+    <col min="4642" max="4643" width="7.1796875" style="12" customWidth="1"/>
+    <col min="4644" max="4867" width="13.7265625" style="12"/>
+    <col min="4868" max="4868" width="5" style="12" customWidth="1"/>
+    <col min="4869" max="4869" width="3.90625" style="12" customWidth="1"/>
+    <col min="4870" max="4870" width="6.08984375" style="12" customWidth="1"/>
+    <col min="4871" max="4871" width="17.54296875" style="12" customWidth="1"/>
+    <col min="4872" max="4872" width="20.7265625" style="12" customWidth="1"/>
+    <col min="4873" max="4873" width="8.26953125" style="12" customWidth="1"/>
+    <col min="4874" max="4875" width="5.54296875" style="12" customWidth="1"/>
+    <col min="4876" max="4877" width="7.1796875" style="12" customWidth="1"/>
+    <col min="4878" max="4878" width="8.453125" style="12" customWidth="1"/>
+    <col min="4879" max="4880" width="5.54296875" style="12" customWidth="1"/>
+    <col min="4881" max="4882" width="5" style="12" customWidth="1"/>
+    <col min="4883" max="4887" width="5.54296875" style="12" customWidth="1"/>
+    <col min="4888" max="4888" width="6.08984375" style="12" customWidth="1"/>
+    <col min="4889" max="4890" width="9.36328125" style="12" customWidth="1"/>
+    <col min="4891" max="4891" width="7.1796875" style="12" customWidth="1"/>
+    <col min="4892" max="4892" width="12" style="12" customWidth="1"/>
+    <col min="4893" max="4893" width="8.26953125" style="12" customWidth="1"/>
+    <col min="4894" max="4894" width="11.54296875" style="12" customWidth="1"/>
+    <col min="4895" max="4896" width="6.08984375" style="12" customWidth="1"/>
+    <col min="4897" max="4897" width="12.90625" style="12" customWidth="1"/>
+    <col min="4898" max="4899" width="7.1796875" style="12" customWidth="1"/>
+    <col min="4900" max="5123" width="13.7265625" style="12"/>
+    <col min="5124" max="5124" width="5" style="12" customWidth="1"/>
+    <col min="5125" max="5125" width="3.90625" style="12" customWidth="1"/>
+    <col min="5126" max="5126" width="6.08984375" style="12" customWidth="1"/>
+    <col min="5127" max="5127" width="17.54296875" style="12" customWidth="1"/>
+    <col min="5128" max="5128" width="20.7265625" style="12" customWidth="1"/>
+    <col min="5129" max="5129" width="8.26953125" style="12" customWidth="1"/>
+    <col min="5130" max="5131" width="5.54296875" style="12" customWidth="1"/>
+    <col min="5132" max="5133" width="7.1796875" style="12" customWidth="1"/>
+    <col min="5134" max="5134" width="8.453125" style="12" customWidth="1"/>
+    <col min="5135" max="5136" width="5.54296875" style="12" customWidth="1"/>
+    <col min="5137" max="5138" width="5" style="12" customWidth="1"/>
+    <col min="5139" max="5143" width="5.54296875" style="12" customWidth="1"/>
+    <col min="5144" max="5144" width="6.08984375" style="12" customWidth="1"/>
+    <col min="5145" max="5146" width="9.36328125" style="12" customWidth="1"/>
+    <col min="5147" max="5147" width="7.1796875" style="12" customWidth="1"/>
+    <col min="5148" max="5148" width="12" style="12" customWidth="1"/>
+    <col min="5149" max="5149" width="8.26953125" style="12" customWidth="1"/>
+    <col min="5150" max="5150" width="11.54296875" style="12" customWidth="1"/>
+    <col min="5151" max="5152" width="6.08984375" style="12" customWidth="1"/>
+    <col min="5153" max="5153" width="12.90625" style="12" customWidth="1"/>
+    <col min="5154" max="5155" width="7.1796875" style="12" customWidth="1"/>
+    <col min="5156" max="5379" width="13.7265625" style="12"/>
+    <col min="5380" max="5380" width="5" style="12" customWidth="1"/>
+    <col min="5381" max="5381" width="3.90625" style="12" customWidth="1"/>
+    <col min="5382" max="5382" width="6.08984375" style="12" customWidth="1"/>
+    <col min="5383" max="5383" width="17.54296875" style="12" customWidth="1"/>
+    <col min="5384" max="5384" width="20.7265625" style="12" customWidth="1"/>
+    <col min="5385" max="5385" width="8.26953125" style="12" customWidth="1"/>
+    <col min="5386" max="5387" width="5.54296875" style="12" customWidth="1"/>
+    <col min="5388" max="5389" width="7.1796875" style="12" customWidth="1"/>
+    <col min="5390" max="5390" width="8.453125" style="12" customWidth="1"/>
+    <col min="5391" max="5392" width="5.54296875" style="12" customWidth="1"/>
+    <col min="5393" max="5394" width="5" style="12" customWidth="1"/>
+    <col min="5395" max="5399" width="5.54296875" style="12" customWidth="1"/>
+    <col min="5400" max="5400" width="6.08984375" style="12" customWidth="1"/>
+    <col min="5401" max="5402" width="9.36328125" style="12" customWidth="1"/>
+    <col min="5403" max="5403" width="7.1796875" style="12" customWidth="1"/>
+    <col min="5404" max="5404" width="12" style="12" customWidth="1"/>
+    <col min="5405" max="5405" width="8.26953125" style="12" customWidth="1"/>
+    <col min="5406" max="5406" width="11.54296875" style="12" customWidth="1"/>
+    <col min="5407" max="5408" width="6.08984375" style="12" customWidth="1"/>
+    <col min="5409" max="5409" width="12.90625" style="12" customWidth="1"/>
+    <col min="5410" max="5411" width="7.1796875" style="12" customWidth="1"/>
+    <col min="5412" max="5635" width="13.7265625" style="12"/>
+    <col min="5636" max="5636" width="5" style="12" customWidth="1"/>
+    <col min="5637" max="5637" width="3.90625" style="12" customWidth="1"/>
+    <col min="5638" max="5638" width="6.08984375" style="12" customWidth="1"/>
+    <col min="5639" max="5639" width="17.54296875" style="12" customWidth="1"/>
+    <col min="5640" max="5640" width="20.7265625" style="12" customWidth="1"/>
+    <col min="5641" max="5641" width="8.26953125" style="12" customWidth="1"/>
+    <col min="5642" max="5643" width="5.54296875" style="12" customWidth="1"/>
+    <col min="5644" max="5645" width="7.1796875" style="12" customWidth="1"/>
+    <col min="5646" max="5646" width="8.453125" style="12" customWidth="1"/>
+    <col min="5647" max="5648" width="5.54296875" style="12" customWidth="1"/>
+    <col min="5649" max="5650" width="5" style="12" customWidth="1"/>
+    <col min="5651" max="5655" width="5.54296875" style="12" customWidth="1"/>
+    <col min="5656" max="5656" width="6.08984375" style="12" customWidth="1"/>
+    <col min="5657" max="5658" width="9.36328125" style="12" customWidth="1"/>
+    <col min="5659" max="5659" width="7.1796875" style="12" customWidth="1"/>
+    <col min="5660" max="5660" width="12" style="12" customWidth="1"/>
+    <col min="5661" max="5661" width="8.26953125" style="12" customWidth="1"/>
+    <col min="5662" max="5662" width="11.54296875" style="12" customWidth="1"/>
+    <col min="5663" max="5664" width="6.08984375" style="12" customWidth="1"/>
+    <col min="5665" max="5665" width="12.90625" style="12" customWidth="1"/>
+    <col min="5666" max="5667" width="7.1796875" style="12" customWidth="1"/>
+    <col min="5668" max="5891" width="13.7265625" style="12"/>
+    <col min="5892" max="5892" width="5" style="12" customWidth="1"/>
+    <col min="5893" max="5893" width="3.90625" style="12" customWidth="1"/>
+    <col min="5894" max="5894" width="6.08984375" style="12" customWidth="1"/>
+    <col min="5895" max="5895" width="17.54296875" style="12" customWidth="1"/>
+    <col min="5896" max="5896" width="20.7265625" style="12" customWidth="1"/>
+    <col min="5897" max="5897" width="8.26953125" style="12" customWidth="1"/>
+    <col min="5898" max="5899" width="5.54296875" style="12" customWidth="1"/>
+    <col min="5900" max="5901" width="7.1796875" style="12" customWidth="1"/>
+    <col min="5902" max="5902" width="8.453125" style="12" customWidth="1"/>
+    <col min="5903" max="5904" width="5.54296875" style="12" customWidth="1"/>
+    <col min="5905" max="5906" width="5" style="12" customWidth="1"/>
+    <col min="5907" max="5911" width="5.54296875" style="12" customWidth="1"/>
+    <col min="5912" max="5912" width="6.08984375" style="12" customWidth="1"/>
+    <col min="5913" max="5914" width="9.36328125" style="12" customWidth="1"/>
+    <col min="5915" max="5915" width="7.1796875" style="12" customWidth="1"/>
+    <col min="5916" max="5916" width="12" style="12" customWidth="1"/>
+    <col min="5917" max="5917" width="8.26953125" style="12" customWidth="1"/>
+    <col min="5918" max="5918" width="11.54296875" style="12" customWidth="1"/>
+    <col min="5919" max="5920" width="6.08984375" style="12" customWidth="1"/>
+    <col min="5921" max="5921" width="12.90625" style="12" customWidth="1"/>
+    <col min="5922" max="5923" width="7.1796875" style="12" customWidth="1"/>
+    <col min="5924" max="6147" width="13.7265625" style="12"/>
+    <col min="6148" max="6148" width="5" style="12" customWidth="1"/>
+    <col min="6149" max="6149" width="3.90625" style="12" customWidth="1"/>
+    <col min="6150" max="6150" width="6.08984375" style="12" customWidth="1"/>
+    <col min="6151" max="6151" width="17.54296875" style="12" customWidth="1"/>
+    <col min="6152" max="6152" width="20.7265625" style="12" customWidth="1"/>
+    <col min="6153" max="6153" width="8.26953125" style="12" customWidth="1"/>
+    <col min="6154" max="6155" width="5.54296875" style="12" customWidth="1"/>
+    <col min="6156" max="6157" width="7.1796875" style="12" customWidth="1"/>
+    <col min="6158" max="6158" width="8.453125" style="12" customWidth="1"/>
+    <col min="6159" max="6160" width="5.54296875" style="12" customWidth="1"/>
+    <col min="6161" max="6162" width="5" style="12" customWidth="1"/>
+    <col min="6163" max="6167" width="5.54296875" style="12" customWidth="1"/>
+    <col min="6168" max="6168" width="6.08984375" style="12" customWidth="1"/>
+    <col min="6169" max="6170" width="9.36328125" style="12" customWidth="1"/>
+    <col min="6171" max="6171" width="7.1796875" style="12" customWidth="1"/>
+    <col min="6172" max="6172" width="12" style="12" customWidth="1"/>
+    <col min="6173" max="6173" width="8.26953125" style="12" customWidth="1"/>
+    <col min="6174" max="6174" width="11.54296875" style="12" customWidth="1"/>
+    <col min="6175" max="6176" width="6.08984375" style="12" customWidth="1"/>
+    <col min="6177" max="6177" width="12.90625" style="12" customWidth="1"/>
+    <col min="6178" max="6179" width="7.1796875" style="12" customWidth="1"/>
+    <col min="6180" max="6403" width="13.7265625" style="12"/>
+    <col min="6404" max="6404" width="5" style="12" customWidth="1"/>
+    <col min="6405" max="6405" width="3.90625" style="12" customWidth="1"/>
+    <col min="6406" max="6406" width="6.08984375" style="12" customWidth="1"/>
+    <col min="6407" max="6407" width="17.54296875" style="12" customWidth="1"/>
+    <col min="6408" max="6408" width="20.7265625" style="12" customWidth="1"/>
+    <col min="6409" max="6409" width="8.26953125" style="12" customWidth="1"/>
+    <col min="6410" max="6411" width="5.54296875" style="12" customWidth="1"/>
+    <col min="6412" max="6413" width="7.1796875" style="12" customWidth="1"/>
+    <col min="6414" max="6414" width="8.453125" style="12" customWidth="1"/>
+    <col min="6415" max="6416" width="5.54296875" style="12" customWidth="1"/>
+    <col min="6417" max="6418" width="5" style="12" customWidth="1"/>
+    <col min="6419" max="6423" width="5.54296875" style="12" customWidth="1"/>
+    <col min="6424" max="6424" width="6.08984375" style="12" customWidth="1"/>
+    <col min="6425" max="6426" width="9.36328125" style="12" customWidth="1"/>
+    <col min="6427" max="6427" width="7.1796875" style="12" customWidth="1"/>
+    <col min="6428" max="6428" width="12" style="12" customWidth="1"/>
+    <col min="6429" max="6429" width="8.26953125" style="12" customWidth="1"/>
+    <col min="6430" max="6430" width="11.54296875" style="12" customWidth="1"/>
+    <col min="6431" max="6432" width="6.08984375" style="12" customWidth="1"/>
+    <col min="6433" max="6433" width="12.90625" style="12" customWidth="1"/>
+    <col min="6434" max="6435" width="7.1796875" style="12" customWidth="1"/>
+    <col min="6436" max="6659" width="13.7265625" style="12"/>
+    <col min="6660" max="6660" width="5" style="12" customWidth="1"/>
+    <col min="6661" max="6661" width="3.90625" style="12" customWidth="1"/>
+    <col min="6662" max="6662" width="6.08984375" style="12" customWidth="1"/>
+    <col min="6663" max="6663" width="17.54296875" style="12" customWidth="1"/>
+    <col min="6664" max="6664" width="20.7265625" style="12" customWidth="1"/>
+    <col min="6665" max="6665" width="8.26953125" style="12" customWidth="1"/>
+    <col min="6666" max="6667" width="5.54296875" style="12" customWidth="1"/>
+    <col min="6668" max="6669" width="7.1796875" style="12" customWidth="1"/>
+    <col min="6670" max="6670" width="8.453125" style="12" customWidth="1"/>
+    <col min="6671" max="6672" width="5.54296875" style="12" customWidth="1"/>
+    <col min="6673" max="6674" width="5" style="12" customWidth="1"/>
+    <col min="6675" max="6679" width="5.54296875" style="12" customWidth="1"/>
+    <col min="6680" max="6680" width="6.08984375" style="12" customWidth="1"/>
+    <col min="6681" max="6682" width="9.36328125" style="12" customWidth="1"/>
+    <col min="6683" max="6683" width="7.1796875" style="12" customWidth="1"/>
+    <col min="6684" max="6684" width="12" style="12" customWidth="1"/>
+    <col min="6685" max="6685" width="8.26953125" style="12" customWidth="1"/>
+    <col min="6686" max="6686" width="11.54296875" style="12" customWidth="1"/>
+    <col min="6687" max="6688" width="6.08984375" style="12" customWidth="1"/>
+    <col min="6689" max="6689" width="12.90625" style="12" customWidth="1"/>
+    <col min="6690" max="6691" width="7.1796875" style="12" customWidth="1"/>
+    <col min="6692" max="6915" width="13.7265625" style="12"/>
+    <col min="6916" max="6916" width="5" style="12" customWidth="1"/>
+    <col min="6917" max="6917" width="3.90625" style="12" customWidth="1"/>
+    <col min="6918" max="6918" width="6.08984375" style="12" customWidth="1"/>
+    <col min="6919" max="6919" width="17.54296875" style="12" customWidth="1"/>
+    <col min="6920" max="6920" width="20.7265625" style="12" customWidth="1"/>
+    <col min="6921" max="6921" width="8.26953125" style="12" customWidth="1"/>
+    <col min="6922" max="6923" width="5.54296875" style="12" customWidth="1"/>
+    <col min="6924" max="6925" width="7.1796875" style="12" customWidth="1"/>
+    <col min="6926" max="6926" width="8.453125" style="12" customWidth="1"/>
+    <col min="6927" max="6928" width="5.54296875" style="12" customWidth="1"/>
+    <col min="6929" max="6930" width="5" style="12" customWidth="1"/>
+    <col min="6931" max="6935" width="5.54296875" style="12" customWidth="1"/>
+    <col min="6936" max="6936" width="6.08984375" style="12" customWidth="1"/>
+    <col min="6937" max="6938" width="9.36328125" style="12" customWidth="1"/>
+    <col min="6939" max="6939" width="7.1796875" style="12" customWidth="1"/>
+    <col min="6940" max="6940" width="12" style="12" customWidth="1"/>
+    <col min="6941" max="6941" width="8.26953125" style="12" customWidth="1"/>
+    <col min="6942" max="6942" width="11.54296875" style="12" customWidth="1"/>
+    <col min="6943" max="6944" width="6.08984375" style="12" customWidth="1"/>
+    <col min="6945" max="6945" width="12.90625" style="12" customWidth="1"/>
+    <col min="6946" max="6947" width="7.1796875" style="12" customWidth="1"/>
+    <col min="6948" max="7171" width="13.7265625" style="12"/>
+    <col min="7172" max="7172" width="5" style="12" customWidth="1"/>
+    <col min="7173" max="7173" width="3.90625" style="12" customWidth="1"/>
+    <col min="7174" max="7174" width="6.08984375" style="12" customWidth="1"/>
+    <col min="7175" max="7175" width="17.54296875" style="12" customWidth="1"/>
+    <col min="7176" max="7176" width="20.7265625" style="12" customWidth="1"/>
+    <col min="7177" max="7177" width="8.26953125" style="12" customWidth="1"/>
+    <col min="7178" max="7179" width="5.54296875" style="12" customWidth="1"/>
+    <col min="7180" max="7181" width="7.1796875" style="12" customWidth="1"/>
+    <col min="7182" max="7182" width="8.453125" style="12" customWidth="1"/>
+    <col min="7183" max="7184" width="5.54296875" style="12" customWidth="1"/>
+    <col min="7185" max="7186" width="5" style="12" customWidth="1"/>
+    <col min="7187" max="7191" width="5.54296875" style="12" customWidth="1"/>
+    <col min="7192" max="7192" width="6.08984375" style="12" customWidth="1"/>
+    <col min="7193" max="7194" width="9.36328125" style="12" customWidth="1"/>
+    <col min="7195" max="7195" width="7.1796875" style="12" customWidth="1"/>
+    <col min="7196" max="7196" width="12" style="12" customWidth="1"/>
+    <col min="7197" max="7197" width="8.26953125" style="12" customWidth="1"/>
+    <col min="7198" max="7198" width="11.54296875" style="12" customWidth="1"/>
+    <col min="7199" max="7200" width="6.08984375" style="12" customWidth="1"/>
+    <col min="7201" max="7201" width="12.90625" style="12" customWidth="1"/>
+    <col min="7202" max="7203" width="7.1796875" style="12" customWidth="1"/>
+    <col min="7204" max="7427" width="13.7265625" style="12"/>
+    <col min="7428" max="7428" width="5" style="12" customWidth="1"/>
+    <col min="7429" max="7429" width="3.90625" style="12" customWidth="1"/>
+    <col min="7430" max="7430" width="6.08984375" style="12" customWidth="1"/>
+    <col min="7431" max="7431" width="17.54296875" style="12" customWidth="1"/>
+    <col min="7432" max="7432" width="20.7265625" style="12" customWidth="1"/>
+    <col min="7433" max="7433" width="8.26953125" style="12" customWidth="1"/>
+    <col min="7434" max="7435" width="5.54296875" style="12" customWidth="1"/>
+    <col min="7436" max="7437" width="7.1796875" style="12" customWidth="1"/>
+    <col min="7438" max="7438" width="8.453125" style="12" customWidth="1"/>
+    <col min="7439" max="7440" width="5.54296875" style="12" customWidth="1"/>
+    <col min="7441" max="7442" width="5" style="12" customWidth="1"/>
+    <col min="7443" max="7447" width="5.54296875" style="12" customWidth="1"/>
+    <col min="7448" max="7448" width="6.08984375" style="12" customWidth="1"/>
+    <col min="7449" max="7450" width="9.36328125" style="12" customWidth="1"/>
+    <col min="7451" max="7451" width="7.1796875" style="12" customWidth="1"/>
+    <col min="7452" max="7452" width="12" style="12" customWidth="1"/>
+    <col min="7453" max="7453" width="8.26953125" style="12" customWidth="1"/>
+    <col min="7454" max="7454" width="11.54296875" style="12" customWidth="1"/>
+    <col min="7455" max="7456" width="6.08984375" style="12" customWidth="1"/>
+    <col min="7457" max="7457" width="12.90625" style="12" customWidth="1"/>
+    <col min="7458" max="7459" width="7.1796875" style="12" customWidth="1"/>
+    <col min="7460" max="7683" width="13.7265625" style="12"/>
+    <col min="7684" max="7684" width="5" style="12" customWidth="1"/>
+    <col min="7685" max="7685" width="3.90625" style="12" customWidth="1"/>
+    <col min="7686" max="7686" width="6.08984375" style="12" customWidth="1"/>
+    <col min="7687" max="7687" width="17.54296875" style="12" customWidth="1"/>
+    <col min="7688" max="7688" width="20.7265625" style="12" customWidth="1"/>
+    <col min="7689" max="7689" width="8.26953125" style="12" customWidth="1"/>
+    <col min="7690" max="7691" width="5.54296875" style="12" customWidth="1"/>
+    <col min="7692" max="7693" width="7.1796875" style="12" customWidth="1"/>
+    <col min="7694" max="7694" width="8.453125" style="12" customWidth="1"/>
+    <col min="7695" max="7696" width="5.54296875" style="12" customWidth="1"/>
+    <col min="7697" max="7698" width="5" style="12" customWidth="1"/>
+    <col min="7699" max="7703" width="5.54296875" style="12" customWidth="1"/>
+    <col min="7704" max="7704" width="6.08984375" style="12" customWidth="1"/>
+    <col min="7705" max="7706" width="9.36328125" style="12" customWidth="1"/>
+    <col min="7707" max="7707" width="7.1796875" style="12" customWidth="1"/>
+    <col min="7708" max="7708" width="12" style="12" customWidth="1"/>
+    <col min="7709" max="7709" width="8.26953125" style="12" customWidth="1"/>
+    <col min="7710" max="7710" width="11.54296875" style="12" customWidth="1"/>
+    <col min="7711" max="7712" width="6.08984375" style="12" customWidth="1"/>
+    <col min="7713" max="7713" width="12.90625" style="12" customWidth="1"/>
+    <col min="7714" max="7715" width="7.1796875" style="12" customWidth="1"/>
+    <col min="7716" max="7939" width="13.7265625" style="12"/>
+    <col min="7940" max="7940" width="5" style="12" customWidth="1"/>
+    <col min="7941" max="7941" width="3.90625" style="12" customWidth="1"/>
+    <col min="7942" max="7942" width="6.08984375" style="12" customWidth="1"/>
+    <col min="7943" max="7943" width="17.54296875" style="12" customWidth="1"/>
+    <col min="7944" max="7944" width="20.7265625" style="12" customWidth="1"/>
+    <col min="7945" max="7945" width="8.26953125" style="12" customWidth="1"/>
+    <col min="7946" max="7947" width="5.54296875" style="12" customWidth="1"/>
+    <col min="7948" max="7949" width="7.1796875" style="12" customWidth="1"/>
+    <col min="7950" max="7950" width="8.453125" style="12" customWidth="1"/>
+    <col min="7951" max="7952" width="5.54296875" style="12" customWidth="1"/>
+    <col min="7953" max="7954" width="5" style="12" customWidth="1"/>
+    <col min="7955" max="7959" width="5.54296875" style="12" customWidth="1"/>
+    <col min="7960" max="7960" width="6.08984375" style="12" customWidth="1"/>
+    <col min="7961" max="7962" width="9.36328125" style="12" customWidth="1"/>
+    <col min="7963" max="7963" width="7.1796875" style="12" customWidth="1"/>
+    <col min="7964" max="7964" width="12" style="12" customWidth="1"/>
+    <col min="7965" max="7965" width="8.26953125" style="12" customWidth="1"/>
+    <col min="7966" max="7966" width="11.54296875" style="12" customWidth="1"/>
+    <col min="7967" max="7968" width="6.08984375" style="12" customWidth="1"/>
+    <col min="7969" max="7969" width="12.90625" style="12" customWidth="1"/>
+    <col min="7970" max="7971" width="7.1796875" style="12" customWidth="1"/>
+    <col min="7972" max="8195" width="13.7265625" style="12"/>
+    <col min="8196" max="8196" width="5" style="12" customWidth="1"/>
+    <col min="8197" max="8197" width="3.90625" style="12" customWidth="1"/>
+    <col min="8198" max="8198" width="6.08984375" style="12" customWidth="1"/>
+    <col min="8199" max="8199" width="17.54296875" style="12" customWidth="1"/>
+    <col min="8200" max="8200" width="20.7265625" style="12" customWidth="1"/>
+    <col min="8201" max="8201" width="8.26953125" style="12" customWidth="1"/>
+    <col min="8202" max="8203" width="5.54296875" style="12" customWidth="1"/>
+    <col min="8204" max="8205" width="7.1796875" style="12" customWidth="1"/>
+    <col min="8206" max="8206" width="8.453125" style="12" customWidth="1"/>
+    <col min="8207" max="8208" width="5.54296875" style="12" customWidth="1"/>
+    <col min="8209" max="8210" width="5" style="12" customWidth="1"/>
+    <col min="8211" max="8215" width="5.54296875" style="12" customWidth="1"/>
+    <col min="8216" max="8216" width="6.08984375" style="12" customWidth="1"/>
+    <col min="8217" max="8218" width="9.36328125" style="12" customWidth="1"/>
+    <col min="8219" max="8219" width="7.1796875" style="12" customWidth="1"/>
+    <col min="8220" max="8220" width="12" style="12" customWidth="1"/>
+    <col min="8221" max="8221" width="8.26953125" style="12" customWidth="1"/>
+    <col min="8222" max="8222" width="11.54296875" style="12" customWidth="1"/>
+    <col min="8223" max="8224" width="6.08984375" style="12" customWidth="1"/>
+    <col min="8225" max="8225" width="12.90625" style="12" customWidth="1"/>
+    <col min="8226" max="8227" width="7.1796875" style="12" customWidth="1"/>
+    <col min="8228" max="8451" width="13.7265625" style="12"/>
+    <col min="8452" max="8452" width="5" style="12" customWidth="1"/>
+    <col min="8453" max="8453" width="3.90625" style="12" customWidth="1"/>
+    <col min="8454" max="8454" width="6.08984375" style="12" customWidth="1"/>
+    <col min="8455" max="8455" width="17.54296875" style="12" customWidth="1"/>
+    <col min="8456" max="8456" width="20.7265625" style="12" customWidth="1"/>
+    <col min="8457" max="8457" width="8.26953125" style="12" customWidth="1"/>
+    <col min="8458" max="8459" width="5.54296875" style="12" customWidth="1"/>
+    <col min="8460" max="8461" width="7.1796875" style="12" customWidth="1"/>
+    <col min="8462" max="8462" width="8.453125" style="12" customWidth="1"/>
+    <col min="8463" max="8464" width="5.54296875" style="12" customWidth="1"/>
+    <col min="8465" max="8466" width="5" style="12" customWidth="1"/>
+    <col min="8467" max="8471" width="5.54296875" style="12" customWidth="1"/>
+    <col min="8472" max="8472" width="6.08984375" style="12" customWidth="1"/>
+    <col min="8473" max="8474" width="9.36328125" style="12" customWidth="1"/>
+    <col min="8475" max="8475" width="7.1796875" style="12" customWidth="1"/>
+    <col min="8476" max="8476" width="12" style="12" customWidth="1"/>
+    <col min="8477" max="8477" width="8.26953125" style="12" customWidth="1"/>
+    <col min="8478" max="8478" width="11.54296875" style="12" customWidth="1"/>
+    <col min="8479" max="8480" width="6.08984375" style="12" customWidth="1"/>
+    <col min="8481" max="8481" width="12.90625" style="12" customWidth="1"/>
+    <col min="8482" max="8483" width="7.1796875" style="12" customWidth="1"/>
+    <col min="8484" max="8707" width="13.7265625" style="12"/>
+    <col min="8708" max="8708" width="5" style="12" customWidth="1"/>
+    <col min="8709" max="8709" width="3.90625" style="12" customWidth="1"/>
+    <col min="8710" max="8710" width="6.08984375" style="12" customWidth="1"/>
+    <col min="8711" max="8711" width="17.54296875" style="12" customWidth="1"/>
+    <col min="8712" max="8712" width="20.7265625" style="12" customWidth="1"/>
+    <col min="8713" max="8713" width="8.26953125" style="12" customWidth="1"/>
+    <col min="8714" max="8715" width="5.54296875" style="12" customWidth="1"/>
+    <col min="8716" max="8717" width="7.1796875" style="12" customWidth="1"/>
+    <col min="8718" max="8718" width="8.453125" style="12" customWidth="1"/>
+    <col min="8719" max="8720" width="5.54296875" style="12" customWidth="1"/>
+    <col min="8721" max="8722" width="5" style="12" customWidth="1"/>
+    <col min="8723" max="8727" width="5.54296875" style="12" customWidth="1"/>
+    <col min="8728" max="8728" width="6.08984375" style="12" customWidth="1"/>
+    <col min="8729" max="8730" width="9.36328125" style="12" customWidth="1"/>
+    <col min="8731" max="8731" width="7.1796875" style="12" customWidth="1"/>
+    <col min="8732" max="8732" width="12" style="12" customWidth="1"/>
+    <col min="8733" max="8733" width="8.26953125" style="12" customWidth="1"/>
+    <col min="8734" max="8734" width="11.54296875" style="12" customWidth="1"/>
+    <col min="8735" max="8736" width="6.08984375" style="12" customWidth="1"/>
+    <col min="8737" max="8737" width="12.90625" style="12" customWidth="1"/>
+    <col min="8738" max="8739" width="7.1796875" style="12" customWidth="1"/>
+    <col min="8740" max="8963" width="13.7265625" style="12"/>
+    <col min="8964" max="8964" width="5" style="12" customWidth="1"/>
+    <col min="8965" max="8965" width="3.90625" style="12" customWidth="1"/>
+    <col min="8966" max="8966" width="6.08984375" style="12" customWidth="1"/>
+    <col min="8967" max="8967" width="17.54296875" style="12" customWidth="1"/>
+    <col min="8968" max="8968" width="20.7265625" style="12" customWidth="1"/>
+    <col min="8969" max="8969" width="8.26953125" style="12" customWidth="1"/>
+    <col min="8970" max="8971" width="5.54296875" style="12" customWidth="1"/>
+    <col min="8972" max="8973" width="7.1796875" style="12" customWidth="1"/>
+    <col min="8974" max="8974" width="8.453125" style="12" customWidth="1"/>
+    <col min="8975" max="8976" width="5.54296875" style="12" customWidth="1"/>
+    <col min="8977" max="8978" width="5" style="12" customWidth="1"/>
+    <col min="8979" max="8983" width="5.54296875" style="12" customWidth="1"/>
+    <col min="8984" max="8984" width="6.08984375" style="12" customWidth="1"/>
+    <col min="8985" max="8986" width="9.36328125" style="12" customWidth="1"/>
+    <col min="8987" max="8987" width="7.1796875" style="12" customWidth="1"/>
+    <col min="8988" max="8988" width="12" style="12" customWidth="1"/>
+    <col min="8989" max="8989" width="8.26953125" style="12" customWidth="1"/>
+    <col min="8990" max="8990" width="11.54296875" style="12" customWidth="1"/>
+    <col min="8991" max="8992" width="6.08984375" style="12" customWidth="1"/>
+    <col min="8993" max="8993" width="12.90625" style="12" customWidth="1"/>
+    <col min="8994" max="8995" width="7.1796875" style="12" customWidth="1"/>
+    <col min="8996" max="9219" width="13.7265625" style="12"/>
+    <col min="9220" max="9220" width="5" style="12" customWidth="1"/>
+    <col min="9221" max="9221" width="3.90625" style="12" customWidth="1"/>
+    <col min="9222" max="9222" width="6.08984375" style="12" customWidth="1"/>
+    <col min="9223" max="9223" width="17.54296875" style="12" customWidth="1"/>
+    <col min="9224" max="9224" width="20.7265625" style="12" customWidth="1"/>
+    <col min="9225" max="9225" width="8.26953125" style="12" customWidth="1"/>
+    <col min="9226" max="9227" width="5.54296875" style="12" customWidth="1"/>
+    <col min="9228" max="9229" width="7.1796875" style="12" customWidth="1"/>
+    <col min="9230" max="9230" width="8.453125" style="12" customWidth="1"/>
+    <col min="9231" max="9232" width="5.54296875" style="12" customWidth="1"/>
+    <col min="9233" max="9234" width="5" style="12" customWidth="1"/>
+    <col min="9235" max="9239" width="5.54296875" style="12" customWidth="1"/>
+    <col min="9240" max="9240" width="6.08984375" style="12" customWidth="1"/>
+    <col min="9241" max="9242" width="9.36328125" style="12" customWidth="1"/>
+    <col min="9243" max="9243" width="7.1796875" style="12" customWidth="1"/>
+    <col min="9244" max="9244" width="12" style="12" customWidth="1"/>
+    <col min="9245" max="9245" width="8.26953125" style="12" customWidth="1"/>
+    <col min="9246" max="9246" width="11.54296875" style="12" customWidth="1"/>
+    <col min="9247" max="9248" width="6.08984375" style="12" customWidth="1"/>
+    <col min="9249" max="9249" width="12.90625" style="12" customWidth="1"/>
+    <col min="9250" max="9251" width="7.1796875" style="12" customWidth="1"/>
+    <col min="9252" max="9475" width="13.7265625" style="12"/>
+    <col min="9476" max="9476" width="5" style="12" customWidth="1"/>
+    <col min="9477" max="9477" width="3.90625" style="12" customWidth="1"/>
+    <col min="9478" max="9478" width="6.08984375" style="12" customWidth="1"/>
+    <col min="9479" max="9479" width="17.54296875" style="12" customWidth="1"/>
+    <col min="9480" max="9480" width="20.7265625" style="12" customWidth="1"/>
+    <col min="9481" max="9481" width="8.26953125" style="12" customWidth="1"/>
+    <col min="9482" max="9483" width="5.54296875" style="12" customWidth="1"/>
+    <col min="9484" max="9485" width="7.1796875" style="12" customWidth="1"/>
+    <col min="9486" max="9486" width="8.453125" style="12" customWidth="1"/>
+    <col min="9487" max="9488" width="5.54296875" style="12" customWidth="1"/>
+    <col min="9489" max="9490" width="5" style="12" customWidth="1"/>
+    <col min="9491" max="9495" width="5.54296875" style="12" customWidth="1"/>
+    <col min="9496" max="9496" width="6.08984375" style="12" customWidth="1"/>
+    <col min="9497" max="9498" width="9.36328125" style="12" customWidth="1"/>
+    <col min="9499" max="9499" width="7.1796875" style="12" customWidth="1"/>
+    <col min="9500" max="9500" width="12" style="12" customWidth="1"/>
+    <col min="9501" max="9501" width="8.26953125" style="12" customWidth="1"/>
+    <col min="9502" max="9502" width="11.54296875" style="12" customWidth="1"/>
+    <col min="9503" max="9504" width="6.08984375" style="12" customWidth="1"/>
+    <col min="9505" max="9505" width="12.90625" style="12" customWidth="1"/>
+    <col min="9506" max="9507" width="7.1796875" style="12" customWidth="1"/>
+    <col min="9508" max="9731" width="13.7265625" style="12"/>
+    <col min="9732" max="9732" width="5" style="12" customWidth="1"/>
+    <col min="9733" max="9733" width="3.90625" style="12" customWidth="1"/>
+    <col min="9734" max="9734" width="6.08984375" style="12" customWidth="1"/>
+    <col min="9735" max="9735" width="17.54296875" style="12" customWidth="1"/>
+    <col min="9736" max="9736" width="20.7265625" style="12" customWidth="1"/>
+    <col min="9737" max="9737" width="8.26953125" style="12" customWidth="1"/>
+    <col min="9738" max="9739" width="5.54296875" style="12" customWidth="1"/>
+    <col min="9740" max="9741" width="7.1796875" style="12" customWidth="1"/>
+    <col min="9742" max="9742" width="8.453125" style="12" customWidth="1"/>
+    <col min="9743" max="9744" width="5.54296875" style="12" customWidth="1"/>
+    <col min="9745" max="9746" width="5" style="12" customWidth="1"/>
+    <col min="9747" max="9751" width="5.54296875" style="12" customWidth="1"/>
+    <col min="9752" max="9752" width="6.08984375" style="12" customWidth="1"/>
+    <col min="9753" max="9754" width="9.36328125" style="12" customWidth="1"/>
+    <col min="9755" max="9755" width="7.1796875" style="12" customWidth="1"/>
+    <col min="9756" max="9756" width="12" style="12" customWidth="1"/>
+    <col min="9757" max="9757" width="8.26953125" style="12" customWidth="1"/>
+    <col min="9758" max="9758" width="11.54296875" style="12" customWidth="1"/>
+    <col min="9759" max="9760" width="6.08984375" style="12" customWidth="1"/>
+    <col min="9761" max="9761" width="12.90625" style="12" customWidth="1"/>
+    <col min="9762" max="9763" width="7.1796875" style="12" customWidth="1"/>
+    <col min="9764" max="9987" width="13.7265625" style="12"/>
+    <col min="9988" max="9988" width="5" style="12" customWidth="1"/>
+    <col min="9989" max="9989" width="3.90625" style="12" customWidth="1"/>
+    <col min="9990" max="9990" width="6.08984375" style="12" customWidth="1"/>
+    <col min="9991" max="9991" width="17.54296875" style="12" customWidth="1"/>
+    <col min="9992" max="9992" width="20.7265625" style="12" customWidth="1"/>
+    <col min="9993" max="9993" width="8.26953125" style="12" customWidth="1"/>
+    <col min="9994" max="9995" width="5.54296875" style="12" customWidth="1"/>
+    <col min="9996" max="9997" width="7.1796875" style="12" customWidth="1"/>
+    <col min="9998" max="9998" width="8.453125" style="12" customWidth="1"/>
+    <col min="9999" max="10000" width="5.54296875" style="12" customWidth="1"/>
+    <col min="10001" max="10002" width="5" style="12" customWidth="1"/>
+    <col min="10003" max="10007" width="5.54296875" style="12" customWidth="1"/>
+    <col min="10008" max="10008" width="6.08984375" style="12" customWidth="1"/>
+    <col min="10009" max="10010" width="9.36328125" style="12" customWidth="1"/>
+    <col min="10011" max="10011" width="7.1796875" style="12" customWidth="1"/>
+    <col min="10012" max="10012" width="12" style="12" customWidth="1"/>
+    <col min="10013" max="10013" width="8.26953125" style="12" customWidth="1"/>
+    <col min="10014" max="10014" width="11.54296875" style="12" customWidth="1"/>
+    <col min="10015" max="10016" width="6.08984375" style="12" customWidth="1"/>
+    <col min="10017" max="10017" width="12.90625" style="12" customWidth="1"/>
+    <col min="10018" max="10019" width="7.1796875" style="12" customWidth="1"/>
+    <col min="10020" max="10243" width="13.7265625" style="12"/>
+    <col min="10244" max="10244" width="5" style="12" customWidth="1"/>
+    <col min="10245" max="10245" width="3.90625" style="12" customWidth="1"/>
+    <col min="10246" max="10246" width="6.08984375" style="12" customWidth="1"/>
+    <col min="10247" max="10247" width="17.54296875" style="12" customWidth="1"/>
+    <col min="10248" max="10248" width="20.7265625" style="12" customWidth="1"/>
+    <col min="10249" max="10249" width="8.26953125" style="12" customWidth="1"/>
+    <col min="10250" max="10251" width="5.54296875" style="12" customWidth="1"/>
+    <col min="10252" max="10253" width="7.1796875" style="12" customWidth="1"/>
+    <col min="10254" max="10254" width="8.453125" style="12" customWidth="1"/>
+    <col min="10255" max="10256" width="5.54296875" style="12" customWidth="1"/>
+    <col min="10257" max="10258" width="5" style="12" customWidth="1"/>
+    <col min="10259" max="10263" width="5.54296875" style="12" customWidth="1"/>
+    <col min="10264" max="10264" width="6.08984375" style="12" customWidth="1"/>
+    <col min="10265" max="10266" width="9.36328125" style="12" customWidth="1"/>
+    <col min="10267" max="10267" width="7.1796875" style="12" customWidth="1"/>
+    <col min="10268" max="10268" width="12" style="12" customWidth="1"/>
+    <col min="10269" max="10269" width="8.26953125" style="12" customWidth="1"/>
+    <col min="10270" max="10270" width="11.54296875" style="12" customWidth="1"/>
+    <col min="10271" max="10272" width="6.08984375" style="12" customWidth="1"/>
+    <col min="10273" max="10273" width="12.90625" style="12" customWidth="1"/>
+    <col min="10274" max="10275" width="7.1796875" style="12" customWidth="1"/>
+    <col min="10276" max="10499" width="13.7265625" style="12"/>
+    <col min="10500" max="10500" width="5" style="12" customWidth="1"/>
+    <col min="10501" max="10501" width="3.90625" style="12" customWidth="1"/>
+    <col min="10502" max="10502" width="6.08984375" style="12" customWidth="1"/>
+    <col min="10503" max="10503" width="17.54296875" style="12" customWidth="1"/>
+    <col min="10504" max="10504" width="20.7265625" style="12" customWidth="1"/>
+    <col min="10505" max="10505" width="8.26953125" style="12" customWidth="1"/>
+    <col min="10506" max="10507" width="5.54296875" style="12" customWidth="1"/>
+    <col min="10508" max="10509" width="7.1796875" style="12" customWidth="1"/>
+    <col min="10510" max="10510" width="8.453125" style="12" customWidth="1"/>
+    <col min="10511" max="10512" width="5.54296875" style="12" customWidth="1"/>
+    <col min="10513" max="10514" width="5" style="12" customWidth="1"/>
+    <col min="10515" max="10519" width="5.54296875" style="12" customWidth="1"/>
+    <col min="10520" max="10520" width="6.08984375" style="12" customWidth="1"/>
+    <col min="10521" max="10522" width="9.36328125" style="12" customWidth="1"/>
+    <col min="10523" max="10523" width="7.1796875" style="12" customWidth="1"/>
+    <col min="10524" max="10524" width="12" style="12" customWidth="1"/>
+    <col min="10525" max="10525" width="8.26953125" style="12" customWidth="1"/>
+    <col min="10526" max="10526" width="11.54296875" style="12" customWidth="1"/>
+    <col min="10527" max="10528" width="6.08984375" style="12" customWidth="1"/>
+    <col min="10529" max="10529" width="12.90625" style="12" customWidth="1"/>
+    <col min="10530" max="10531" width="7.1796875" style="12" customWidth="1"/>
+    <col min="10532" max="10755" width="13.7265625" style="12"/>
+    <col min="10756" max="10756" width="5" style="12" customWidth="1"/>
+    <col min="10757" max="10757" width="3.90625" style="12" customWidth="1"/>
+    <col min="10758" max="10758" width="6.08984375" style="12" customWidth="1"/>
+    <col min="10759" max="10759" width="17.54296875" style="12" customWidth="1"/>
+    <col min="10760" max="10760" width="20.7265625" style="12" customWidth="1"/>
+    <col min="10761" max="10761" width="8.26953125" style="12" customWidth="1"/>
+    <col min="10762" max="10763" width="5.54296875" style="12" customWidth="1"/>
+    <col min="10764" max="10765" width="7.1796875" style="12" customWidth="1"/>
+    <col min="10766" max="10766" width="8.453125" style="12" customWidth="1"/>
+    <col min="10767" max="10768" width="5.54296875" style="12" customWidth="1"/>
+    <col min="10769" max="10770" width="5" style="12" customWidth="1"/>
+    <col min="10771" max="10775" width="5.54296875" style="12" customWidth="1"/>
+    <col min="10776" max="10776" width="6.08984375" style="12" customWidth="1"/>
+    <col min="10777" max="10778" width="9.36328125" style="12" customWidth="1"/>
+    <col min="10779" max="10779" width="7.1796875" style="12" customWidth="1"/>
+    <col min="10780" max="10780" width="12" style="12" customWidth="1"/>
+    <col min="10781" max="10781" width="8.26953125" style="12" customWidth="1"/>
+    <col min="10782" max="10782" width="11.54296875" style="12" customWidth="1"/>
+    <col min="10783" max="10784" width="6.08984375" style="12" customWidth="1"/>
+    <col min="10785" max="10785" width="12.90625" style="12" customWidth="1"/>
+    <col min="10786" max="10787" width="7.1796875" style="12" customWidth="1"/>
+    <col min="10788" max="11011" width="13.7265625" style="12"/>
+    <col min="11012" max="11012" width="5" style="12" customWidth="1"/>
+    <col min="11013" max="11013" width="3.90625" style="12" customWidth="1"/>
+    <col min="11014" max="11014" width="6.08984375" style="12" customWidth="1"/>
+    <col min="11015" max="11015" width="17.54296875" style="12" customWidth="1"/>
+    <col min="11016" max="11016" width="20.7265625" style="12" customWidth="1"/>
+    <col min="11017" max="11017" width="8.26953125" style="12" customWidth="1"/>
+    <col min="11018" max="11019" width="5.54296875" style="12" customWidth="1"/>
+    <col min="11020" max="11021" width="7.1796875" style="12" customWidth="1"/>
+    <col min="11022" max="11022" width="8.453125" style="12" customWidth="1"/>
+    <col min="11023" max="11024" width="5.54296875" style="12" customWidth="1"/>
+    <col min="11025" max="11026" width="5" style="12" customWidth="1"/>
+    <col min="11027" max="11031" width="5.54296875" style="12" customWidth="1"/>
+    <col min="11032" max="11032" width="6.08984375" style="12" customWidth="1"/>
+    <col min="11033" max="11034" width="9.36328125" style="12" customWidth="1"/>
+    <col min="11035" max="11035" width="7.1796875" style="12" customWidth="1"/>
+    <col min="11036" max="11036" width="12" style="12" customWidth="1"/>
+    <col min="11037" max="11037" width="8.26953125" style="12" customWidth="1"/>
+    <col min="11038" max="11038" width="11.54296875" style="12" customWidth="1"/>
+    <col min="11039" max="11040" width="6.08984375" style="12" customWidth="1"/>
+    <col min="11041" max="11041" width="12.90625" style="12" customWidth="1"/>
+    <col min="11042" max="11043" width="7.1796875" style="12" customWidth="1"/>
+    <col min="11044" max="11267" width="13.7265625" style="12"/>
+    <col min="11268" max="11268" width="5" style="12" customWidth="1"/>
+    <col min="11269" max="11269" width="3.90625" style="12" customWidth="1"/>
+    <col min="11270" max="11270" width="6.08984375" style="12" customWidth="1"/>
+    <col min="11271" max="11271" width="17.54296875" style="12" customWidth="1"/>
+    <col min="11272" max="11272" width="20.7265625" style="12" customWidth="1"/>
+    <col min="11273" max="11273" width="8.26953125" style="12" customWidth="1"/>
+    <col min="11274" max="11275" width="5.54296875" style="12" customWidth="1"/>
+    <col min="11276" max="11277" width="7.1796875" style="12" customWidth="1"/>
+    <col min="11278" max="11278" width="8.453125" style="12" customWidth="1"/>
+    <col min="11279" max="11280" width="5.54296875" style="12" customWidth="1"/>
+    <col min="11281" max="11282" width="5" style="12" customWidth="1"/>
+    <col min="11283" max="11287" width="5.54296875" style="12" customWidth="1"/>
+    <col min="11288" max="11288" width="6.08984375" style="12" customWidth="1"/>
+    <col min="11289" max="11290" width="9.36328125" style="12" customWidth="1"/>
+    <col min="11291" max="11291" width="7.1796875" style="12" customWidth="1"/>
+    <col min="11292" max="11292" width="12" style="12" customWidth="1"/>
+    <col min="11293" max="11293" width="8.26953125" style="12" customWidth="1"/>
+    <col min="11294" max="11294" width="11.54296875" style="12" customWidth="1"/>
+    <col min="11295" max="11296" width="6.08984375" style="12" customWidth="1"/>
+    <col min="11297" max="11297" width="12.90625" style="12" customWidth="1"/>
+    <col min="11298" max="11299" width="7.1796875" style="12" customWidth="1"/>
+    <col min="11300" max="11523" width="13.7265625" style="12"/>
+    <col min="11524" max="11524" width="5" style="12" customWidth="1"/>
+    <col min="11525" max="11525" width="3.90625" style="12" customWidth="1"/>
+    <col min="11526" max="11526" width="6.08984375" style="12" customWidth="1"/>
+    <col min="11527" max="11527" width="17.54296875" style="12" customWidth="1"/>
+    <col min="11528" max="11528" width="20.7265625" style="12" customWidth="1"/>
+    <col min="11529" max="11529" width="8.26953125" style="12" customWidth="1"/>
+    <col min="11530" max="11531" width="5.54296875" style="12" customWidth="1"/>
+    <col min="11532" max="11533" width="7.1796875" style="12" customWidth="1"/>
+    <col min="11534" max="11534" width="8.453125" style="12" customWidth="1"/>
+    <col min="11535" max="11536" width="5.54296875" style="12" customWidth="1"/>
+    <col min="11537" max="11538" width="5" style="12" customWidth="1"/>
+    <col min="11539" max="11543" width="5.54296875" style="12" customWidth="1"/>
+    <col min="11544" max="11544" width="6.08984375" style="12" customWidth="1"/>
+    <col min="11545" max="11546" width="9.36328125" style="12" customWidth="1"/>
+    <col min="11547" max="11547" width="7.1796875" style="12" customWidth="1"/>
+    <col min="11548" max="11548" width="12" style="12" customWidth="1"/>
+    <col min="11549" max="11549" width="8.26953125" style="12" customWidth="1"/>
+    <col min="11550" max="11550" width="11.54296875" style="12" customWidth="1"/>
+    <col min="11551" max="11552" width="6.08984375" style="12" customWidth="1"/>
+    <col min="11553" max="11553" width="12.90625" style="12" customWidth="1"/>
+    <col min="11554" max="11555" width="7.1796875" style="12" customWidth="1"/>
+    <col min="11556" max="11779" width="13.7265625" style="12"/>
+    <col min="11780" max="11780" width="5" style="12" customWidth="1"/>
+    <col min="11781" max="11781" width="3.90625" style="12" customWidth="1"/>
+    <col min="11782" max="11782" width="6.08984375" style="12" customWidth="1"/>
+    <col min="11783" max="11783" width="17.54296875" style="12" customWidth="1"/>
+    <col min="11784" max="11784" width="20.7265625" style="12" customWidth="1"/>
+    <col min="11785" max="11785" width="8.26953125" style="12" customWidth="1"/>
+    <col min="11786" max="11787" width="5.54296875" style="12" customWidth="1"/>
+    <col min="11788" max="11789" width="7.1796875" style="12" customWidth="1"/>
+    <col min="11790" max="11790" width="8.453125" style="12" customWidth="1"/>
+    <col min="11791" max="11792" width="5.54296875" style="12" customWidth="1"/>
+    <col min="11793" max="11794" width="5" style="12" customWidth="1"/>
+    <col min="11795" max="11799" width="5.54296875" style="12" customWidth="1"/>
+    <col min="11800" max="11800" width="6.08984375" style="12" customWidth="1"/>
+    <col min="11801" max="11802" width="9.36328125" style="12" customWidth="1"/>
+    <col min="11803" max="11803" width="7.1796875" style="12" customWidth="1"/>
+    <col min="11804" max="11804" width="12" style="12" customWidth="1"/>
+    <col min="11805" max="11805" width="8.26953125" style="12" customWidth="1"/>
+    <col min="11806" max="11806" width="11.54296875" style="12" customWidth="1"/>
+    <col min="11807" max="11808" width="6.08984375" style="12" customWidth="1"/>
+    <col min="11809" max="11809" width="12.90625" style="12" customWidth="1"/>
+    <col min="11810" max="11811" width="7.1796875" style="12" customWidth="1"/>
+    <col min="11812" max="12035" width="13.7265625" style="12"/>
+    <col min="12036" max="12036" width="5" style="12" customWidth="1"/>
+    <col min="12037" max="12037" width="3.90625" style="12" customWidth="1"/>
+    <col min="12038" max="12038" width="6.08984375" style="12" customWidth="1"/>
+    <col min="12039" max="12039" width="17.54296875" style="12" customWidth="1"/>
+    <col min="12040" max="12040" width="20.7265625" style="12" customWidth="1"/>
+    <col min="12041" max="12041" width="8.26953125" style="12" customWidth="1"/>
+    <col min="12042" max="12043" width="5.54296875" style="12" customWidth="1"/>
+    <col min="12044" max="12045" width="7.1796875" style="12" customWidth="1"/>
+    <col min="12046" max="12046" width="8.453125" style="12" customWidth="1"/>
+    <col min="12047" max="12048" width="5.54296875" style="12" customWidth="1"/>
+    <col min="12049" max="12050" width="5" style="12" customWidth="1"/>
+    <col min="12051" max="12055" width="5.54296875" style="12" customWidth="1"/>
+    <col min="12056" max="12056" width="6.08984375" style="12" customWidth="1"/>
+    <col min="12057" max="12058" width="9.36328125" style="12" customWidth="1"/>
+    <col min="12059" max="12059" width="7.1796875" style="12" customWidth="1"/>
+    <col min="12060" max="12060" width="12" style="12" customWidth="1"/>
+    <col min="12061" max="12061" width="8.26953125" style="12" customWidth="1"/>
+    <col min="12062" max="12062" width="11.54296875" style="12" customWidth="1"/>
+    <col min="12063" max="12064" width="6.08984375" style="12" customWidth="1"/>
+    <col min="12065" max="12065" width="12.90625" style="12" customWidth="1"/>
+    <col min="12066" max="12067" width="7.1796875" style="12" customWidth="1"/>
+    <col min="12068" max="12291" width="13.7265625" style="12"/>
+    <col min="12292" max="12292" width="5" style="12" customWidth="1"/>
+    <col min="12293" max="12293" width="3.90625" style="12" customWidth="1"/>
+    <col min="12294" max="12294" width="6.08984375" style="12" customWidth="1"/>
+    <col min="12295" max="12295" width="17.54296875" style="12" customWidth="1"/>
+    <col min="12296" max="12296" width="20.7265625" style="12" customWidth="1"/>
+    <col min="12297" max="12297" width="8.26953125" style="12" customWidth="1"/>
+    <col min="12298" max="12299" width="5.54296875" style="12" customWidth="1"/>
+    <col min="12300" max="12301" width="7.1796875" style="12" customWidth="1"/>
+    <col min="12302" max="12302" width="8.453125" style="12" customWidth="1"/>
+    <col min="12303" max="12304" width="5.54296875" style="12" customWidth="1"/>
+    <col min="12305" max="12306" width="5" style="12" customWidth="1"/>
+    <col min="12307" max="12311" width="5.54296875" style="12" customWidth="1"/>
+    <col min="12312" max="12312" width="6.08984375" style="12" customWidth="1"/>
+    <col min="12313" max="12314" width="9.36328125" style="12" customWidth="1"/>
+    <col min="12315" max="12315" width="7.1796875" style="12" customWidth="1"/>
+    <col min="12316" max="12316" width="12" style="12" customWidth="1"/>
+    <col min="12317" max="12317" width="8.26953125" style="12" customWidth="1"/>
+    <col min="12318" max="12318" width="11.54296875" style="12" customWidth="1"/>
+    <col min="12319" max="12320" width="6.08984375" style="12" customWidth="1"/>
+    <col min="12321" max="12321" width="12.90625" style="12" customWidth="1"/>
+    <col min="12322" max="12323" width="7.1796875" style="12" customWidth="1"/>
+    <col min="12324" max="12547" width="13.7265625" style="12"/>
+    <col min="12548" max="12548" width="5" style="12" customWidth="1"/>
+    <col min="12549" max="12549" width="3.90625" style="12" customWidth="1"/>
+    <col min="12550" max="12550" width="6.08984375" style="12" customWidth="1"/>
+    <col min="12551" max="12551" width="17.54296875" style="12" customWidth="1"/>
+    <col min="12552" max="12552" width="20.7265625" style="12" customWidth="1"/>
+    <col min="12553" max="12553" width="8.26953125" style="12" customWidth="1"/>
+    <col min="12554" max="12555" width="5.54296875" style="12" customWidth="1"/>
+    <col min="12556" max="12557" width="7.1796875" style="12" customWidth="1"/>
+    <col min="12558" max="12558" width="8.453125" style="12" customWidth="1"/>
+    <col min="12559" max="12560" width="5.54296875" style="12" customWidth="1"/>
+    <col min="12561" max="12562" width="5" style="12" customWidth="1"/>
+    <col min="12563" max="12567" width="5.54296875" style="12" customWidth="1"/>
+    <col min="12568" max="12568" width="6.08984375" style="12" customWidth="1"/>
+    <col min="12569" max="12570" width="9.36328125" style="12" customWidth="1"/>
+    <col min="12571" max="12571" width="7.1796875" style="12" customWidth="1"/>
+    <col min="12572" max="12572" width="12" style="12" customWidth="1"/>
+    <col min="12573" max="12573" width="8.26953125" style="12" customWidth="1"/>
+    <col min="12574" max="12574" width="11.54296875" style="12" customWidth="1"/>
+    <col min="12575" max="12576" width="6.08984375" style="12" customWidth="1"/>
+    <col min="12577" max="12577" width="12.90625" style="12" customWidth="1"/>
+    <col min="12578" max="12579" width="7.1796875" style="12" customWidth="1"/>
+    <col min="12580" max="12803" width="13.7265625" style="12"/>
+    <col min="12804" max="12804" width="5" style="12" customWidth="1"/>
+    <col min="12805" max="12805" width="3.90625" style="12" customWidth="1"/>
+    <col min="12806" max="12806" width="6.08984375" style="12" customWidth="1"/>
+    <col min="12807" max="12807" width="17.54296875" style="12" customWidth="1"/>
+    <col min="12808" max="12808" width="20.7265625" style="12" customWidth="1"/>
+    <col min="12809" max="12809" width="8.26953125" style="12" customWidth="1"/>
+    <col min="12810" max="12811" width="5.54296875" style="12" customWidth="1"/>
+    <col min="12812" max="12813" width="7.1796875" style="12" customWidth="1"/>
+    <col min="12814" max="12814" width="8.453125" style="12" customWidth="1"/>
+    <col min="12815" max="12816" width="5.54296875" style="12" customWidth="1"/>
+    <col min="12817" max="12818" width="5" style="12" customWidth="1"/>
+    <col min="12819" max="12823" width="5.54296875" style="12" customWidth="1"/>
+    <col min="12824" max="12824" width="6.08984375" style="12" customWidth="1"/>
+    <col min="12825" max="12826" width="9.36328125" style="12" customWidth="1"/>
+    <col min="12827" max="12827" width="7.1796875" style="12" customWidth="1"/>
+    <col min="12828" max="12828" width="12" style="12" customWidth="1"/>
+    <col min="12829" max="12829" width="8.26953125" style="12" customWidth="1"/>
+    <col min="12830" max="12830" width="11.54296875" style="12" customWidth="1"/>
+    <col min="12831" max="12832" width="6.08984375" style="12" customWidth="1"/>
+    <col min="12833" max="12833" width="12.90625" style="12" customWidth="1"/>
+    <col min="12834" max="12835" width="7.1796875" style="12" customWidth="1"/>
+    <col min="12836" max="13059" width="13.7265625" style="12"/>
+    <col min="13060" max="13060" width="5" style="12" customWidth="1"/>
+    <col min="13061" max="13061" width="3.90625" style="12" customWidth="1"/>
+    <col min="13062" max="13062" width="6.08984375" style="12" customWidth="1"/>
+    <col min="13063" max="13063" width="17.54296875" style="12" customWidth="1"/>
+    <col min="13064" max="13064" width="20.7265625" style="12" customWidth="1"/>
+    <col min="13065" max="13065" width="8.26953125" style="12" customWidth="1"/>
+    <col min="13066" max="13067" width="5.54296875" style="12" customWidth="1"/>
+    <col min="13068" max="13069" width="7.1796875" style="12" customWidth="1"/>
+    <col min="13070" max="13070" width="8.453125" style="12" customWidth="1"/>
+    <col min="13071" max="13072" width="5.54296875" style="12" customWidth="1"/>
+    <col min="13073" max="13074" width="5" style="12" customWidth="1"/>
+    <col min="13075" max="13079" width="5.54296875" style="12" customWidth="1"/>
+    <col min="13080" max="13080" width="6.08984375" style="12" customWidth="1"/>
+    <col min="13081" max="13082" width="9.36328125" style="12" customWidth="1"/>
+    <col min="13083" max="13083" width="7.1796875" style="12" customWidth="1"/>
+    <col min="13084" max="13084" width="12" style="12" customWidth="1"/>
+    <col min="13085" max="13085" width="8.26953125" style="12" customWidth="1"/>
+    <col min="13086" max="13086" width="11.54296875" style="12" customWidth="1"/>
+    <col min="13087" max="13088" width="6.08984375" style="12" customWidth="1"/>
+    <col min="13089" max="13089" width="12.90625" style="12" customWidth="1"/>
+    <col min="13090" max="13091" width="7.1796875" style="12" customWidth="1"/>
+    <col min="13092" max="13315" width="13.7265625" style="12"/>
+    <col min="13316" max="13316" width="5" style="12" customWidth="1"/>
+    <col min="13317" max="13317" width="3.90625" style="12" customWidth="1"/>
+    <col min="13318" max="13318" width="6.08984375" style="12" customWidth="1"/>
+    <col min="13319" max="13319" width="17.54296875" style="12" customWidth="1"/>
+    <col min="13320" max="13320" width="20.7265625" style="12" customWidth="1"/>
+    <col min="13321" max="13321" width="8.26953125" style="12" customWidth="1"/>
+    <col min="13322" max="13323" width="5.54296875" style="12" customWidth="1"/>
+    <col min="13324" max="13325" width="7.1796875" style="12" customWidth="1"/>
+    <col min="13326" max="13326" width="8.453125" style="12" customWidth="1"/>
+    <col min="13327" max="13328" width="5.54296875" style="12" customWidth="1"/>
+    <col min="13329" max="13330" width="5" style="12" customWidth="1"/>
+    <col min="13331" max="13335" width="5.54296875" style="12" customWidth="1"/>
+    <col min="13336" max="13336" width="6.08984375" style="12" customWidth="1"/>
+    <col min="13337" max="13338" width="9.36328125" style="12" customWidth="1"/>
+    <col min="13339" max="13339" width="7.1796875" style="12" customWidth="1"/>
+    <col min="13340" max="13340" width="12" style="12" customWidth="1"/>
+    <col min="13341" max="13341" width="8.26953125" style="12" customWidth="1"/>
+    <col min="13342" max="13342" width="11.54296875" style="12" customWidth="1"/>
+    <col min="13343" max="13344" width="6.08984375" style="12" customWidth="1"/>
+    <col min="13345" max="13345" width="12.90625" style="12" customWidth="1"/>
+    <col min="13346" max="13347" width="7.1796875" style="12" customWidth="1"/>
+    <col min="13348" max="13571" width="13.7265625" style="12"/>
+    <col min="13572" max="13572" width="5" style="12" customWidth="1"/>
+    <col min="13573" max="13573" width="3.90625" style="12" customWidth="1"/>
+    <col min="13574" max="13574" width="6.08984375" style="12" customWidth="1"/>
+    <col min="13575" max="13575" width="17.54296875" style="12" customWidth="1"/>
+    <col min="13576" max="13576" width="20.7265625" style="12" customWidth="1"/>
+    <col min="13577" max="13577" width="8.26953125" style="12" customWidth="1"/>
+    <col min="13578" max="13579" width="5.54296875" style="12" customWidth="1"/>
+    <col min="13580" max="13581" width="7.1796875" style="12" customWidth="1"/>
+    <col min="13582" max="13582" width="8.453125" style="12" customWidth="1"/>
+    <col min="13583" max="13584" width="5.54296875" style="12" customWidth="1"/>
+    <col min="13585" max="13586" width="5" style="12" customWidth="1"/>
+    <col min="13587" max="13591" width="5.54296875" style="12" customWidth="1"/>
+    <col min="13592" max="13592" width="6.08984375" style="12" customWidth="1"/>
+    <col min="13593" max="13594" width="9.36328125" style="12" customWidth="1"/>
+    <col min="13595" max="13595" width="7.1796875" style="12" customWidth="1"/>
+    <col min="13596" max="13596" width="12" style="12" customWidth="1"/>
+    <col min="13597" max="13597" width="8.26953125" style="12" customWidth="1"/>
+    <col min="13598" max="13598" width="11.54296875" style="12" customWidth="1"/>
+    <col min="13599" max="13600" width="6.08984375" style="12" customWidth="1"/>
+    <col min="13601" max="13601" width="12.90625" style="12" customWidth="1"/>
+    <col min="13602" max="13603" width="7.1796875" style="12" customWidth="1"/>
+    <col min="13604" max="13827" width="13.7265625" style="12"/>
+    <col min="13828" max="13828" width="5" style="12" customWidth="1"/>
+    <col min="13829" max="13829" width="3.90625" style="12" customWidth="1"/>
+    <col min="13830" max="13830" width="6.08984375" style="12" customWidth="1"/>
+    <col min="13831" max="13831" width="17.54296875" style="12" customWidth="1"/>
+    <col min="13832" max="13832" width="20.7265625" style="12" customWidth="1"/>
+    <col min="13833" max="13833" width="8.26953125" style="12" customWidth="1"/>
+    <col min="13834" max="13835" width="5.54296875" style="12" customWidth="1"/>
+    <col min="13836" max="13837" width="7.1796875" style="12" customWidth="1"/>
+    <col min="13838" max="13838" width="8.453125" style="12" customWidth="1"/>
+    <col min="13839" max="13840" width="5.54296875" style="12" customWidth="1"/>
+    <col min="13841" max="13842" width="5" style="12" customWidth="1"/>
+    <col min="13843" max="13847" width="5.54296875" style="12" customWidth="1"/>
+    <col min="13848" max="13848" width="6.08984375" style="12" customWidth="1"/>
+    <col min="13849" max="13850" width="9.36328125" style="12" customWidth="1"/>
+    <col min="13851" max="13851" width="7.1796875" style="12" customWidth="1"/>
+    <col min="13852" max="13852" width="12" style="12" customWidth="1"/>
+    <col min="13853" max="13853" width="8.26953125" style="12" customWidth="1"/>
+    <col min="13854" max="13854" width="11.54296875" style="12" customWidth="1"/>
+    <col min="13855" max="13856" width="6.08984375" style="12" customWidth="1"/>
+    <col min="13857" max="13857" width="12.90625" style="12" customWidth="1"/>
+    <col min="13858" max="13859" width="7.1796875" style="12" customWidth="1"/>
+    <col min="13860" max="14083" width="13.7265625" style="12"/>
+    <col min="14084" max="14084" width="5" style="12" customWidth="1"/>
+    <col min="14085" max="14085" width="3.90625" style="12" customWidth="1"/>
+    <col min="14086" max="14086" width="6.08984375" style="12" customWidth="1"/>
+    <col min="14087" max="14087" width="17.54296875" style="12" customWidth="1"/>
+    <col min="14088" max="14088" width="20.7265625" style="12" customWidth="1"/>
+    <col min="14089" max="14089" width="8.26953125" style="12" customWidth="1"/>
+    <col min="14090" max="14091" width="5.54296875" style="12" customWidth="1"/>
+    <col min="14092" max="14093" width="7.1796875" style="12" customWidth="1"/>
+    <col min="14094" max="14094" width="8.453125" style="12" customWidth="1"/>
+    <col min="14095" max="14096" width="5.54296875" style="12" customWidth="1"/>
+    <col min="14097" max="14098" width="5" style="12" customWidth="1"/>
+    <col min="14099" max="14103" width="5.54296875" style="12" customWidth="1"/>
+    <col min="14104" max="14104" width="6.08984375" style="12" customWidth="1"/>
+    <col min="14105" max="14106" width="9.36328125" style="12" customWidth="1"/>
+    <col min="14107" max="14107" width="7.1796875" style="12" customWidth="1"/>
+    <col min="14108" max="14108" width="12" style="12" customWidth="1"/>
+    <col min="14109" max="14109" width="8.26953125" style="12" customWidth="1"/>
+    <col min="14110" max="14110" width="11.54296875" style="12" customWidth="1"/>
+    <col min="14111" max="14112" width="6.08984375" style="12" customWidth="1"/>
+    <col min="14113" max="14113" width="12.90625" style="12" customWidth="1"/>
+    <col min="14114" max="14115" width="7.1796875" style="12" customWidth="1"/>
+    <col min="14116" max="14339" width="13.7265625" style="12"/>
+    <col min="14340" max="14340" width="5" style="12" customWidth="1"/>
+    <col min="14341" max="14341" width="3.90625" style="12" customWidth="1"/>
+    <col min="14342" max="14342" width="6.08984375" style="12" customWidth="1"/>
+    <col min="14343" max="14343" width="17.54296875" style="12" customWidth="1"/>
+    <col min="14344" max="14344" width="20.7265625" style="12" customWidth="1"/>
+    <col min="14345" max="14345" width="8.26953125" style="12" customWidth="1"/>
+    <col min="14346" max="14347" width="5.54296875" style="12" customWidth="1"/>
+    <col min="14348" max="14349" width="7.1796875" style="12" customWidth="1"/>
+    <col min="14350" max="14350" width="8.453125" style="12" customWidth="1"/>
+    <col min="14351" max="14352" width="5.54296875" style="12" customWidth="1"/>
+    <col min="14353" max="14354" width="5" style="12" customWidth="1"/>
+    <col min="14355" max="14359" width="5.54296875" style="12" customWidth="1"/>
+    <col min="14360" max="14360" width="6.08984375" style="12" customWidth="1"/>
+    <col min="14361" max="14362" width="9.36328125" style="12" customWidth="1"/>
+    <col min="14363" max="14363" width="7.1796875" style="12" customWidth="1"/>
+    <col min="14364" max="14364" width="12" style="12" customWidth="1"/>
+    <col min="14365" max="14365" width="8.26953125" style="12" customWidth="1"/>
+    <col min="14366" max="14366" width="11.54296875" style="12" customWidth="1"/>
+    <col min="14367" max="14368" width="6.08984375" style="12" customWidth="1"/>
+    <col min="14369" max="14369" width="12.90625" style="12" customWidth="1"/>
+    <col min="14370" max="14371" width="7.1796875" style="12" customWidth="1"/>
+    <col min="14372" max="14595" width="13.7265625" style="12"/>
+    <col min="14596" max="14596" width="5" style="12" customWidth="1"/>
+    <col min="14597" max="14597" width="3.90625" style="12" customWidth="1"/>
+    <col min="14598" max="14598" width="6.08984375" style="12" customWidth="1"/>
+    <col min="14599" max="14599" width="17.54296875" style="12" customWidth="1"/>
+    <col min="14600" max="14600" width="20.7265625" style="12" customWidth="1"/>
+    <col min="14601" max="14601" width="8.26953125" style="12" customWidth="1"/>
+    <col min="14602" max="14603" width="5.54296875" style="12" customWidth="1"/>
+    <col min="14604" max="14605" width="7.1796875" style="12" customWidth="1"/>
+    <col min="14606" max="14606" width="8.453125" style="12" customWidth="1"/>
+    <col min="14607" max="14608" width="5.54296875" style="12" customWidth="1"/>
+    <col min="14609" max="14610" width="5" style="12" customWidth="1"/>
+    <col min="14611" max="14615" width="5.54296875" style="12" customWidth="1"/>
+    <col min="14616" max="14616" width="6.08984375" style="12" customWidth="1"/>
+    <col min="14617" max="14618" width="9.36328125" style="12" customWidth="1"/>
+    <col min="14619" max="14619" width="7.1796875" style="12" customWidth="1"/>
+    <col min="14620" max="14620" width="12" style="12" customWidth="1"/>
+    <col min="14621" max="14621" width="8.26953125" style="12" customWidth="1"/>
+    <col min="14622" max="14622" width="11.54296875" style="12" customWidth="1"/>
+    <col min="14623" max="14624" width="6.08984375" style="12" customWidth="1"/>
+    <col min="14625" max="14625" width="12.90625" style="12" customWidth="1"/>
+    <col min="14626" max="14627" width="7.1796875" style="12" customWidth="1"/>
+    <col min="14628" max="14851" width="13.7265625" style="12"/>
+    <col min="14852" max="14852" width="5" style="12" customWidth="1"/>
+    <col min="14853" max="14853" width="3.90625" style="12" customWidth="1"/>
+    <col min="14854" max="14854" width="6.08984375" style="12" customWidth="1"/>
+    <col min="14855" max="14855" width="17.54296875" style="12" customWidth="1"/>
+    <col min="14856" max="14856" width="20.7265625" style="12" customWidth="1"/>
+    <col min="14857" max="14857" width="8.26953125" style="12" customWidth="1"/>
+    <col min="14858" max="14859" width="5.54296875" style="12" customWidth="1"/>
+    <col min="14860" max="14861" width="7.1796875" style="12" customWidth="1"/>
+    <col min="14862" max="14862" width="8.453125" style="12" customWidth="1"/>
+    <col min="14863" max="14864" width="5.54296875" style="12" customWidth="1"/>
+    <col min="14865" max="14866" width="5" style="12" customWidth="1"/>
+    <col min="14867" max="14871" width="5.54296875" style="12" customWidth="1"/>
+    <col min="14872" max="14872" width="6.08984375" style="12" customWidth="1"/>
+    <col min="14873" max="14874" width="9.36328125" style="12" customWidth="1"/>
+    <col min="14875" max="14875" width="7.1796875" style="12" customWidth="1"/>
+    <col min="14876" max="14876" width="12" style="12" customWidth="1"/>
+    <col min="14877" max="14877" width="8.26953125" style="12" customWidth="1"/>
+    <col min="14878" max="14878" width="11.54296875" style="12" customWidth="1"/>
+    <col min="14879" max="14880" width="6.08984375" style="12" customWidth="1"/>
+    <col min="14881" max="14881" width="12.90625" style="12" customWidth="1"/>
+    <col min="14882" max="14883" width="7.1796875" style="12" customWidth="1"/>
+    <col min="14884" max="15107" width="13.7265625" style="12"/>
+    <col min="15108" max="15108" width="5" style="12" customWidth="1"/>
+    <col min="15109" max="15109" width="3.90625" style="12" customWidth="1"/>
+    <col min="15110" max="15110" width="6.08984375" style="12" customWidth="1"/>
+    <col min="15111" max="15111" width="17.54296875" style="12" customWidth="1"/>
+    <col min="15112" max="15112" width="20.7265625" style="12" customWidth="1"/>
+    <col min="15113" max="15113" width="8.26953125" style="12" customWidth="1"/>
+    <col min="15114" max="15115" width="5.54296875" style="12" customWidth="1"/>
+    <col min="15116" max="15117" width="7.1796875" style="12" customWidth="1"/>
+    <col min="15118" max="15118" width="8.453125" style="12" customWidth="1"/>
+    <col min="15119" max="15120" width="5.54296875" style="12" customWidth="1"/>
+    <col min="15121" max="15122" width="5" style="12" customWidth="1"/>
+    <col min="15123" max="15127" width="5.54296875" style="12" customWidth="1"/>
+    <col min="15128" max="15128" width="6.08984375" style="12" customWidth="1"/>
+    <col min="15129" max="15130" width="9.36328125" style="12" customWidth="1"/>
+    <col min="15131" max="15131" width="7.1796875" style="12" customWidth="1"/>
+    <col min="15132" max="15132" width="12" style="12" customWidth="1"/>
+    <col min="15133" max="15133" width="8.26953125" style="12" customWidth="1"/>
+    <col min="15134" max="15134" width="11.54296875" style="12" customWidth="1"/>
+    <col min="15135" max="15136" width="6.08984375" style="12" customWidth="1"/>
+    <col min="15137" max="15137" width="12.90625" style="12" customWidth="1"/>
+    <col min="15138" max="15139" width="7.1796875" style="12" customWidth="1"/>
+    <col min="15140" max="15363" width="13.7265625" style="12"/>
+    <col min="15364" max="15364" width="5" style="12" customWidth="1"/>
+    <col min="15365" max="15365" width="3.90625" style="12" customWidth="1"/>
+    <col min="15366" max="15366" width="6.08984375" style="12" customWidth="1"/>
+    <col min="15367" max="15367" width="17.54296875" style="12" customWidth="1"/>
+    <col min="15368" max="15368" width="20.7265625" style="12" customWidth="1"/>
+    <col min="15369" max="15369" width="8.26953125" style="12" customWidth="1"/>
+    <col min="15370" max="15371" width="5.54296875" style="12" customWidth="1"/>
+    <col min="15372" max="15373" width="7.1796875" style="12" customWidth="1"/>
+    <col min="15374" max="15374" width="8.453125" style="12" customWidth="1"/>
+    <col min="15375" max="15376" width="5.54296875" style="12" customWidth="1"/>
+    <col min="15377" max="15378" width="5" style="12" customWidth="1"/>
+    <col min="15379" max="15383" width="5.54296875" style="12" customWidth="1"/>
+    <col min="15384" max="15384" width="6.08984375" style="12" customWidth="1"/>
+    <col min="15385" max="15386" width="9.36328125" style="12" customWidth="1"/>
+    <col min="15387" max="15387" width="7.1796875" style="12" customWidth="1"/>
+    <col min="15388" max="15388" width="12" style="12" customWidth="1"/>
+    <col min="15389" max="15389" width="8.26953125" style="12" customWidth="1"/>
+    <col min="15390" max="15390" width="11.54296875" style="12" customWidth="1"/>
+    <col min="15391" max="15392" width="6.08984375" style="12" customWidth="1"/>
+    <col min="15393" max="15393" width="12.90625" style="12" customWidth="1"/>
+    <col min="15394" max="15395" width="7.1796875" style="12" customWidth="1"/>
+    <col min="15396" max="15619" width="13.7265625" style="12"/>
+    <col min="15620" max="15620" width="5" style="12" customWidth="1"/>
+    <col min="15621" max="15621" width="3.90625" style="12" customWidth="1"/>
+    <col min="15622" max="15622" width="6.08984375" style="12" customWidth="1"/>
+    <col min="15623" max="15623" width="17.54296875" style="12" customWidth="1"/>
+    <col min="15624" max="15624" width="20.7265625" style="12" customWidth="1"/>
+    <col min="15625" max="15625" width="8.26953125" style="12" customWidth="1"/>
+    <col min="15626" max="15627" width="5.54296875" style="12" customWidth="1"/>
+    <col min="15628" max="15629" width="7.1796875" style="12" customWidth="1"/>
+    <col min="15630" max="15630" width="8.453125" style="12" customWidth="1"/>
+    <col min="15631" max="15632" width="5.54296875" style="12" customWidth="1"/>
+    <col min="15633" max="15634" width="5" style="12" customWidth="1"/>
+    <col min="15635" max="15639" width="5.54296875" style="12" customWidth="1"/>
+    <col min="15640" max="15640" width="6.08984375" style="12" customWidth="1"/>
+    <col min="15641" max="15642" width="9.36328125" style="12" customWidth="1"/>
+    <col min="15643" max="15643" width="7.1796875" style="12" customWidth="1"/>
+    <col min="15644" max="15644" width="12" style="12" customWidth="1"/>
+    <col min="15645" max="15645" width="8.26953125" style="12" customWidth="1"/>
+    <col min="15646" max="15646" width="11.54296875" style="12" customWidth="1"/>
+    <col min="15647" max="15648" width="6.08984375" style="12" customWidth="1"/>
+    <col min="15649" max="15649" width="12.90625" style="12" customWidth="1"/>
+    <col min="15650" max="15651" width="7.1796875" style="12" customWidth="1"/>
+    <col min="15652" max="15875" width="13.7265625" style="12"/>
+    <col min="15876" max="15876" width="5" style="12" customWidth="1"/>
+    <col min="15877" max="15877" width="3.90625" style="12" customWidth="1"/>
+    <col min="15878" max="15878" width="6.08984375" style="12" customWidth="1"/>
+    <col min="15879" max="15879" width="17.54296875" style="12" customWidth="1"/>
+    <col min="15880" max="15880" width="20.7265625" style="12" customWidth="1"/>
+    <col min="15881" max="15881" width="8.26953125" style="12" customWidth="1"/>
+    <col min="15882" max="15883" width="5.54296875" style="12" customWidth="1"/>
+    <col min="15884" max="15885" width="7.1796875" style="12" customWidth="1"/>
+    <col min="15886" max="15886" width="8.453125" style="12" customWidth="1"/>
+    <col min="15887" max="15888" width="5.54296875" style="12" customWidth="1"/>
+    <col min="15889" max="15890" width="5" style="12" customWidth="1"/>
+    <col min="15891" max="15895" width="5.54296875" style="12" customWidth="1"/>
+    <col min="15896" max="15896" width="6.08984375" style="12" customWidth="1"/>
+    <col min="15897" max="15898" width="9.36328125" style="12" customWidth="1"/>
+    <col min="15899" max="15899" width="7.1796875" style="12" customWidth="1"/>
+    <col min="15900" max="15900" width="12" style="12" customWidth="1"/>
+    <col min="15901" max="15901" width="8.26953125" style="12" customWidth="1"/>
+    <col min="15902" max="15902" width="11.54296875" style="12" customWidth="1"/>
+    <col min="15903" max="15904" width="6.08984375" style="12" customWidth="1"/>
+    <col min="15905" max="15905" width="12.90625" style="12" customWidth="1"/>
+    <col min="15906" max="15907" width="7.1796875" style="12" customWidth="1"/>
+    <col min="15908" max="16131" width="13.7265625" style="12"/>
+    <col min="16132" max="16132" width="5" style="12" customWidth="1"/>
+    <col min="16133" max="16133" width="3.90625" style="12" customWidth="1"/>
+    <col min="16134" max="16134" width="6.08984375" style="12" customWidth="1"/>
+    <col min="16135" max="16135" width="17.54296875" style="12" customWidth="1"/>
+    <col min="16136" max="16136" width="20.7265625" style="12" customWidth="1"/>
+    <col min="16137" max="16137" width="8.26953125" style="12" customWidth="1"/>
+    <col min="16138" max="16139" width="5.54296875" style="12" customWidth="1"/>
+    <col min="16140" max="16141" width="7.1796875" style="12" customWidth="1"/>
+    <col min="16142" max="16142" width="8.453125" style="12" customWidth="1"/>
+    <col min="16143" max="16144" width="5.54296875" style="12" customWidth="1"/>
+    <col min="16145" max="16146" width="5" style="12" customWidth="1"/>
+    <col min="16147" max="16151" width="5.54296875" style="12" customWidth="1"/>
+    <col min="16152" max="16152" width="6.08984375" style="12" customWidth="1"/>
+    <col min="16153" max="16154" width="9.36328125" style="12" customWidth="1"/>
+    <col min="16155" max="16155" width="7.1796875" style="12" customWidth="1"/>
+    <col min="16156" max="16156" width="12" style="12" customWidth="1"/>
+    <col min="16157" max="16157" width="8.26953125" style="12" customWidth="1"/>
+    <col min="16158" max="16158" width="11.54296875" style="12" customWidth="1"/>
+    <col min="16159" max="16160" width="6.08984375" style="12" customWidth="1"/>
+    <col min="16161" max="16161" width="12.90625" style="12" customWidth="1"/>
+    <col min="16162" max="16163" width="7.1796875" style="12" customWidth="1"/>
+    <col min="16164" max="16384" width="13.7265625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12839,7 +12839,7 @@
       <c r="AI8" s="11"/>
       <c r="AJ8" s="11"/>
     </row>
-    <row r="9" spans="1:36" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="8.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
       <c r="B9" s="32"/>
       <c r="C9" s="33"/>
@@ -12877,7 +12877,7 @@
       <c r="AI9" s="36"/>
       <c r="AJ9" s="36"/>
     </row>
-    <row r="10" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
@@ -12987,7 +12987,7 @@
       <c r="AI11" s="11"/>
       <c r="AJ11" s="11"/>
     </row>
-    <row r="12" spans="1:36" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="65" t="s">
         <v>35</v>
@@ -13105,7 +13105,7 @@
       <c r="AI13" s="11"/>
       <c r="AJ13" s="11"/>
     </row>
-    <row r="14" spans="1:36" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="41" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="76"/>
       <c r="C14" s="66"/>
@@ -13213,7 +13213,7 @@
       <c r="AI15" s="11"/>
       <c r="AJ15" s="11"/>
     </row>
-    <row r="16" spans="1:36" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="59" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
       <c r="B16" s="83"/>
       <c r="C16" s="84"/>
@@ -13267,7 +13267,7 @@
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
     </row>
-    <row r="17" spans="1:36" ht="46.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="47" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="65" t="s">
         <v>47</v>
@@ -13325,7 +13325,7 @@
       <c r="AI17" s="11"/>
       <c r="AJ17" s="11"/>
     </row>
-    <row r="18" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="76"/>
       <c r="C18" s="66"/>
@@ -13475,7 +13475,7 @@
       <c r="AI20" s="11"/>
       <c r="AJ20" s="11"/>
     </row>
-    <row r="21" spans="1:36" ht="58.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="58" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="76"/>
       <c r="C21" s="66"/>
@@ -13525,7 +13525,7 @@
       <c r="AI21" s="11"/>
       <c r="AJ21" s="11"/>
     </row>
-    <row r="22" spans="1:36" ht="58.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="58" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="92" t="s">
         <v>56</v>
@@ -13581,7 +13581,7 @@
       <c r="AI22" s="11"/>
       <c r="AJ22" s="11"/>
     </row>
-    <row r="23" spans="1:36" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="37" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="92"/>
       <c r="C23" s="93"/>
@@ -13619,7 +13619,7 @@
       <c r="AI23" s="11"/>
       <c r="AJ23" s="11"/>
     </row>
-    <row r="24" spans="1:36" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="92"/>
       <c r="C24" s="93"/>
@@ -13657,7 +13657,7 @@
       <c r="AI24" s="11"/>
       <c r="AJ24" s="11"/>
     </row>
-    <row r="25" spans="1:36" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="92"/>
       <c r="C25" s="93"/>
@@ -13815,7 +13815,7 @@
       <c r="AI28" s="11"/>
       <c r="AJ28" s="11"/>
     </row>
-    <row r="29" spans="1:36" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" ht="8.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="136"/>
       <c r="B29" s="137"/>
       <c r="C29" s="138"/>
@@ -14840,7 +14840,7 @@
       <c r="AI55" s="11"/>
       <c r="AJ55" s="11"/>
     </row>
-    <row r="56" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="140"/>
       <c r="B56" s="177"/>
       <c r="C56" s="155"/>
@@ -14878,7 +14878,7 @@
       <c r="AI56" s="11"/>
       <c r="AJ56" s="11"/>
     </row>
-    <row r="57" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="140"/>
       <c r="B57" s="177"/>
       <c r="C57" s="176"/>
@@ -14916,7 +14916,7 @@
       <c r="AI57" s="11"/>
       <c r="AJ57" s="11"/>
     </row>
-    <row r="58" spans="1:41" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:41" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="189"/>
       <c r="B58" s="190"/>
       <c r="C58" s="191"/>
@@ -14954,7 +14954,7 @@
       <c r="AI58" s="11"/>
       <c r="AJ58" s="11"/>
     </row>
-    <row r="59" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="197"/>
       <c r="B59" s="198"/>
       <c r="C59" s="199"/>
@@ -14997,7 +14997,7 @@
       <c r="AN59" s="200"/>
       <c r="AO59" s="200"/>
     </row>
-    <row r="60" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="197"/>
       <c r="B60" s="198"/>
       <c r="C60" s="199"/>
@@ -15040,7 +15040,7 @@
       <c r="AN60" s="200"/>
       <c r="AO60" s="200"/>
     </row>
-    <row r="61" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="197"/>
       <c r="B61" s="198"/>
       <c r="C61" s="199"/>
@@ -15083,7 +15083,7 @@
       <c r="AN61" s="200"/>
       <c r="AO61" s="200"/>
     </row>
-    <row r="62" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="197"/>
       <c r="B62" s="198"/>
       <c r="C62" s="199"/>
@@ -15126,7 +15126,7 @@
       <c r="AN62" s="200"/>
       <c r="AO62" s="200"/>
     </row>
-    <row r="63" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="197"/>
       <c r="B63" s="198"/>
       <c r="C63" s="199"/>
@@ -15169,7 +15169,7 @@
       <c r="AN63" s="200"/>
       <c r="AO63" s="200"/>
     </row>
-    <row r="64" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E64" s="201"/>
       <c r="F64" s="201"/>
       <c r="G64" s="201"/>
@@ -15201,7 +15201,7 @@
       <c r="AN64" s="200"/>
       <c r="AO64" s="200"/>
     </row>
-    <row r="65" spans="5:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E65" s="201"/>
       <c r="F65" s="201"/>
       <c r="G65" s="201"/>
@@ -15233,7 +15233,7 @@
       <c r="AN65" s="200"/>
       <c r="AO65" s="200"/>
     </row>
-    <row r="66" spans="5:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E66" s="201"/>
       <c r="F66" s="201"/>
       <c r="G66" s="201"/>
@@ -15265,7 +15265,7 @@
       <c r="AN66" s="200"/>
       <c r="AO66" s="200"/>
     </row>
-    <row r="67" spans="5:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E67" s="201"/>
       <c r="F67" s="201"/>
       <c r="G67" s="201"/>
@@ -15297,7 +15297,7 @@
       <c r="AN67" s="200"/>
       <c r="AO67" s="200"/>
     </row>
-    <row r="68" spans="5:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z68" s="11"/>
       <c r="AA68" s="11"/>
       <c r="AB68" s="11"/>
@@ -15310,7 +15310,7 @@
       <c r="AI68" s="11"/>
       <c r="AJ68" s="11"/>
     </row>
-    <row r="69" spans="5:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z69" s="11"/>
       <c r="AA69" s="11"/>
       <c r="AB69" s="11"/>
@@ -15323,7 +15323,7 @@
       <c r="AI69" s="11"/>
       <c r="AJ69" s="11"/>
     </row>
-    <row r="70" spans="5:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z70" s="11"/>
       <c r="AA70" s="11"/>
       <c r="AB70" s="11"/>
@@ -15336,7 +15336,7 @@
       <c r="AI70" s="11"/>
       <c r="AJ70" s="11"/>
     </row>
-    <row r="71" spans="5:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z71" s="11"/>
       <c r="AA71" s="11"/>
       <c r="AB71" s="11"/>
@@ -15349,7 +15349,7 @@
       <c r="AI71" s="11"/>
       <c r="AJ71" s="11"/>
     </row>
-    <row r="72" spans="5:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z72" s="11"/>
       <c r="AA72" s="11"/>
       <c r="AB72" s="11"/>
@@ -15362,7 +15362,7 @@
       <c r="AI72" s="11"/>
       <c r="AJ72" s="11"/>
     </row>
-    <row r="73" spans="5:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z73" s="11"/>
       <c r="AA73" s="11"/>
       <c r="AB73" s="11"/>
@@ -15375,7 +15375,7 @@
       <c r="AI73" s="11"/>
       <c r="AJ73" s="11"/>
     </row>
-    <row r="74" spans="5:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z74" s="11"/>
       <c r="AA74" s="11"/>
       <c r="AB74" s="11"/>
@@ -15388,7 +15388,7 @@
       <c r="AI74" s="11"/>
       <c r="AJ74" s="11"/>
     </row>
-    <row r="75" spans="5:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z75" s="11"/>
       <c r="AA75" s="11"/>
       <c r="AB75" s="11"/>
@@ -15401,7 +15401,7 @@
       <c r="AI75" s="11"/>
       <c r="AJ75" s="11"/>
     </row>
-    <row r="76" spans="5:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z76" s="11"/>
       <c r="AA76" s="11"/>
       <c r="AB76" s="11"/>
@@ -15414,7 +15414,7 @@
       <c r="AI76" s="11"/>
       <c r="AJ76" s="11"/>
     </row>
-    <row r="77" spans="5:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z77" s="11"/>
       <c r="AA77" s="11"/>
       <c r="AB77" s="11"/>
@@ -15427,7 +15427,7 @@
       <c r="AI77" s="11"/>
       <c r="AJ77" s="11"/>
     </row>
-    <row r="78" spans="5:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z78" s="11"/>
       <c r="AA78" s="11"/>
       <c r="AB78" s="11"/>
@@ -15440,7 +15440,7 @@
       <c r="AI78" s="11"/>
       <c r="AJ78" s="11"/>
     </row>
-    <row r="79" spans="5:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z79" s="11"/>
       <c r="AA79" s="11"/>
       <c r="AB79" s="11"/>
@@ -15453,7 +15453,7 @@
       <c r="AI79" s="11"/>
       <c r="AJ79" s="11"/>
     </row>
-    <row r="80" spans="5:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z80" s="11"/>
       <c r="AA80" s="11"/>
       <c r="AB80" s="11"/>
@@ -15466,7 +15466,7 @@
       <c r="AI80" s="11"/>
       <c r="AJ80" s="11"/>
     </row>
-    <row r="81" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z81" s="11"/>
       <c r="AA81" s="11"/>
       <c r="AB81" s="11"/>
@@ -15479,7 +15479,7 @@
       <c r="AI81" s="11"/>
       <c r="AJ81" s="11"/>
     </row>
-    <row r="82" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z82" s="11"/>
       <c r="AA82" s="11"/>
       <c r="AB82" s="11"/>
@@ -15492,7 +15492,7 @@
       <c r="AI82" s="11"/>
       <c r="AJ82" s="11"/>
     </row>
-    <row r="83" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z83" s="11"/>
       <c r="AA83" s="11"/>
       <c r="AB83" s="11"/>
@@ -15505,7 +15505,7 @@
       <c r="AI83" s="11"/>
       <c r="AJ83" s="11"/>
     </row>
-    <row r="84" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z84" s="11"/>
       <c r="AA84" s="11"/>
       <c r="AB84" s="11"/>
@@ -15518,7 +15518,7 @@
       <c r="AI84" s="11"/>
       <c r="AJ84" s="11"/>
     </row>
-    <row r="85" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z85" s="11"/>
       <c r="AA85" s="11"/>
       <c r="AB85" s="11"/>
@@ -15531,7 +15531,7 @@
       <c r="AI85" s="11"/>
       <c r="AJ85" s="11"/>
     </row>
-    <row r="86" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z86" s="11"/>
       <c r="AA86" s="11"/>
       <c r="AB86" s="11"/>
@@ -15544,7 +15544,7 @@
       <c r="AI86" s="11"/>
       <c r="AJ86" s="11"/>
     </row>
-    <row r="87" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z87" s="11"/>
       <c r="AA87" s="11"/>
       <c r="AB87" s="11"/>
@@ -15557,7 +15557,7 @@
       <c r="AI87" s="11"/>
       <c r="AJ87" s="11"/>
     </row>
-    <row r="88" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z88" s="11"/>
       <c r="AA88" s="11"/>
       <c r="AB88" s="11"/>
@@ -15570,7 +15570,7 @@
       <c r="AI88" s="11"/>
       <c r="AJ88" s="11"/>
     </row>
-    <row r="89" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z89" s="11"/>
       <c r="AA89" s="11"/>
       <c r="AB89" s="11"/>
@@ -15583,7 +15583,7 @@
       <c r="AI89" s="11"/>
       <c r="AJ89" s="11"/>
     </row>
-    <row r="90" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z90" s="11"/>
       <c r="AA90" s="11"/>
       <c r="AB90" s="11"/>
@@ -15596,7 +15596,7 @@
       <c r="AI90" s="11"/>
       <c r="AJ90" s="11"/>
     </row>
-    <row r="91" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z91" s="11"/>
       <c r="AA91" s="11"/>
       <c r="AB91" s="11"/>
@@ -15609,7 +15609,7 @@
       <c r="AI91" s="11"/>
       <c r="AJ91" s="11"/>
     </row>
-    <row r="92" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z92" s="11"/>
       <c r="AA92" s="11"/>
       <c r="AB92" s="11"/>
@@ -15622,7 +15622,7 @@
       <c r="AI92" s="11"/>
       <c r="AJ92" s="11"/>
     </row>
-    <row r="93" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z93" s="11"/>
       <c r="AA93" s="11"/>
       <c r="AB93" s="11"/>
@@ -15635,7 +15635,7 @@
       <c r="AI93" s="11"/>
       <c r="AJ93" s="11"/>
     </row>
-    <row r="94" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z94" s="11"/>
       <c r="AA94" s="11"/>
       <c r="AB94" s="11"/>
@@ -15648,7 +15648,7 @@
       <c r="AI94" s="11"/>
       <c r="AJ94" s="11"/>
     </row>
-    <row r="95" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z95" s="11"/>
       <c r="AA95" s="11"/>
       <c r="AB95" s="11"/>
@@ -15661,7 +15661,7 @@
       <c r="AI95" s="11"/>
       <c r="AJ95" s="11"/>
     </row>
-    <row r="96" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z96" s="11"/>
       <c r="AA96" s="11"/>
       <c r="AB96" s="11"/>
@@ -15674,7 +15674,7 @@
       <c r="AI96" s="11"/>
       <c r="AJ96" s="11"/>
     </row>
-    <row r="97" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z97" s="11"/>
       <c r="AA97" s="11"/>
       <c r="AB97" s="11"/>
@@ -15687,7 +15687,7 @@
       <c r="AI97" s="11"/>
       <c r="AJ97" s="11"/>
     </row>
-    <row r="98" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z98" s="11"/>
       <c r="AA98" s="11"/>
       <c r="AB98" s="11"/>
@@ -15700,7 +15700,7 @@
       <c r="AI98" s="11"/>
       <c r="AJ98" s="11"/>
     </row>
-    <row r="99" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z99" s="11"/>
       <c r="AA99" s="11"/>
       <c r="AB99" s="11"/>
@@ -15713,7 +15713,7 @@
       <c r="AI99" s="11"/>
       <c r="AJ99" s="11"/>
     </row>
-    <row r="100" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z100" s="11"/>
       <c r="AA100" s="11"/>
       <c r="AB100" s="11"/>
@@ -15726,7 +15726,7 @@
       <c r="AI100" s="11"/>
       <c r="AJ100" s="11"/>
     </row>
-    <row r="101" spans="26:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="26:36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z101" s="11"/>
       <c r="AA101" s="11"/>
       <c r="AB101" s="11"/>
@@ -16076,7 +16076,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Z1" location="目录!A1" display="返回" xr:uid="{691DD057-B0F0-4F00-AB4C-E2BD689349CC}"/>
+    <hyperlink ref="Z1" location="目录!A1" display="返回" xr:uid="{8DBD01CD-6F87-45BE-B7B9-F65FF4C4E0ED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.196850393700787" bottom="0.196850393700787" header="0.511811023622047" footer="0.511811023622047"/>
